--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/jshepard/desktop/beyondcarbon/data/output/eps/va/trans/bhnvfeal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/jshepard/desktop/beyondcarbon/data/output/eps/mn/trans/bhnvfeal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9D33E7-9D23-AB49-8BAB-81031F94ED9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07DD6E9-1897-BD41-821F-640B64E0E315}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12640" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1888,135 +1888,135 @@
       </c>
       <c r="B2" s="2">
         <f>SYFAFE!E31</f>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="C2" s="2">
         <f>B2</f>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:AH8" si="0">C2</f>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="AA2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="AG2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="AH2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -2025,135 +2025,135 @@
       </c>
       <c r="B3" s="2">
         <f>SYFAFE!E32</f>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="T3" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -2162,135 +2162,135 @@
       </c>
       <c r="B4" s="2">
         <f>SYFAFE!E33</f>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AE4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AF4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AG4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -2299,135 +2299,135 @@
       </c>
       <c r="B5" s="2">
         <f>SYFAFE!E34</f>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AE5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -2710,135 +2710,135 @@
       </c>
       <c r="B8" s="2">
         <f>SYFAFE!E37</f>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2972,135 +2972,135 @@
       </c>
       <c r="B2" s="2">
         <f>SYFAFE!F22</f>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="C2" s="2">
         <f>B2</f>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:AH8" si="0">C2</f>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="AA2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="AG2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="AH2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -3109,135 +3109,135 @@
       </c>
       <c r="B3" s="2">
         <f>SYFAFE!F23</f>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="T3" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -3246,135 +3246,135 @@
       </c>
       <c r="B4" s="2">
         <f>SYFAFE!F24</f>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AE4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AF4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AG4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -3383,135 +3383,135 @@
       </c>
       <c r="B5" s="2">
         <f>SYFAFE!F25</f>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AE5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -3794,135 +3794,135 @@
       </c>
       <c r="B8" s="2">
         <f>SYFAFE!F28</f>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
     </row>
   </sheetData>
@@ -4056,135 +4056,135 @@
       </c>
       <c r="B2" s="2">
         <f>SYFAFE!F31</f>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="C2" s="2">
         <f>B2</f>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:AH8" si="0">C2</f>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="AA2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="AG2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="AH2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -4193,135 +4193,135 @@
       </c>
       <c r="B3" s="2">
         <f>SYFAFE!F32</f>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="T3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -4330,135 +4330,135 @@
       </c>
       <c r="B4" s="2">
         <f>SYFAFE!F33</f>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AE4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AF4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AG4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -4467,135 +4467,135 @@
       </c>
       <c r="B5" s="2">
         <f>SYFAFE!F34</f>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AE5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -4878,135 +4878,135 @@
       </c>
       <c r="B8" s="2">
         <f>SYFAFE!F37</f>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5140,135 +5140,135 @@
       </c>
       <c r="B2" s="2">
         <f>SYFAFE!G22</f>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="C2" s="2">
         <f>B2</f>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:AH8" si="0">C2</f>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="AA2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="AG2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="AH2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -5277,135 +5277,135 @@
       </c>
       <c r="B3" s="2">
         <f>SYFAFE!G23</f>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="T3" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -5414,135 +5414,135 @@
       </c>
       <c r="B4" s="2">
         <f>SYFAFE!G24</f>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AE4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AF4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AG4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -5551,135 +5551,135 @@
       </c>
       <c r="B5" s="2">
         <f>SYFAFE!G25</f>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AE5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -5688,135 +5688,135 @@
       </c>
       <c r="B6" s="2">
         <f>SYFAFE!G26</f>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="1"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="S6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="T6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="U6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="V6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="W6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="X6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="Y6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="Z6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="AA6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="AB6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="AC6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="AD6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="AE6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="AF6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="AG6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="AH6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -5825,135 +5825,135 @@
       </c>
       <c r="B7" s="2">
         <f>SYFAFE!G27</f>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="1"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="S7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="T7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="U7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="V7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="W7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="X7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="Y7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="AA7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="AB7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="AC7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="AD7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="AE7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="AF7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="AG7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="AH7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -5962,135 +5962,135 @@
       </c>
       <c r="B8" s="2">
         <f>SYFAFE!G28</f>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
     </row>
   </sheetData>
@@ -7015,19 +7015,19 @@
         <v>10</v>
       </c>
       <c r="B3" s="10">
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="C3" s="10">
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="D3" s="11">
         <v>2.61E-4</v>
       </c>
       <c r="E3" s="11">
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="F3" s="11">
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="G3" s="11">
         <v>3.1500000000000001E-4</v>
@@ -7041,16 +7041,16 @@
         <v>8</v>
       </c>
       <c r="B4" s="10">
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="C4" s="10">
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="D4" s="11">
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="E4" s="11">
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="F4" s="11">
         <v>0</v>
@@ -7059,7 +7059,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="11">
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15">
@@ -7093,16 +7093,16 @@
         <v>11</v>
       </c>
       <c r="B6" s="10">
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="C6" s="10">
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="D6" s="10">
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="E6" s="11">
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="11">
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15">
@@ -7119,16 +7119,16 @@
         <v>12</v>
       </c>
       <c r="B7" s="10">
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="C7" s="10">
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="D7" s="10">
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="E7" s="11">
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="11">
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15">
@@ -7145,25 +7145,25 @@
         <v>13</v>
       </c>
       <c r="B8" s="10">
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="C8" s="10">
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="D8" s="11">
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="E8" s="11">
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="F8" s="11">
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="G8" s="11">
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="H8" s="11">
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15">
@@ -7226,19 +7226,19 @@
         <v>2.1970000000000002E-3</v>
       </c>
       <c r="C13" s="14">
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="D13" s="14">
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="E13" s="14">
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="F13" s="14">
         <v>0</v>
       </c>
       <c r="G13" s="14">
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="H13" s="14">
         <v>0</v>
@@ -7275,16 +7275,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="14">
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="C15" s="14">
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="D15" s="14">
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="E15" s="14">
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="F15" s="14">
         <v>0</v>
@@ -7293,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="14">
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15">
@@ -7301,16 +7301,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="14">
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="C16" s="14">
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="D16" s="14">
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="E16" s="14">
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="F16" s="14">
         <v>0</v>
@@ -7319,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="14">
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15">
@@ -7389,11 +7389,11 @@
       </c>
       <c r="B22" s="10">
         <f>B3</f>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="C22" s="10">
         <f>B4</f>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="D22" s="10">
         <f>B5</f>
@@ -7401,15 +7401,15 @@
       </c>
       <c r="E22" s="10">
         <f>B6</f>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="F22" s="10">
         <f>B7</f>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="G22" s="10">
         <f>B8</f>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15">
@@ -7418,11 +7418,11 @@
       </c>
       <c r="B23" s="10">
         <f>C3</f>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="C23" s="10">
         <f>C4</f>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="D23" s="10">
         <f>C5</f>
@@ -7430,15 +7430,15 @@
       </c>
       <c r="E23" s="10">
         <f>C6</f>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="F23" s="10">
         <f>C7</f>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="G23" s="10">
         <f>C8</f>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15">
@@ -7451,7 +7451,7 @@
       </c>
       <c r="C24" s="11">
         <f>D4</f>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="D24" s="10">
         <f>D5</f>
@@ -7459,15 +7459,15 @@
       </c>
       <c r="E24" s="10">
         <f>D6</f>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="F24" s="10">
         <f>D7</f>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="G24" s="11">
         <f>D8</f>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15">
@@ -7476,11 +7476,11 @@
       </c>
       <c r="B25" s="11">
         <f>E3</f>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="C25" s="11">
         <f>E4</f>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="D25" s="11">
         <f>E5</f>
@@ -7488,15 +7488,15 @@
       </c>
       <c r="E25" s="11">
         <f>E6</f>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="F25" s="11">
         <f>E7</f>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="G25" s="11">
         <f>E8</f>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="B26" s="11">
         <f>F3</f>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="C26" s="11">
         <f>F4</f>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="G26" s="11">
         <f>F8</f>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15">
@@ -7554,7 +7554,7 @@
       </c>
       <c r="G27" s="11">
         <f>G8</f>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15">
@@ -7567,7 +7567,7 @@
       </c>
       <c r="C28" s="11">
         <f>H4</f>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="D28" s="11">
         <f>H5</f>
@@ -7575,15 +7575,15 @@
       </c>
       <c r="E28" s="11">
         <f>H6</f>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
       <c r="F28" s="11">
         <f>H7</f>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="G28" s="11">
         <f>H8</f>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="32">
@@ -7627,11 +7627,11 @@
       </c>
       <c r="E31" s="14">
         <f>B15</f>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="F31" s="14">
         <f>B16</f>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="G31" s="14">
         <f>B17</f>
@@ -7648,7 +7648,7 @@
       </c>
       <c r="C32" s="14">
         <f>C13</f>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="D32" s="14">
         <f>C14</f>
@@ -7656,11 +7656,11 @@
       </c>
       <c r="E32" s="14">
         <f>C15</f>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="F32" s="14">
         <f>C16</f>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="G32" s="14">
         <f>C17</f>
@@ -7677,7 +7677,7 @@
       </c>
       <c r="C33" s="14">
         <f>D13</f>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="D33" s="14">
         <f>D14</f>
@@ -7685,11 +7685,11 @@
       </c>
       <c r="E33" s="14">
         <f>D15</f>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="F33" s="14">
         <f>D16</f>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="G33" s="14">
         <f>D17</f>
@@ -7706,7 +7706,7 @@
       </c>
       <c r="C34" s="14">
         <f>E13</f>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="D34" s="14">
         <f>E14</f>
@@ -7714,11 +7714,11 @@
       </c>
       <c r="E34" s="14">
         <f>E15</f>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="F34" s="14">
         <f>E16</f>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="G34" s="14">
         <f>E17</f>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="C36" s="14">
         <f>G13</f>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="D36" s="14">
         <f>G14</f>
@@ -7801,11 +7801,11 @@
       </c>
       <c r="E37" s="14">
         <f>H15</f>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="F37" s="14">
         <f>H16</f>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="G37" s="14">
         <f>H17</f>
@@ -7944,135 +7944,135 @@
       </c>
       <c r="B2" s="2">
         <f>SYFAFE!B3</f>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="C2" s="2">
         <f>B2</f>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:AH8" si="0">C2</f>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="AA2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="AG2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="AH2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -8081,135 +8081,135 @@
       </c>
       <c r="B3" s="2">
         <f>SYFAFE!C3</f>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="1"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="1"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="1"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="1"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="1"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="1"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" si="1"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" si="0"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="T3" s="2">
         <f t="shared" si="0"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" si="0"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" si="0"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" si="0"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" si="0"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" si="0"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" si="0"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="0"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="0"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" si="0"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="0"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="0"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" si="0"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -8355,135 +8355,135 @@
       </c>
       <c r="B5" s="2">
         <f>SYFAFE!E3</f>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="AE5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -8492,135 +8492,135 @@
       </c>
       <c r="B6" s="2">
         <f>SYFAFE!F3</f>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="1"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="S6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="T6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="U6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="V6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="W6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="X6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="Y6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="Z6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="AA6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="AB6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="AC6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="AD6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="AE6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="AF6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="AG6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="AH6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -9881,135 +9881,135 @@
       </c>
       <c r="B2" s="2">
         <f>SYFAFE!C22</f>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="C2" s="2">
         <f>B2</f>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:AH8" si="0">C2</f>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="AA2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="AG2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="AH2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -10018,135 +10018,135 @@
       </c>
       <c r="B3" s="2">
         <f>SYFAFE!C23</f>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="1"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="1"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="1"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="1"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="1"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="1"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" si="1"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" si="0"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="T3" s="2">
         <f t="shared" si="0"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" si="0"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" si="0"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" si="0"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" si="0"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" si="0"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" si="0"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="0"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="0"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" si="0"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="0"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="0"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" si="0"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -10155,135 +10155,135 @@
       </c>
       <c r="B4" s="2">
         <f>SYFAFE!C24</f>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="AE4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="AF4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="AG4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -10292,135 +10292,135 @@
       </c>
       <c r="B5" s="2">
         <f>SYFAFE!C25</f>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="AE5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -10703,135 +10703,135 @@
       </c>
       <c r="B8" s="2">
         <f>SYFAFE!C28</f>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
     </row>
   </sheetData>
@@ -11102,135 +11102,135 @@
       </c>
       <c r="B3" s="2">
         <f>SYFAFE!C32</f>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="1"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="1"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="1"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="1"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="1"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="1"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" si="1"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" si="0"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="T3" s="2">
         <f t="shared" si="0"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" si="0"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" si="0"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" si="0"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" si="0"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" si="0"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" si="0"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="0"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="0"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" si="0"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="0"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="0"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" si="0"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -11239,135 +11239,135 @@
       </c>
       <c r="B4" s="2">
         <f>SYFAFE!C33</f>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="AE4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="AF4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="AG4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -11376,135 +11376,135 @@
       </c>
       <c r="B5" s="2">
         <f>SYFAFE!C34</f>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="AE5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -11650,135 +11650,135 @@
       </c>
       <c r="B7" s="2">
         <f>SYFAFE!C36</f>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="1"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="S7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="T7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="U7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="V7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="W7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="X7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="Y7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="AA7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="AB7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="AC7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="AD7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="AE7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="AF7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="AG7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="AH7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -13986,135 +13986,135 @@
       </c>
       <c r="B2" s="2">
         <f>SYFAFE!E22</f>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
         <f>B2</f>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:AH8" si="0">C2</f>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -14123,135 +14123,135 @@
       </c>
       <c r="B3" s="2">
         <f>SYFAFE!E23</f>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="T3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -14260,135 +14260,135 @@
       </c>
       <c r="B4" s="2">
         <f>SYFAFE!E24</f>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -14397,135 +14397,135 @@
       </c>
       <c r="B5" s="2">
         <f>SYFAFE!E25</f>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -14808,135 +14808,135 @@
       </c>
       <c r="B8" s="2">
         <f>SYFAFE!E28</f>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/jshepard/desktop/beyondcarbon/data/output/eps/mn/trans/bhnvfeal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07DD6E9-1897-BD41-821F-640B64E0E315}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145DD97E-BB0D-E244-937E-C643B4371E38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12640" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7093,16 +7093,16 @@
         <v>11</v>
       </c>
       <c r="B6" s="10">
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="C6" s="10">
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="D6" s="10">
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="E6" s="11">
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="11">
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="E22" s="10">
         <f>B6</f>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="F22" s="10">
         <f>B7</f>
@@ -7430,7 +7430,7 @@
       </c>
       <c r="E23" s="10">
         <f>C6</f>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="F23" s="10">
         <f>C7</f>
@@ -7459,7 +7459,7 @@
       </c>
       <c r="E24" s="10">
         <f>D6</f>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="F24" s="10">
         <f>D7</f>
@@ -7488,7 +7488,7 @@
       </c>
       <c r="E25" s="11">
         <f>E6</f>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="F25" s="11">
         <f>E7</f>
@@ -7575,7 +7575,7 @@
       </c>
       <c r="E28" s="11">
         <f>H6</f>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="F28" s="11">
         <f>H7</f>
@@ -13986,135 +13986,135 @@
       </c>
       <c r="B2" s="2">
         <f>SYFAFE!E22</f>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="C2" s="2">
         <f>B2</f>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:AH8" si="0">C2</f>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="AA2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="AG2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="AH2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2523003446111029E-3</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -14123,135 +14123,135 @@
       </c>
       <c r="B3" s="2">
         <f>SYFAFE!E23</f>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="T3" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -14260,135 +14260,135 @@
       </c>
       <c r="B4" s="2">
         <f>SYFAFE!E24</f>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AE4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AF4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AG4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -14397,135 +14397,135 @@
       </c>
       <c r="B5" s="2">
         <f>SYFAFE!E25</f>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AE5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3095218264560222E-4</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -14808,135 +14808,135 @@
       </c>
       <c r="B8" s="2">
         <f>SYFAFE!E28</f>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2928565479368064E-3</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/jshepard/desktop/beyondcarbon/data/output/eps/mn/trans/bhnvfeal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/jshepard/projects/state-eps-data-repository/mn/trans/bhnvfeal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145DD97E-BB0D-E244-937E-C643B4371E38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695718C5-4EF0-304C-BE9B-9E70C2AF121A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12640" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7033,7 +7033,7 @@
         <v>3.1500000000000001E-4</v>
       </c>
       <c r="H3" s="11">
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15">
@@ -7241,7 +7241,7 @@
         <v>8.2600000000000002E-4</v>
       </c>
       <c r="H13" s="14">
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="B28" s="11">
         <f>H3</f>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="C28" s="11">
         <f>H4</f>
@@ -7793,7 +7793,7 @@
       </c>
       <c r="C37" s="14">
         <f>H13</f>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="D37" s="14">
         <f>H14</f>
@@ -8766,135 +8766,135 @@
       </c>
       <c r="B8" s="2">
         <f>SYFAFE!H3</f>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
     </row>
   </sheetData>
@@ -11787,135 +11787,135 @@
       </c>
       <c r="B8" s="2">
         <f>SYFAFE!C37</f>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/jshepard/desktop/beyondcarbon/data/output/eps/va/trans/bhnvfeal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/jshepard/projects/state-eps-data-repository/mn/trans/bhnvfeal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9D33E7-9D23-AB49-8BAB-81031F94ED9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695718C5-4EF0-304C-BE9B-9E70C2AF121A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12640" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1888,135 +1888,135 @@
       </c>
       <c r="B2" s="2">
         <f>SYFAFE!E31</f>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="C2" s="2">
         <f>B2</f>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:AH8" si="0">C2</f>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="AA2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="AG2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="AH2" s="2">
         <f t="shared" si="0"/>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -2025,135 +2025,135 @@
       </c>
       <c r="B3" s="2">
         <f>SYFAFE!E32</f>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="T3" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -2162,135 +2162,135 @@
       </c>
       <c r="B4" s="2">
         <f>SYFAFE!E33</f>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AE4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AF4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AG4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -2299,135 +2299,135 @@
       </c>
       <c r="B5" s="2">
         <f>SYFAFE!E34</f>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AE5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="0"/>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -2710,135 +2710,135 @@
       </c>
       <c r="B8" s="2">
         <f>SYFAFE!E37</f>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2972,135 +2972,135 @@
       </c>
       <c r="B2" s="2">
         <f>SYFAFE!F22</f>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="C2" s="2">
         <f>B2</f>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:AH8" si="0">C2</f>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="AA2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="AG2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="AH2" s="2">
         <f t="shared" si="0"/>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -3109,135 +3109,135 @@
       </c>
       <c r="B3" s="2">
         <f>SYFAFE!F23</f>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="T3" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -3246,135 +3246,135 @@
       </c>
       <c r="B4" s="2">
         <f>SYFAFE!F24</f>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AE4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AF4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AG4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -3383,135 +3383,135 @@
       </c>
       <c r="B5" s="2">
         <f>SYFAFE!F25</f>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AE5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -3794,135 +3794,135 @@
       </c>
       <c r="B8" s="2">
         <f>SYFAFE!F28</f>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
     </row>
   </sheetData>
@@ -4056,135 +4056,135 @@
       </c>
       <c r="B2" s="2">
         <f>SYFAFE!F31</f>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="C2" s="2">
         <f>B2</f>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:AH8" si="0">C2</f>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="AA2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="AG2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="AH2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -4193,135 +4193,135 @@
       </c>
       <c r="B3" s="2">
         <f>SYFAFE!F32</f>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="T3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -4330,135 +4330,135 @@
       </c>
       <c r="B4" s="2">
         <f>SYFAFE!F33</f>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AE4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AF4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AG4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -4467,135 +4467,135 @@
       </c>
       <c r="B5" s="2">
         <f>SYFAFE!F34</f>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AE5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -4878,135 +4878,135 @@
       </c>
       <c r="B8" s="2">
         <f>SYFAFE!F37</f>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5140,135 +5140,135 @@
       </c>
       <c r="B2" s="2">
         <f>SYFAFE!G22</f>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="C2" s="2">
         <f>B2</f>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:AH8" si="0">C2</f>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="AA2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="AG2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="AH2" s="2">
         <f t="shared" si="0"/>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -5277,135 +5277,135 @@
       </c>
       <c r="B3" s="2">
         <f>SYFAFE!G23</f>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="T3" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -5414,135 +5414,135 @@
       </c>
       <c r="B4" s="2">
         <f>SYFAFE!G24</f>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AE4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AF4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AG4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -5551,135 +5551,135 @@
       </c>
       <c r="B5" s="2">
         <f>SYFAFE!G25</f>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AE5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="0"/>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -5688,135 +5688,135 @@
       </c>
       <c r="B6" s="2">
         <f>SYFAFE!G26</f>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="1"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="S6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="T6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="U6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="V6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="W6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="X6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="Y6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="Z6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="AA6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="AB6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="AC6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="AD6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="AE6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="AF6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="AG6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="AH6" s="2">
         <f t="shared" si="0"/>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -5825,135 +5825,135 @@
       </c>
       <c r="B7" s="2">
         <f>SYFAFE!G27</f>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="1"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="S7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="T7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="U7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="V7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="W7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="X7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="Y7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="AA7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="AB7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="AC7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="AD7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="AE7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="AF7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="AG7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="AH7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -5962,135 +5962,135 @@
       </c>
       <c r="B8" s="2">
         <f>SYFAFE!G28</f>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="0"/>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
     </row>
   </sheetData>
@@ -7015,25 +7015,25 @@
         <v>10</v>
       </c>
       <c r="B3" s="10">
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="C3" s="10">
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="D3" s="11">
         <v>2.61E-4</v>
       </c>
       <c r="E3" s="11">
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="F3" s="11">
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="G3" s="11">
         <v>3.1500000000000001E-4</v>
       </c>
       <c r="H3" s="11">
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15">
@@ -7041,16 +7041,16 @@
         <v>8</v>
       </c>
       <c r="B4" s="10">
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="C4" s="10">
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="D4" s="11">
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="E4" s="11">
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="F4" s="11">
         <v>0</v>
@@ -7059,7 +7059,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="11">
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15">
@@ -7093,16 +7093,16 @@
         <v>11</v>
       </c>
       <c r="B6" s="10">
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="C6" s="10">
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="D6" s="10">
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="E6" s="11">
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="11">
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15">
@@ -7119,16 +7119,16 @@
         <v>12</v>
       </c>
       <c r="B7" s="10">
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="C7" s="10">
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="D7" s="10">
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="E7" s="11">
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="11">
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15">
@@ -7145,25 +7145,25 @@
         <v>13</v>
       </c>
       <c r="B8" s="10">
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
       <c r="C8" s="10">
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="D8" s="11">
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="E8" s="11">
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
       <c r="F8" s="11">
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
       <c r="G8" s="11">
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
       <c r="H8" s="11">
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15">
@@ -7226,22 +7226,22 @@
         <v>2.1970000000000002E-3</v>
       </c>
       <c r="C13" s="14">
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="D13" s="14">
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="E13" s="14">
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="F13" s="14">
         <v>0</v>
       </c>
       <c r="G13" s="14">
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="H13" s="14">
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15">
@@ -7275,16 +7275,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="14">
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="C15" s="14">
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="D15" s="14">
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="E15" s="14">
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="F15" s="14">
         <v>0</v>
@@ -7293,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="14">
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15">
@@ -7301,16 +7301,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="14">
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="C16" s="14">
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="D16" s="14">
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="E16" s="14">
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="F16" s="14">
         <v>0</v>
@@ -7319,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="14">
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15">
@@ -7389,11 +7389,11 @@
       </c>
       <c r="B22" s="10">
         <f>B3</f>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="C22" s="10">
         <f>B4</f>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="D22" s="10">
         <f>B5</f>
@@ -7401,15 +7401,15 @@
       </c>
       <c r="E22" s="10">
         <f>B6</f>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="F22" s="10">
         <f>B7</f>
-        <v>2.2899403819593215E-5</v>
+        <v>9.9423036269572903E-5</v>
       </c>
       <c r="G22" s="10">
         <f>B8</f>
-        <v>2.8218046646878922E-3</v>
+        <v>5.1456942809623802E-3</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15">
@@ -7418,11 +7418,11 @@
       </c>
       <c r="B23" s="10">
         <f>C3</f>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="C23" s="10">
         <f>C4</f>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="D23" s="10">
         <f>C5</f>
@@ -7430,15 +7430,15 @@
       </c>
       <c r="E23" s="10">
         <f>C6</f>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="F23" s="10">
         <f>C7</f>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="G23" s="10">
         <f>C8</f>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15">
@@ -7451,7 +7451,7 @@
       </c>
       <c r="C24" s="11">
         <f>D4</f>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="D24" s="10">
         <f>D5</f>
@@ -7459,15 +7459,15 @@
       </c>
       <c r="E24" s="10">
         <f>D6</f>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="F24" s="10">
         <f>D7</f>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="G24" s="11">
         <f>D8</f>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15">
@@ -7476,11 +7476,11 @@
       </c>
       <c r="B25" s="11">
         <f>E3</f>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="C25" s="11">
         <f>E4</f>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="D25" s="11">
         <f>E5</f>
@@ -7488,15 +7488,15 @@
       </c>
       <c r="E25" s="11">
         <f>E6</f>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="F25" s="11">
         <f>E7</f>
-        <v>7.1260571132350152E-6</v>
+        <v>3.093941835385296E-5</v>
       </c>
       <c r="G25" s="11">
         <f>E8</f>
-        <v>8.8618658891024735E-4</v>
+        <v>1.616003162616285E-3</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="B26" s="11">
         <f>F3</f>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="C26" s="11">
         <f>F4</f>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="G26" s="11">
         <f>F8</f>
-        <v>1.950776530587952E-3</v>
+        <v>3.5573332777066374E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15">
@@ -7554,7 +7554,7 @@
       </c>
       <c r="G27" s="11">
         <f>G8</f>
-        <v>6.8679460640544171E-4</v>
+        <v>1.252402451027621E-3</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15">
@@ -7563,11 +7563,11 @@
       </c>
       <c r="B28" s="11">
         <f>H3</f>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="C28" s="11">
         <f>H4</f>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="D28" s="11">
         <f>H5</f>
@@ -7575,15 +7575,15 @@
       </c>
       <c r="E28" s="11">
         <f>H6</f>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="F28" s="11">
         <f>H7</f>
-        <v>2.1378171339705042E-5</v>
+        <v>9.281825506155886E-5</v>
       </c>
       <c r="G28" s="11">
         <f>H8</f>
-        <v>2.6585597667307418E-3</v>
+        <v>4.8480094878488545E-3</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="32">
@@ -7627,11 +7627,11 @@
       </c>
       <c r="E31" s="14">
         <f>B15</f>
-        <v>5.8899633596941527E-3</v>
+        <v>5.0767969909732589E-3</v>
       </c>
       <c r="F31" s="14">
         <f>B16</f>
-        <v>0.10723822440351093</v>
+        <v>3.1439984381256579E-2</v>
       </c>
       <c r="G31" s="14">
         <f>B17</f>
@@ -7648,7 +7648,7 @@
       </c>
       <c r="C32" s="14">
         <f>C13</f>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="D32" s="14">
         <f>C14</f>
@@ -7656,11 +7656,11 @@
       </c>
       <c r="E32" s="14">
         <f>C15</f>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="F32" s="14">
         <f>C16</f>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="G32" s="14">
         <f>C17</f>
@@ -7677,7 +7677,7 @@
       </c>
       <c r="C33" s="14">
         <f>D13</f>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="D33" s="14">
         <f>D14</f>
@@ -7685,11 +7685,11 @@
       </c>
       <c r="E33" s="14">
         <f>D15</f>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="F33" s="14">
         <f>D16</f>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="G33" s="14">
         <f>D17</f>
@@ -7706,7 +7706,7 @@
       </c>
       <c r="C34" s="14">
         <f>E13</f>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="D34" s="14">
         <f>E14</f>
@@ -7714,11 +7714,11 @@
       </c>
       <c r="E34" s="14">
         <f>E15</f>
-        <v>1.832895547268781E-3</v>
+        <v>1.579846601902397E-3</v>
       </c>
       <c r="F34" s="14">
         <f>E16</f>
-        <v>3.337142389565087E-2</v>
+        <v>9.7837972597502806E-3</v>
       </c>
       <c r="G34" s="14">
         <f>E17</f>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="C36" s="14">
         <f>G13</f>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="D36" s="14">
         <f>G14</f>
@@ -7793,7 +7793,7 @@
       </c>
       <c r="C37" s="14">
         <f>H13</f>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="D37" s="14">
         <f>H14</f>
@@ -7801,11 +7801,11 @@
       </c>
       <c r="E37" s="14">
         <f>H15</f>
-        <v>5.4986866418063425E-3</v>
+        <v>4.7395398057071903E-3</v>
       </c>
       <c r="F37" s="14">
         <f>H16</f>
-        <v>0.1001142716869526</v>
+        <v>2.9351391779250838E-2</v>
       </c>
       <c r="G37" s="14">
         <f>H17</f>
@@ -7944,135 +7944,135 @@
       </c>
       <c r="B2" s="2">
         <f>SYFAFE!B3</f>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="C2" s="2">
         <f>B2</f>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:AH8" si="0">C2</f>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="AA2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="AG2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="AH2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2130000000000001E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -8081,135 +8081,135 @@
       </c>
       <c r="B3" s="2">
         <f>SYFAFE!C3</f>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="1"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="1"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="1"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="1"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="1"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="1"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" si="1"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" si="0"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="T3" s="2">
         <f t="shared" si="0"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" si="0"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" si="0"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" si="0"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" si="0"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" si="0"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" si="0"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="0"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="0"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" si="0"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="0"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="0"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" si="0"/>
-        <v>3.3100000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -8355,135 +8355,135 @@
       </c>
       <c r="B5" s="2">
         <f>SYFAFE!E3</f>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="AE5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -8492,135 +8492,135 @@
       </c>
       <c r="B6" s="2">
         <f>SYFAFE!F3</f>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="1"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="S6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="T6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="U6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="V6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="W6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="X6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="Y6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="Z6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="AA6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="AB6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="AC6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="AD6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="AE6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="AF6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="AG6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
       <c r="AH6" s="2">
         <f t="shared" si="0"/>
-        <v>8.2799999999999996E-4</v>
+        <v>8.2700000000000004E-4</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -8766,135 +8766,135 @@
       </c>
       <c r="B8" s="2">
         <f>SYFAFE!H3</f>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
     </row>
   </sheetData>
@@ -9881,135 +9881,135 @@
       </c>
       <c r="B2" s="2">
         <f>SYFAFE!C22</f>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="C2" s="2">
         <f>B2</f>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:AH8" si="0">C2</f>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="AA2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="AG2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
       <c r="AH2" s="2">
         <f t="shared" si="0"/>
-        <v>7.9588997630576728E-4</v>
+        <v>2.1783997698910269E-3</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -10018,135 +10018,135 @@
       </c>
       <c r="B3" s="2">
         <f>SYFAFE!C23</f>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="1"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="1"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="1"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="1"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="1"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="1"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" si="1"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" si="0"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="T3" s="2">
         <f t="shared" si="0"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" si="0"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" si="0"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" si="0"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" si="0"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" si="0"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" si="0"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="0"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="0"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" si="0"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="0"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="0"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" si="0"/>
-        <v>1.792469118457498E-3</v>
+        <v>4.3300532019116813E-3</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -10155,135 +10155,135 @@
       </c>
       <c r="B4" s="2">
         <f>SYFAFE!C24</f>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="AE4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="AF4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="AG4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="0"/>
-        <v>1.559080400922843E-4</v>
+        <v>1.5511818603810101E-4</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -10292,135 +10292,135 @@
       </c>
       <c r="B5" s="2">
         <f>SYFAFE!C25</f>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="AE5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0410948504312872E-4</v>
+        <v>9.5261635184433664E-4</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -10703,135 +10703,135 @@
       </c>
       <c r="B8" s="2">
         <f>SYFAFE!C28</f>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4123284551293856E-3</v>
+        <v>2.8578490555330096E-3</v>
       </c>
     </row>
   </sheetData>
@@ -11102,135 +11102,135 @@
       </c>
       <c r="B3" s="2">
         <f>SYFAFE!C32</f>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="1"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="1"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="1"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="1"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="1"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="1"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" si="1"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" si="0"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="T3" s="2">
         <f t="shared" si="0"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" si="0"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" si="0"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" si="0"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" si="0"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" si="0"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" si="0"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="0"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="0"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" si="0"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="0"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="0"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" si="0"/>
-        <v>8.6799999999999996E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -11239,135 +11239,135 @@
       </c>
       <c r="B4" s="2">
         <f>SYFAFE!C33</f>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="AE4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="AF4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="AG4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="0"/>
-        <v>8.2700000000000004E-4</v>
+        <v>8.8500000000000004E-4</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -11376,135 +11376,135 @@
       </c>
       <c r="B5" s="2">
         <f>SYFAFE!C34</f>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="AE5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6500000000000001E-4</v>
+        <v>7.1900000000000002E-4</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -11650,135 +11650,135 @@
       </c>
       <c r="B7" s="2">
         <f>SYFAFE!C36</f>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="1"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="S7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="T7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="U7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="V7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="W7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="X7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="Y7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="AA7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="AB7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="AC7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="AD7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="AE7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="AF7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="AG7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="AH7" s="2">
         <f t="shared" si="0"/>
-        <v>7.7499999999999997E-4</v>
+        <v>8.2600000000000002E-4</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -11787,135 +11787,135 @@
       </c>
       <c r="B8" s="2">
         <f>SYFAFE!C37</f>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1569999999999996E-3</v>
       </c>
     </row>
   </sheetData>
@@ -13986,135 +13986,135 @@
       </c>
       <c r="B2" s="2">
         <f>SYFAFE!E22</f>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="C2" s="2">
         <f>B2</f>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:AH8" si="0">C2</f>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="AA2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="AG2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="AH2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -14123,135 +14123,135 @@
       </c>
       <c r="B3" s="2">
         <f>SYFAFE!E23</f>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="T3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -14260,135 +14260,135 @@
       </c>
       <c r="B4" s="2">
         <f>SYFAFE!E24</f>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AE4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AF4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AG4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -14397,135 +14397,135 @@
       </c>
       <c r="B5" s="2">
         <f>SYFAFE!E25</f>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AE5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -14808,135 +14808,135 @@
       </c>
       <c r="B8" s="2">
         <f>SYFAFE!E28</f>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/jshepard/projects/state-eps-data-repository/mn/trans/bhnvfeal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695718C5-4EF0-304C-BE9B-9E70C2AF121A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F631EC8-F8F3-5947-9537-E7B29BCABCCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12640" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\Colorado\CO_Model\InputData\trans\BHNVFEAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073E2DB2-3FDB-4A84-955D-4788BFABC88D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="390" windowWidth="20505" windowHeight="11985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39660" yWindow="465" windowWidth="27315" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -42,7 +41,7 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -50,7 +49,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -351,7 +349,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1308,162 +1306,162 @@
     <xf numFmtId="11" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="156">
-    <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - Accent2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - Accent3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - Accent4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - Accent5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - Accent6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - Accent1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - Accent2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - Accent3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - Accent4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - Accent5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - Accent6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Accent2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Accent3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Accent4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Accent5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Accent6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Accent1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Accent2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Accent3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Accent4 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Accent5 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Accent6 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Bad 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Body: normal cell 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Calculation 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Check Cell 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Column heading" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="8"/>
+    <cellStyle name="20% - Accent2 2" xfId="9"/>
+    <cellStyle name="20% - Accent3 2" xfId="10"/>
+    <cellStyle name="20% - Accent4 2" xfId="11"/>
+    <cellStyle name="20% - Accent5 2" xfId="12"/>
+    <cellStyle name="20% - Accent6 2" xfId="13"/>
+    <cellStyle name="40% - Accent1 2" xfId="14"/>
+    <cellStyle name="40% - Accent2 2" xfId="15"/>
+    <cellStyle name="40% - Accent3 2" xfId="16"/>
+    <cellStyle name="40% - Accent4 2" xfId="17"/>
+    <cellStyle name="40% - Accent5 2" xfId="18"/>
+    <cellStyle name="40% - Accent6 2" xfId="19"/>
+    <cellStyle name="60% - Accent1 2" xfId="20"/>
+    <cellStyle name="60% - Accent2 2" xfId="21"/>
+    <cellStyle name="60% - Accent3 2" xfId="22"/>
+    <cellStyle name="60% - Accent4 2" xfId="23"/>
+    <cellStyle name="60% - Accent5 2" xfId="24"/>
+    <cellStyle name="60% - Accent6 2" xfId="25"/>
+    <cellStyle name="Accent1 2" xfId="26"/>
+    <cellStyle name="Accent2 2" xfId="27"/>
+    <cellStyle name="Accent3 2" xfId="28"/>
+    <cellStyle name="Accent4 2" xfId="29"/>
+    <cellStyle name="Accent5 2" xfId="30"/>
+    <cellStyle name="Accent6 2" xfId="31"/>
+    <cellStyle name="Bad 2" xfId="32"/>
+    <cellStyle name="Body: normal cell" xfId="4"/>
+    <cellStyle name="Body: normal cell 2" xfId="33"/>
+    <cellStyle name="Calculation 2" xfId="34"/>
+    <cellStyle name="Check Cell 2" xfId="35"/>
+    <cellStyle name="Column heading" xfId="36"/>
     <cellStyle name="Comma" xfId="154" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Comma 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Comma 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Comma 4" xfId="40" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Comma 5" xfId="41" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Comma 6" xfId="42" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Comma 7" xfId="43" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Comma 8" xfId="44" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Corner heading" xfId="45" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Currency 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Currency 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Currency 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Data" xfId="49" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Data 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Data no deci" xfId="51" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Data Superscript" xfId="52" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="53" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Explanatory Text 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Footnotes: top row 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Good 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Header: bottom row 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Heading 1 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Heading 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Heading 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Heading 4 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Hed Side" xfId="63" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="Hed Side 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="Hed Side bold" xfId="65" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="Hed Side Indent" xfId="66" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="Hed Side Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="68" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="Hed Top" xfId="69" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="Hed Top - SECTION" xfId="70" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="Hed Top_3-new4" xfId="71" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Comma 2" xfId="37"/>
+    <cellStyle name="Comma 2 2" xfId="38"/>
+    <cellStyle name="Comma 3" xfId="39"/>
+    <cellStyle name="Comma 4" xfId="40"/>
+    <cellStyle name="Comma 5" xfId="41"/>
+    <cellStyle name="Comma 6" xfId="42"/>
+    <cellStyle name="Comma 7" xfId="43"/>
+    <cellStyle name="Comma 8" xfId="44"/>
+    <cellStyle name="Corner heading" xfId="45"/>
+    <cellStyle name="Currency 2" xfId="46"/>
+    <cellStyle name="Currency 3" xfId="47"/>
+    <cellStyle name="Currency 3 2" xfId="48"/>
+    <cellStyle name="Data" xfId="49"/>
+    <cellStyle name="Data 2" xfId="50"/>
+    <cellStyle name="Data no deci" xfId="51"/>
+    <cellStyle name="Data Superscript" xfId="52"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="53"/>
+    <cellStyle name="Explanatory Text 2" xfId="54"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55"/>
+    <cellStyle name="Footnotes: top row" xfId="2"/>
+    <cellStyle name="Footnotes: top row 2" xfId="56"/>
+    <cellStyle name="Good 2" xfId="57"/>
+    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Header: bottom row 2" xfId="58"/>
+    <cellStyle name="Heading 1 2" xfId="59"/>
+    <cellStyle name="Heading 2 2" xfId="60"/>
+    <cellStyle name="Heading 3 2" xfId="61"/>
+    <cellStyle name="Heading 4 2" xfId="62"/>
+    <cellStyle name="Hed Side" xfId="63"/>
+    <cellStyle name="Hed Side 2" xfId="64"/>
+    <cellStyle name="Hed Side bold" xfId="65"/>
+    <cellStyle name="Hed Side Indent" xfId="66"/>
+    <cellStyle name="Hed Side Regular" xfId="67"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="68"/>
+    <cellStyle name="Hed Top" xfId="69"/>
+    <cellStyle name="Hed Top - SECTION" xfId="70"/>
+    <cellStyle name="Hed Top_3-new4" xfId="71"/>
     <cellStyle name="Hyperlink" xfId="153" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="Input 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="Linked Cell 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="Neutral 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="72"/>
+    <cellStyle name="Input 2" xfId="73"/>
+    <cellStyle name="Linked Cell 2" xfId="74"/>
+    <cellStyle name="Neutral 2" xfId="75"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="76" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="Normal 11" xfId="77" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Normal 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Normal 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="Normal 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="Normal 3 2 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="Normal 3 2 3" xfId="84" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="Normal 3 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="Normal 3 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="Normal 3 3 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="Normal 3 4" xfId="89" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="Normal 3 4 2" xfId="90" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="Normal 3 5" xfId="91" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="Normal 3 6" xfId="92" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="Normal 3 7" xfId="93" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="Normal 4" xfId="94" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="Normal 4 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="Normal 4 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="Normal 4 2 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="Normal 4 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="Normal 4 3 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="Normal 4 3 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="Normal 4 4" xfId="103" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="Normal 4 4 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="Normal 4 5" xfId="105" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="Normal 4 6" xfId="106" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="Normal 4 7" xfId="107" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="Normal 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="Normal 5 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="Normal 5 3" xfId="110" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="Normal 6" xfId="111" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="Normal 6 2" xfId="112" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="Normal 7" xfId="113" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="Normal 7 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="Normal 8" xfId="115" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="Normal 9" xfId="116" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="Note 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="Note 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="Output 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="Parent row 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Normal 10" xfId="76"/>
+    <cellStyle name="Normal 11" xfId="77"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="78"/>
+    <cellStyle name="Normal 2 3" xfId="79"/>
+    <cellStyle name="Normal 3" xfId="80"/>
+    <cellStyle name="Normal 3 2" xfId="81"/>
+    <cellStyle name="Normal 3 2 2" xfId="82"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="83"/>
+    <cellStyle name="Normal 3 2 3" xfId="84"/>
+    <cellStyle name="Normal 3 3" xfId="85"/>
+    <cellStyle name="Normal 3 3 2" xfId="86"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="87"/>
+    <cellStyle name="Normal 3 3 3" xfId="88"/>
+    <cellStyle name="Normal 3 4" xfId="89"/>
+    <cellStyle name="Normal 3 4 2" xfId="90"/>
+    <cellStyle name="Normal 3 5" xfId="91"/>
+    <cellStyle name="Normal 3 6" xfId="92"/>
+    <cellStyle name="Normal 3 7" xfId="93"/>
+    <cellStyle name="Normal 4" xfId="94"/>
+    <cellStyle name="Normal 4 2" xfId="95"/>
+    <cellStyle name="Normal 4 2 2" xfId="96"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="97"/>
+    <cellStyle name="Normal 4 2 3" xfId="98"/>
+    <cellStyle name="Normal 4 3" xfId="99"/>
+    <cellStyle name="Normal 4 3 2" xfId="100"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="101"/>
+    <cellStyle name="Normal 4 3 3" xfId="102"/>
+    <cellStyle name="Normal 4 4" xfId="103"/>
+    <cellStyle name="Normal 4 4 2" xfId="104"/>
+    <cellStyle name="Normal 4 5" xfId="105"/>
+    <cellStyle name="Normal 4 6" xfId="106"/>
+    <cellStyle name="Normal 4 7" xfId="107"/>
+    <cellStyle name="Normal 5" xfId="108"/>
+    <cellStyle name="Normal 5 2" xfId="109"/>
+    <cellStyle name="Normal 5 3" xfId="110"/>
+    <cellStyle name="Normal 6" xfId="111"/>
+    <cellStyle name="Normal 6 2" xfId="112"/>
+    <cellStyle name="Normal 7" xfId="113"/>
+    <cellStyle name="Normal 7 2" xfId="114"/>
+    <cellStyle name="Normal 8" xfId="115"/>
+    <cellStyle name="Normal 9" xfId="116"/>
+    <cellStyle name="Note 2" xfId="117"/>
+    <cellStyle name="Note 2 2" xfId="118"/>
+    <cellStyle name="Output 2" xfId="119"/>
+    <cellStyle name="Parent row" xfId="3"/>
+    <cellStyle name="Parent row 2" xfId="120"/>
     <cellStyle name="Percent" xfId="155" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="121" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="Percent 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="Percent 3" xfId="123" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="Percent 3 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="Percent 4" xfId="125" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="Reference" xfId="126" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="Row heading" xfId="127" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="Source Hed" xfId="128" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="Source Letter" xfId="129" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="Source Superscript" xfId="130" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="Source Superscript 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="Source Text" xfId="132" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="Source Text 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="State" xfId="134" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="Superscript" xfId="135" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="Table Data" xfId="136" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="Table Head Top" xfId="137" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="Table Hed Side" xfId="138" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="Table title 2" xfId="139" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="Title 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="Title Text" xfId="141" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="Title Text 1" xfId="142" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="Title Text 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="Title-1" xfId="144" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="Title-2" xfId="145" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="Title-3" xfId="146" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="Total 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="Warning Text 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="Wrap" xfId="149" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="Wrap Bold" xfId="150" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="Wrap Title" xfId="151" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="Wrap_NTS99-~11" xfId="152" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Percent 2" xfId="121"/>
+    <cellStyle name="Percent 2 2" xfId="122"/>
+    <cellStyle name="Percent 3" xfId="123"/>
+    <cellStyle name="Percent 3 2" xfId="124"/>
+    <cellStyle name="Percent 4" xfId="125"/>
+    <cellStyle name="Reference" xfId="126"/>
+    <cellStyle name="Row heading" xfId="127"/>
+    <cellStyle name="Source Hed" xfId="128"/>
+    <cellStyle name="Source Letter" xfId="129"/>
+    <cellStyle name="Source Superscript" xfId="130"/>
+    <cellStyle name="Source Superscript 2" xfId="131"/>
+    <cellStyle name="Source Text" xfId="132"/>
+    <cellStyle name="Source Text 2" xfId="133"/>
+    <cellStyle name="State" xfId="134"/>
+    <cellStyle name="Superscript" xfId="135"/>
+    <cellStyle name="Table Data" xfId="136"/>
+    <cellStyle name="Table Head Top" xfId="137"/>
+    <cellStyle name="Table Hed Side" xfId="138"/>
+    <cellStyle name="Table title" xfId="7"/>
+    <cellStyle name="Table title 2" xfId="139"/>
+    <cellStyle name="Title 2" xfId="140"/>
+    <cellStyle name="Title Text" xfId="141"/>
+    <cellStyle name="Title Text 1" xfId="142"/>
+    <cellStyle name="Title Text 2" xfId="143"/>
+    <cellStyle name="Title-1" xfId="144"/>
+    <cellStyle name="Title-2" xfId="145"/>
+    <cellStyle name="Title-3" xfId="146"/>
+    <cellStyle name="Total 2" xfId="147"/>
+    <cellStyle name="Warning Text 2" xfId="148"/>
+    <cellStyle name="Wrap" xfId="149"/>
+    <cellStyle name="Wrap Bold" xfId="150"/>
+    <cellStyle name="Wrap Title" xfId="151"/>
+    <cellStyle name="Wrap_NTS99-~11" xfId="152"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3212,139 +3210,139 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>7.9577179850629656E-5</c:v>
+                  <c:v>1.169525976045652E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>8.0160859431150803E-5</c:v>
+                  <c:v>1.1752917234084488E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>8.0744539011671951E-5</c:v>
+                  <c:v>1.1810574707712455E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>8.1328218592193098E-5</c:v>
+                  <c:v>1.1868232181340423E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>8.1911898172714245E-5</c:v>
+                  <c:v>1.192588965496839E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>8.2495577753235392E-5</c:v>
+                  <c:v>1.1983547128596358E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>8.307925733375654E-5</c:v>
+                  <c:v>1.2041204602224325E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>8.3662936914277687E-5</c:v>
+                  <c:v>1.2098862075852291E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>8.4246616494798834E-5</c:v>
+                  <c:v>1.2156519549480259E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>8.4830296075319981E-5</c:v>
+                  <c:v>1.2214177023108226E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>8.5413975655841129E-5</c:v>
+                  <c:v>1.2271834496736195E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>8.5997655236362289E-5</c:v>
+                  <c:v>1.2329491970364162E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>8.6581334816883437E-5</c:v>
+                  <c:v>1.2387149443992128E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>8.7748693977925663E-5</c:v>
+                  <c:v>1.2502464391248049E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>8.824876789615679E-5</c:v>
+                  <c:v>1.257371509678276E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>8.9468420452621779E-5</c:v>
+                  <c:v>1.2747491616587538E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>9.0409199075422672E-5</c:v>
+                  <c:v>1.288153408147681E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>9.1640753437746759E-5</c:v>
+                  <c:v>1.3057006374713636E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>9.3117859007590004E-5</c:v>
+                  <c:v>1.3267464889272552E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>9.4883008086438589E-5</c:v>
+                  <c:v>1.3518963943025996E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>9.6633313405458996E-5</c:v>
+                  <c:v>1.3768348052724193E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>9.8089434978873195E-5</c:v>
+                  <c:v>1.39758167601846E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>9.8126835661014889E-5</c:v>
+                  <c:v>1.398114562236462E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>9.8642714571559186E-5</c:v>
+                  <c:v>1.4054648228692851E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>9.9002017448782231E-5</c:v>
+                  <c:v>1.410584182741791E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>9.9178435650853423E-5</c:v>
+                  <c:v>1.4130977954115341E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>9.9078776231944067E-5</c:v>
+                  <c:v>1.4116778445499517E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>9.8926359713739475E-5</c:v>
+                  <c:v>1.4095062087054683E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>9.8775044243654031E-5</c:v>
+                  <c:v>1.4073502606328232E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>9.8592392594559178E-5</c:v>
+                  <c:v>1.4047478335934126E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>9.8491620476227854E-5</c:v>
+                  <c:v>1.4033120289518245E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>9.8383706109250751E-5</c:v>
+                  <c:v>1.4017744613034961E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>9.8295633911023615E-5</c:v>
+                  <c:v>1.4005196055645938E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>9.8258454603636006E-5</c:v>
+                  <c:v>1.3999898735017762E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>9.8223966747206266E-5</c:v>
+                  <c:v>1.3994984893256747E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>9.8216463308172232E-5</c:v>
+                  <c:v>1.3993915800657392E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>9.7793270511782845E-5</c:v>
+                  <c:v>1.3933619144061889E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>9.7836927943553855E-5</c:v>
+                  <c:v>1.3939839470101929E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>9.7899274065092905E-5</c:v>
+                  <c:v>1.3948722567150304E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>9.8001409385857448E-5</c:v>
+                  <c:v>1.3963274843122281E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>9.8167504533605416E-5</c:v>
+                  <c:v>1.3986940137454762E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>9.8410416721029538E-5</c:v>
+                  <c:v>1.4021550350277234E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>9.8740806890235515E-5</c:v>
+                  <c:v>1.4068624456323251E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>9.9142112714225141E-5</c:v>
+                  <c:v>1.4125802649490353E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>9.9550252027335071E-5</c:v>
+                  <c:v>1.4183954480560443E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3678,88 +3676,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>7.9419153641480187E-4</c:v>
+                  <c:v>8.273213319211569E-4</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>7.9419153641480187E-4</c:v>
+                  <c:v>8.273213319211569E-4</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>7.9419153641480187E-4</c:v>
+                  <c:v>8.273213319211569E-4</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>7.9419153641480187E-4</c:v>
+                  <c:v>8.273213319211569E-4</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>7.9419153641480187E-4</c:v>
+                  <c:v>8.273213319211569E-4</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>7.9419153641480187E-4</c:v>
+                  <c:v>8.273213319211569E-4</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>7.9419153641480187E-4</c:v>
+                  <c:v>8.273213319211569E-4</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>7.9419153641480187E-4</c:v>
+                  <c:v>8.273213319211569E-4</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>7.9419153641480187E-4</c:v>
+                  <c:v>8.273213319211569E-4</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>7.9419153641480187E-4</c:v>
+                  <c:v>8.273213319211569E-4</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>7.9419153641480187E-4</c:v>
+                  <c:v>8.273213319211569E-4</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>7.9419153641480187E-4</c:v>
+                  <c:v>8.273213319211569E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>8.0019281309157803E-4</c:v>
+                  <c:v>8.3148206440313553E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>8.0619408976835419E-4</c:v>
+                  <c:v>8.3564279688511426E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>8.1219536644513036E-4</c:v>
+                  <c:v>8.3980352936709288E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>8.1819664312190652E-4</c:v>
+                  <c:v>8.4396426184907161E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>8.2419791979868279E-4</c:v>
+                  <c:v>8.4812499433105034E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>8.3019919647545895E-4</c:v>
+                  <c:v>8.5228572681302897E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>8.3620047315223522E-4</c:v>
+                  <c:v>8.564464592950077E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>8.4220174982901138E-4</c:v>
+                  <c:v>8.6060719177698643E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>8.4820302650578754E-4</c:v>
+                  <c:v>8.6476792425896516E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>8.5420430318256381E-4</c:v>
+                  <c:v>8.6892865674094389E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>8.6020557985933997E-4</c:v>
+                  <c:v>8.7308938922292252E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>8.6620685653611613E-4</c:v>
+                  <c:v>8.7725012170490125E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>8.7220813321289229E-4</c:v>
+                  <c:v>8.8141085418687998E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>8.7820940988966845E-4</c:v>
+                  <c:v>8.8557158666885871E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>8.8421068656644472E-4</c:v>
+                  <c:v>8.8973231915083744E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>8.9021196324322088E-4</c:v>
+                  <c:v>8.9389305163281607E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
                   <c:v>9.0221451659677255E-4</c:v>
@@ -4225,148 +4223,148 @@
                   <c:v>7.8040477200267344E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>7.8630186954391234E-4</c:v>
+                  <c:v>7.8432955353395896E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>7.9219896708515125E-4</c:v>
+                  <c:v>7.8825433506524449E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>7.9809606462639016E-4</c:v>
+                  <c:v>7.9217911659653002E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>8.0399316216762907E-4</c:v>
+                  <c:v>7.9610389812781554E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>8.0989025970886798E-4</c:v>
+                  <c:v>8.0002867965910107E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>8.1578735725010689E-4</c:v>
+                  <c:v>8.039534611903866E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>8.2168445479134579E-4</c:v>
+                  <c:v>8.0787824272167213E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>8.275815523325847E-4</c:v>
+                  <c:v>8.1180302425295765E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>8.3347864987382361E-4</c:v>
+                  <c:v>8.1572780578424318E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>8.3937574741506252E-4</c:v>
+                  <c:v>8.1965258731552871E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>8.4527284495630143E-4</c:v>
+                  <c:v>8.2357736884681424E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>8.5116994249754034E-4</c:v>
+                  <c:v>8.2750215037809976E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>8.5706704003877924E-4</c:v>
+                  <c:v>8.3142693190938529E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>8.6296413758001815E-4</c:v>
+                  <c:v>8.3535171344067082E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>8.6886123512125706E-4</c:v>
+                  <c:v>8.3927649497195634E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>8.7475833266249597E-4</c:v>
+                  <c:v>8.4320127650324187E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>8.8655252774497303E-4</c:v>
+                  <c:v>8.5105083956581206E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>9.0302699373341036E-4</c:v>
+                  <c:v>8.6362564386112969E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>9.3714822576917284E-4</c:v>
+                  <c:v>8.8653807874749006E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>9.3834520799904446E-4</c:v>
+                  <c:v>8.9609812880132704E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>9.5768121783654161E-4</c:v>
+                  <c:v>9.1508948578412821E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>9.82460412759651E-4</c:v>
+                  <c:v>9.3906247999301577E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>1.0110364965721184E-3</c:v>
+                  <c:v>9.6635462561475997E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>1.039824611752364E-3</c:v>
+                  <c:v>9.9541634898000749E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>1.0670867166115104E-3</c:v>
+                  <c:v>1.0252479702005063E-3</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>1.0790337941559377E-3</c:v>
+                  <c:v>1.0404843581759452E-3</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>1.0957771663830042E-3</c:v>
+                  <c:v>1.0621819980793296E-3</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>1.1090531804673635E-3</c:v>
+                  <c:v>1.0805863283182492E-3</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>1.1215721084749898E-3</c:v>
+                  <c:v>1.0975962517824405E-3</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>1.1283900216844573E-3</c:v>
+                  <c:v>1.1082261735005673E-3</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>1.1299122467508577E-3</c:v>
+                  <c:v>1.1115937490905916E-3</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>1.1308032613703656E-3</c:v>
+                  <c:v>1.1135572563513081E-3</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>1.1334812580503343E-3</c:v>
+                  <c:v>1.1171336612053663E-3</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>1.1363173060091043E-3</c:v>
+                  <c:v>1.1206100747897447E-3</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>1.1377662262980173E-3</c:v>
+                  <c:v>1.1235212292291126E-3</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>1.1390197972220566E-3</c:v>
+                  <c:v>1.1259730524110234E-3</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>1.1397364875179114E-3</c:v>
+                  <c:v>1.1281614527253151E-3</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>1.1392933043873901E-3</c:v>
+                  <c:v>1.129421179757297E-3</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>1.1388601184964234E-3</c:v>
+                  <c:v>1.1306625149142973E-3</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>1.1391492395756162E-3</c:v>
+                  <c:v>1.1324246427843901E-3</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>1.1395317718776441E-3</c:v>
+                  <c:v>1.134243692343509E-3</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>1.1409474920448823E-3</c:v>
+                  <c:v>1.1368047027325904E-3</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>1.1434410850173278E-3</c:v>
+                  <c:v>1.1399612373774119E-3</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>1.1461114373246067E-3</c:v>
+                  <c:v>1.1432056572476211E-3</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>1.1479206663210523E-3</c:v>
+                  <c:v>1.1458748072054243E-3</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>1.15049539242983E-3</c:v>
+                  <c:v>1.149034601169863E-3</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>1.1527793116698328E-3</c:v>
+                  <c:v>1.1517386724092774E-3</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>1.1559556686971183E-3</c:v>
+                  <c:v>1.1549563192969183E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7578,23 +7576,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7630,23 +7611,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7822,15 +7786,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="107.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" customWidth="1"/>
+    <col min="2" max="2" width="107.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8043,7 +8007,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B10" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -8051,7 +8015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -8059,12 +8023,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>92</v>
       </c>
@@ -8980,7 +8944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -8990,12 +8954,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>92</v>
       </c>
@@ -9911,7 +9875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -9921,13 +9885,13 @@
       <selection activeCell="B2" sqref="B2:AG2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="2" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>92</v>
       </c>
@@ -10877,7 +10841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -10885,12 +10849,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>92</v>
       </c>
@@ -11806,7 +11770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -11814,12 +11778,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>92</v>
       </c>
@@ -12735,7 +12699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -12743,12 +12707,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>92</v>
       </c>
@@ -13664,7 +13628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -13672,12 +13636,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>92</v>
       </c>
@@ -14729,7 +14693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -14737,12 +14701,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30">
+    <row r="1" spans="1:33">
       <c r="A1" s="28" t="s">
         <v>92</v>
       </c>
@@ -15556,18 +15520,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:AI18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" customWidth="1"/>
+    <col min="3" max="3" width="30.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -15859,100 +15823,100 @@
         <v>4</v>
       </c>
       <c r="D9" s="4">
-        <v>8.7748693977925663E-5</v>
+        <v>1.2502464391248049E-4</v>
       </c>
       <c r="E9" s="4">
-        <v>8.824876789615679E-5</v>
+        <v>1.257371509678276E-4</v>
       </c>
       <c r="F9" s="4">
-        <v>8.9468420452621779E-5</v>
+        <v>1.2747491616587538E-4</v>
       </c>
       <c r="G9" s="4">
-        <v>9.0409199075422672E-5</v>
+        <v>1.288153408147681E-4</v>
       </c>
       <c r="H9" s="4">
-        <v>9.1640753437746759E-5</v>
+        <v>1.3057006374713636E-4</v>
       </c>
       <c r="I9" s="4">
-        <v>9.3117859007590004E-5</v>
+        <v>1.3267464889272552E-4</v>
       </c>
       <c r="J9" s="4">
-        <v>9.4883008086438589E-5</v>
+        <v>1.3518963943025996E-4</v>
       </c>
       <c r="K9" s="4">
-        <v>9.6633313405458996E-5</v>
+        <v>1.3768348052724193E-4</v>
       </c>
       <c r="L9" s="4">
-        <v>9.8089434978873195E-5</v>
+        <v>1.39758167601846E-4</v>
       </c>
       <c r="M9" s="4">
-        <v>9.8126835661014889E-5</v>
+        <v>1.398114562236462E-4</v>
       </c>
       <c r="N9" s="4">
-        <v>9.8642714571559186E-5</v>
+        <v>1.4054648228692851E-4</v>
       </c>
       <c r="O9" s="4">
-        <v>9.9002017448782231E-5</v>
+        <v>1.410584182741791E-4</v>
       </c>
       <c r="P9" s="4">
-        <v>9.9178435650853423E-5</v>
+        <v>1.4130977954115341E-4</v>
       </c>
       <c r="Q9" s="4">
-        <v>9.9078776231944067E-5</v>
+        <v>1.4116778445499517E-4</v>
       </c>
       <c r="R9" s="4">
-        <v>9.8926359713739475E-5</v>
+        <v>1.4095062087054683E-4</v>
       </c>
       <c r="S9" s="4">
-        <v>9.8775044243654031E-5</v>
+        <v>1.4073502606328232E-4</v>
       </c>
       <c r="T9" s="4">
-        <v>9.8592392594559178E-5</v>
+        <v>1.4047478335934126E-4</v>
       </c>
       <c r="U9" s="4">
-        <v>9.8491620476227854E-5</v>
+        <v>1.4033120289518245E-4</v>
       </c>
       <c r="V9" s="4">
-        <v>9.8383706109250751E-5</v>
+        <v>1.4017744613034961E-4</v>
       </c>
       <c r="W9" s="4">
-        <v>9.8295633911023615E-5</v>
+        <v>1.4005196055645938E-4</v>
       </c>
       <c r="X9" s="4">
-        <v>9.8258454603636006E-5</v>
+        <v>1.3999898735017762E-4</v>
       </c>
       <c r="Y9" s="4">
-        <v>9.8223966747206266E-5</v>
+        <v>1.3994984893256747E-4</v>
       </c>
       <c r="Z9" s="4">
-        <v>9.8216463308172232E-5</v>
+        <v>1.3993915800657392E-4</v>
       </c>
       <c r="AA9" s="4">
-        <v>9.7793270511782845E-5</v>
+        <v>1.3933619144061889E-4</v>
       </c>
       <c r="AB9" s="4">
-        <v>9.7836927943553855E-5</v>
+        <v>1.3939839470101929E-4</v>
       </c>
       <c r="AC9" s="4">
-        <v>9.7899274065092905E-5</v>
+        <v>1.3948722567150304E-4</v>
       </c>
       <c r="AD9" s="4">
-        <v>9.8001409385857448E-5</v>
+        <v>1.3963274843122281E-4</v>
       </c>
       <c r="AE9" s="4">
-        <v>9.8167504533605416E-5</v>
+        <v>1.3986940137454762E-4</v>
       </c>
       <c r="AF9" s="4">
-        <v>9.8410416721029538E-5</v>
+        <v>1.4021550350277234E-4</v>
       </c>
       <c r="AG9" s="4">
-        <v>9.8740806890235515E-5</v>
+        <v>1.4068624456323251E-4</v>
       </c>
       <c r="AH9" s="4">
-        <v>9.9142112714225141E-5</v>
+        <v>1.4125802649490353E-4</v>
       </c>
       <c r="AI9" s="4">
-        <v>9.9550252027335071E-5</v>
+        <v>1.4183954480560443E-4</v>
       </c>
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
@@ -16079,100 +16043,100 @@
         <v>5</v>
       </c>
       <c r="D11" s="4">
-        <v>8.8655252774497303E-4</v>
+        <v>8.5105083956581206E-4</v>
       </c>
       <c r="E11" s="4">
-        <v>9.0302699373341036E-4</v>
+        <v>8.6362564386112969E-4</v>
       </c>
       <c r="F11" s="4">
-        <v>9.3714822576917284E-4</v>
+        <v>8.8653807874749006E-4</v>
       </c>
       <c r="G11" s="4">
-        <v>9.3834520799904446E-4</v>
+        <v>8.9609812880132704E-4</v>
       </c>
       <c r="H11" s="4">
-        <v>9.5768121783654161E-4</v>
+        <v>9.1508948578412821E-4</v>
       </c>
       <c r="I11" s="4">
-        <v>9.82460412759651E-4</v>
+        <v>9.3906247999301577E-4</v>
       </c>
       <c r="J11" s="4">
-        <v>1.0110364965721184E-3</v>
+        <v>9.6635462561475997E-4</v>
       </c>
       <c r="K11" s="4">
-        <v>1.039824611752364E-3</v>
+        <v>9.9541634898000749E-4</v>
       </c>
       <c r="L11" s="4">
-        <v>1.0670867166115104E-3</v>
+        <v>1.0252479702005063E-3</v>
       </c>
       <c r="M11" s="4">
-        <v>1.0790337941559377E-3</v>
+        <v>1.0404843581759452E-3</v>
       </c>
       <c r="N11" s="4">
-        <v>1.0957771663830042E-3</v>
+        <v>1.0621819980793296E-3</v>
       </c>
       <c r="O11" s="4">
-        <v>1.1090531804673635E-3</v>
+        <v>1.0805863283182492E-3</v>
       </c>
       <c r="P11" s="4">
-        <v>1.1215721084749898E-3</v>
+        <v>1.0975962517824405E-3</v>
       </c>
       <c r="Q11" s="4">
-        <v>1.1283900216844573E-3</v>
+        <v>1.1082261735005673E-3</v>
       </c>
       <c r="R11" s="4">
-        <v>1.1299122467508577E-3</v>
+        <v>1.1115937490905916E-3</v>
       </c>
       <c r="S11" s="4">
-        <v>1.1308032613703656E-3</v>
+        <v>1.1135572563513081E-3</v>
       </c>
       <c r="T11" s="4">
-        <v>1.1334812580503343E-3</v>
+        <v>1.1171336612053663E-3</v>
       </c>
       <c r="U11" s="4">
-        <v>1.1363173060091043E-3</v>
+        <v>1.1206100747897447E-3</v>
       </c>
       <c r="V11" s="4">
-        <v>1.1377662262980173E-3</v>
+        <v>1.1235212292291126E-3</v>
       </c>
       <c r="W11" s="4">
-        <v>1.1390197972220566E-3</v>
+        <v>1.1259730524110234E-3</v>
       </c>
       <c r="X11" s="4">
-        <v>1.1397364875179114E-3</v>
+        <v>1.1281614527253151E-3</v>
       </c>
       <c r="Y11" s="4">
-        <v>1.1392933043873901E-3</v>
+        <v>1.129421179757297E-3</v>
       </c>
       <c r="Z11" s="4">
-        <v>1.1388601184964234E-3</v>
+        <v>1.1306625149142973E-3</v>
       </c>
       <c r="AA11" s="4">
-        <v>1.1391492395756162E-3</v>
+        <v>1.1324246427843901E-3</v>
       </c>
       <c r="AB11" s="4">
-        <v>1.1395317718776441E-3</v>
+        <v>1.134243692343509E-3</v>
       </c>
       <c r="AC11" s="4">
-        <v>1.1409474920448823E-3</v>
+        <v>1.1368047027325904E-3</v>
       </c>
       <c r="AD11" s="4">
-        <v>1.1434410850173278E-3</v>
+        <v>1.1399612373774119E-3</v>
       </c>
       <c r="AE11" s="4">
-        <v>1.1461114373246067E-3</v>
+        <v>1.1432056572476211E-3</v>
       </c>
       <c r="AF11" s="4">
-        <v>1.1479206663210523E-3</v>
+        <v>1.1458748072054243E-3</v>
       </c>
       <c r="AG11" s="4">
-        <v>1.15049539242983E-3</v>
+        <v>1.149034601169863E-3</v>
       </c>
       <c r="AH11" s="4">
-        <v>1.1527793116698328E-3</v>
+        <v>1.1517386724092774E-3</v>
       </c>
       <c r="AI11" s="4">
-        <v>1.1559556686971183E-3</v>
+        <v>1.1549563192969183E-3</v>
       </c>
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
@@ -17171,14 +17135,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" customWidth="1"/>
+    <col min="1" max="1" width="50.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -17278,18 +17242,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="42.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" customWidth="1"/>
+    <col min="1" max="1" width="42.1328125" customWidth="1"/>
+    <col min="2" max="2" width="26.3984375" customWidth="1"/>
+    <col min="3" max="3" width="42.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -17465,7 +17429,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30">
+    <row r="20" spans="1:4" ht="28.5">
       <c r="A20" s="22" t="s">
         <v>73</v>
       </c>
@@ -17483,7 +17447,7 @@
         <v>6.7042622950819668</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30">
+    <row r="22" spans="1:4" ht="28.5">
       <c r="A22" s="22" t="s">
         <v>75</v>
       </c>
@@ -17567,7 +17531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -17575,7 +17539,7 @@
       <selection pane="topRight" activeCell="E9" sqref="E9:AK9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
@@ -18031,183 +17995,183 @@
       <c r="Y3" s="11"/>
       <c r="Z3" s="17">
         <f t="shared" ref="Z3:AI3" si="1">Z5/AA5*AA3</f>
-        <v>7.9577179850629656E-5</v>
+        <v>1.169525976045652E-4</v>
       </c>
       <c r="AA3" s="17">
         <f t="shared" si="1"/>
-        <v>8.0160859431150803E-5</v>
+        <v>1.1752917234084488E-4</v>
       </c>
       <c r="AB3" s="17">
         <f t="shared" si="1"/>
-        <v>8.0744539011671951E-5</v>
+        <v>1.1810574707712455E-4</v>
       </c>
       <c r="AC3" s="17">
         <f t="shared" si="1"/>
-        <v>8.1328218592193098E-5</v>
+        <v>1.1868232181340423E-4</v>
       </c>
       <c r="AD3" s="17">
         <f t="shared" si="1"/>
-        <v>8.1911898172714245E-5</v>
+        <v>1.192588965496839E-4</v>
       </c>
       <c r="AE3" s="17">
         <f t="shared" si="1"/>
-        <v>8.2495577753235392E-5</v>
+        <v>1.1983547128596358E-4</v>
       </c>
       <c r="AF3" s="17">
         <f t="shared" si="1"/>
-        <v>8.307925733375654E-5</v>
+        <v>1.2041204602224325E-4</v>
       </c>
       <c r="AG3" s="17">
         <f>AG5/AH5*AH3</f>
-        <v>8.3662936914277687E-5</v>
+        <v>1.2098862075852291E-4</v>
       </c>
       <c r="AH3" s="17">
         <f>AH5/AI5*AI3</f>
-        <v>8.4246616494798834E-5</v>
+        <v>1.2156519549480259E-4</v>
       </c>
       <c r="AI3" s="17">
         <f t="shared" si="1"/>
-        <v>8.4830296075319981E-5</v>
+        <v>1.2214177023108226E-4</v>
       </c>
       <c r="AJ3" s="17">
         <f>AJ5/AK5*AK3</f>
-        <v>8.5413975655841129E-5</v>
+        <v>1.2271834496736195E-4</v>
       </c>
       <c r="AK3" s="30">
         <f t="shared" ref="AK3" si="2">AK5/AL5*AL3</f>
-        <v>8.5997655236362289E-5</v>
+        <v>1.2329491970364162E-4</v>
       </c>
       <c r="AL3" s="31">
         <f>AL5/AM5*AM3</f>
-        <v>8.6581334816883437E-5</v>
+        <v>1.2387149443992128E-4</v>
       </c>
       <c r="AM3" s="14">
         <f>BNVFE!D9</f>
-        <v>8.7748693977925663E-5</v>
+        <v>1.2502464391248049E-4</v>
       </c>
       <c r="AN3" s="15">
         <f>BNVFE!E9</f>
-        <v>8.824876789615679E-5</v>
+        <v>1.257371509678276E-4</v>
       </c>
       <c r="AO3" s="15">
         <f>BNVFE!F9</f>
-        <v>8.9468420452621779E-5</v>
+        <v>1.2747491616587538E-4</v>
       </c>
       <c r="AP3" s="15">
         <f>BNVFE!G9</f>
-        <v>9.0409199075422672E-5</v>
+        <v>1.288153408147681E-4</v>
       </c>
       <c r="AQ3" s="15">
         <f>BNVFE!H9</f>
-        <v>9.1640753437746759E-5</v>
+        <v>1.3057006374713636E-4</v>
       </c>
       <c r="AR3" s="15">
         <f>BNVFE!I9</f>
-        <v>9.3117859007590004E-5</v>
+        <v>1.3267464889272552E-4</v>
       </c>
       <c r="AS3" s="15">
         <f>BNVFE!J9</f>
-        <v>9.4883008086438589E-5</v>
+        <v>1.3518963943025996E-4</v>
       </c>
       <c r="AT3" s="15">
         <f>BNVFE!K9</f>
-        <v>9.6633313405458996E-5</v>
+        <v>1.3768348052724193E-4</v>
       </c>
       <c r="AU3" s="15">
         <f>BNVFE!L9</f>
-        <v>9.8089434978873195E-5</v>
+        <v>1.39758167601846E-4</v>
       </c>
       <c r="AV3" s="15">
         <f>BNVFE!M9</f>
-        <v>9.8126835661014889E-5</v>
+        <v>1.398114562236462E-4</v>
       </c>
       <c r="AW3" s="15">
         <f>BNVFE!N9</f>
-        <v>9.8642714571559186E-5</v>
+        <v>1.4054648228692851E-4</v>
       </c>
       <c r="AX3" s="15">
         <f>BNVFE!O9</f>
-        <v>9.9002017448782231E-5</v>
+        <v>1.410584182741791E-4</v>
       </c>
       <c r="AY3" s="15">
         <f>BNVFE!P9</f>
-        <v>9.9178435650853423E-5</v>
+        <v>1.4130977954115341E-4</v>
       </c>
       <c r="AZ3" s="15">
         <f>BNVFE!Q9</f>
-        <v>9.9078776231944067E-5</v>
+        <v>1.4116778445499517E-4</v>
       </c>
       <c r="BA3" s="15">
         <f>BNVFE!R9</f>
-        <v>9.8926359713739475E-5</v>
+        <v>1.4095062087054683E-4</v>
       </c>
       <c r="BB3" s="15">
         <f>BNVFE!S9</f>
-        <v>9.8775044243654031E-5</v>
+        <v>1.4073502606328232E-4</v>
       </c>
       <c r="BC3" s="15">
         <f>BNVFE!T9</f>
-        <v>9.8592392594559178E-5</v>
+        <v>1.4047478335934126E-4</v>
       </c>
       <c r="BD3" s="15">
         <f>BNVFE!U9</f>
-        <v>9.8491620476227854E-5</v>
+        <v>1.4033120289518245E-4</v>
       </c>
       <c r="BE3" s="15">
         <f>BNVFE!V9</f>
-        <v>9.8383706109250751E-5</v>
+        <v>1.4017744613034961E-4</v>
       </c>
       <c r="BF3" s="15">
         <f>BNVFE!W9</f>
-        <v>9.8295633911023615E-5</v>
+        <v>1.4005196055645938E-4</v>
       </c>
       <c r="BG3" s="15">
         <f>BNVFE!X9</f>
-        <v>9.8258454603636006E-5</v>
+        <v>1.3999898735017762E-4</v>
       </c>
       <c r="BH3" s="15">
         <f>BNVFE!Y9</f>
-        <v>9.8223966747206266E-5</v>
+        <v>1.3994984893256747E-4</v>
       </c>
       <c r="BI3" s="15">
         <f>BNVFE!Z9</f>
-        <v>9.8216463308172232E-5</v>
+        <v>1.3993915800657392E-4</v>
       </c>
       <c r="BJ3" s="15">
         <f>BNVFE!AA9</f>
-        <v>9.7793270511782845E-5</v>
+        <v>1.3933619144061889E-4</v>
       </c>
       <c r="BK3" s="15">
         <f>BNVFE!AB9</f>
-        <v>9.7836927943553855E-5</v>
+        <v>1.3939839470101929E-4</v>
       </c>
       <c r="BL3" s="15">
         <f>BNVFE!AC9</f>
-        <v>9.7899274065092905E-5</v>
+        <v>1.3948722567150304E-4</v>
       </c>
       <c r="BM3" s="15">
         <f>BNVFE!AD9</f>
-        <v>9.8001409385857448E-5</v>
+        <v>1.3963274843122281E-4</v>
       </c>
       <c r="BN3" s="15">
         <f>BNVFE!AE9</f>
-        <v>9.8167504533605416E-5</v>
+        <v>1.3986940137454762E-4</v>
       </c>
       <c r="BO3" s="15">
         <f>BNVFE!AF9</f>
-        <v>9.8410416721029538E-5</v>
+        <v>1.4021550350277234E-4</v>
       </c>
       <c r="BP3" s="15">
         <f>BNVFE!AG9</f>
-        <v>9.8740806890235515E-5</v>
+        <v>1.4068624456323251E-4</v>
       </c>
       <c r="BQ3" s="15">
         <f>BNVFE!AH9</f>
-        <v>9.9142112714225141E-5</v>
+        <v>1.4125802649490353E-4</v>
       </c>
       <c r="BR3" s="15">
         <f>BNVFE!AI9</f>
-        <v>9.9550252027335071E-5</v>
+        <v>1.4183954480560443E-4</v>
       </c>
       <c r="BS3" s="15"/>
       <c r="BT3" s="4"/>
@@ -18229,115 +18193,115 @@
       <c r="J4" s="11"/>
       <c r="K4" s="17">
         <f>K5/L5*L4</f>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="L4" s="17">
         <f t="shared" ref="L4:AI4" si="3">L5/M5*M4</f>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="M4" s="17">
         <f t="shared" si="3"/>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="N4" s="17">
         <f t="shared" si="3"/>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="O4" s="17">
         <f t="shared" si="3"/>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="P4" s="17">
         <f t="shared" si="3"/>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="Q4" s="17">
         <f t="shared" si="3"/>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="R4" s="17">
         <f t="shared" si="3"/>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="S4" s="17">
         <f t="shared" si="3"/>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="T4" s="17">
         <f t="shared" si="3"/>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="U4" s="17">
         <f t="shared" si="3"/>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="V4" s="17">
         <f t="shared" si="3"/>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="W4" s="17">
         <f t="shared" si="3"/>
-        <v>8.0019281309157803E-4</v>
+        <v>8.3148206440313553E-4</v>
       </c>
       <c r="X4" s="17">
         <f t="shared" si="3"/>
-        <v>8.0619408976835419E-4</v>
+        <v>8.3564279688511426E-4</v>
       </c>
       <c r="Y4" s="17">
         <f t="shared" si="3"/>
-        <v>8.1219536644513036E-4</v>
+        <v>8.3980352936709288E-4</v>
       </c>
       <c r="Z4" s="17">
         <f t="shared" si="3"/>
-        <v>8.1819664312190652E-4</v>
+        <v>8.4396426184907161E-4</v>
       </c>
       <c r="AA4" s="17">
         <f t="shared" si="3"/>
-        <v>8.2419791979868279E-4</v>
+        <v>8.4812499433105034E-4</v>
       </c>
       <c r="AB4" s="17">
         <f t="shared" si="3"/>
-        <v>8.3019919647545895E-4</v>
+        <v>8.5228572681302897E-4</v>
       </c>
       <c r="AC4" s="17">
         <f t="shared" si="3"/>
-        <v>8.3620047315223522E-4</v>
+        <v>8.564464592950077E-4</v>
       </c>
       <c r="AD4" s="17">
         <f t="shared" si="3"/>
-        <v>8.4220174982901138E-4</v>
+        <v>8.6060719177698643E-4</v>
       </c>
       <c r="AE4" s="17">
         <f t="shared" si="3"/>
-        <v>8.4820302650578754E-4</v>
+        <v>8.6476792425896516E-4</v>
       </c>
       <c r="AF4" s="17">
         <f t="shared" si="3"/>
-        <v>8.5420430318256381E-4</v>
+        <v>8.6892865674094389E-4</v>
       </c>
       <c r="AG4" s="17">
         <f>AG5/AH5*AH4</f>
-        <v>8.6020557985933997E-4</v>
+        <v>8.7308938922292252E-4</v>
       </c>
       <c r="AH4" s="17">
         <f t="shared" si="3"/>
-        <v>8.6620685653611613E-4</v>
+        <v>8.7725012170490125E-4</v>
       </c>
       <c r="AI4" s="17">
         <f t="shared" si="3"/>
-        <v>8.7220813321289229E-4</v>
+        <v>8.8141085418687998E-4</v>
       </c>
       <c r="AJ4" s="17">
         <f>AJ5/AK5*AK4</f>
-        <v>8.7820940988966845E-4</v>
+        <v>8.8557158666885871E-4</v>
       </c>
       <c r="AK4" s="30">
         <f>AK5/AL5*AL4</f>
-        <v>8.8421068656644472E-4</v>
+        <v>8.8973231915083744E-4</v>
       </c>
       <c r="AL4" s="31">
         <f>AL5/AM5*AM4</f>
-        <v>8.9021196324322088E-4</v>
+        <v>8.9389305163281607E-4</v>
       </c>
       <c r="AM4" s="14">
         <f>BNVFE!D10</f>
@@ -18535,195 +18499,195 @@
       </c>
       <c r="W5" s="17">
         <f>($AM$5-$V$5)/COUNT($V$1:$AM$1)+V5</f>
-        <v>7.8630186954391234E-4</v>
+        <v>7.8432955353395896E-4</v>
       </c>
       <c r="X5" s="17">
         <f t="shared" ref="X5:AJ5" si="5">($AM$5-$V$5)/COUNT($V$1:$AM$1)+W5</f>
-        <v>7.9219896708515125E-4</v>
+        <v>7.8825433506524449E-4</v>
       </c>
       <c r="Y5" s="17">
         <f t="shared" si="5"/>
-        <v>7.9809606462639016E-4</v>
+        <v>7.9217911659653002E-4</v>
       </c>
       <c r="Z5" s="17">
         <f t="shared" si="5"/>
-        <v>8.0399316216762907E-4</v>
+        <v>7.9610389812781554E-4</v>
       </c>
       <c r="AA5" s="17">
         <f t="shared" si="5"/>
-        <v>8.0989025970886798E-4</v>
+        <v>8.0002867965910107E-4</v>
       </c>
       <c r="AB5" s="17">
         <f t="shared" si="5"/>
-        <v>8.1578735725010689E-4</v>
+        <v>8.039534611903866E-4</v>
       </c>
       <c r="AC5" s="17">
         <f t="shared" si="5"/>
-        <v>8.2168445479134579E-4</v>
+        <v>8.0787824272167213E-4</v>
       </c>
       <c r="AD5" s="17">
         <f t="shared" si="5"/>
-        <v>8.275815523325847E-4</v>
+        <v>8.1180302425295765E-4</v>
       </c>
       <c r="AE5" s="17">
         <f t="shared" si="5"/>
-        <v>8.3347864987382361E-4</v>
+        <v>8.1572780578424318E-4</v>
       </c>
       <c r="AF5" s="17">
         <f t="shared" si="5"/>
-        <v>8.3937574741506252E-4</v>
+        <v>8.1965258731552871E-4</v>
       </c>
       <c r="AG5" s="17">
         <f>($AM$5-$V$5)/COUNT($V$1:$AM$1)+AF5</f>
-        <v>8.4527284495630143E-4</v>
+        <v>8.2357736884681424E-4</v>
       </c>
       <c r="AH5" s="17">
         <f t="shared" si="5"/>
-        <v>8.5116994249754034E-4</v>
+        <v>8.2750215037809976E-4</v>
       </c>
       <c r="AI5" s="17">
         <f t="shared" si="5"/>
-        <v>8.5706704003877924E-4</v>
+        <v>8.3142693190938529E-4</v>
       </c>
       <c r="AJ5" s="17">
         <f t="shared" si="5"/>
-        <v>8.6296413758001815E-4</v>
+        <v>8.3535171344067082E-4</v>
       </c>
       <c r="AK5" s="30">
         <f>($AM$5-$V$5)/COUNT($V$1:$AM$1)+AJ5</f>
-        <v>8.6886123512125706E-4</v>
+        <v>8.3927649497195634E-4</v>
       </c>
       <c r="AL5" s="31">
         <f>($AM$5-$V$5)/COUNT($V$1:$AM$1)+AK5</f>
-        <v>8.7475833266249597E-4</v>
+        <v>8.4320127650324187E-4</v>
       </c>
       <c r="AM5" s="14">
         <f>BNVFE!D11</f>
-        <v>8.8655252774497303E-4</v>
+        <v>8.5105083956581206E-4</v>
       </c>
       <c r="AN5" s="15">
         <f>BNVFE!E11</f>
-        <v>9.0302699373341036E-4</v>
+        <v>8.6362564386112969E-4</v>
       </c>
       <c r="AO5" s="15">
         <f>BNVFE!F11</f>
-        <v>9.3714822576917284E-4</v>
+        <v>8.8653807874749006E-4</v>
       </c>
       <c r="AP5" s="15">
         <f>BNVFE!G11</f>
-        <v>9.3834520799904446E-4</v>
+        <v>8.9609812880132704E-4</v>
       </c>
       <c r="AQ5" s="15">
         <f>BNVFE!H11</f>
-        <v>9.5768121783654161E-4</v>
+        <v>9.1508948578412821E-4</v>
       </c>
       <c r="AR5" s="15">
         <f>BNVFE!I11</f>
-        <v>9.82460412759651E-4</v>
+        <v>9.3906247999301577E-4</v>
       </c>
       <c r="AS5" s="15">
         <f>BNVFE!J11</f>
-        <v>1.0110364965721184E-3</v>
+        <v>9.6635462561475997E-4</v>
       </c>
       <c r="AT5" s="15">
         <f>BNVFE!K11</f>
-        <v>1.039824611752364E-3</v>
+        <v>9.9541634898000749E-4</v>
       </c>
       <c r="AU5" s="15">
         <f>BNVFE!L11</f>
-        <v>1.0670867166115104E-3</v>
+        <v>1.0252479702005063E-3</v>
       </c>
       <c r="AV5" s="15">
         <f>BNVFE!M11</f>
-        <v>1.0790337941559377E-3</v>
+        <v>1.0404843581759452E-3</v>
       </c>
       <c r="AW5" s="15">
         <f>BNVFE!N11</f>
-        <v>1.0957771663830042E-3</v>
+        <v>1.0621819980793296E-3</v>
       </c>
       <c r="AX5" s="15">
         <f>BNVFE!O11</f>
-        <v>1.1090531804673635E-3</v>
+        <v>1.0805863283182492E-3</v>
       </c>
       <c r="AY5" s="15">
         <f>BNVFE!P11</f>
-        <v>1.1215721084749898E-3</v>
+        <v>1.0975962517824405E-3</v>
       </c>
       <c r="AZ5" s="15">
         <f>BNVFE!Q11</f>
-        <v>1.1283900216844573E-3</v>
+        <v>1.1082261735005673E-3</v>
       </c>
       <c r="BA5" s="15">
         <f>BNVFE!R11</f>
-        <v>1.1299122467508577E-3</v>
+        <v>1.1115937490905916E-3</v>
       </c>
       <c r="BB5" s="15">
         <f>BNVFE!S11</f>
-        <v>1.1308032613703656E-3</v>
+        <v>1.1135572563513081E-3</v>
       </c>
       <c r="BC5" s="15">
         <f>BNVFE!T11</f>
-        <v>1.1334812580503343E-3</v>
+        <v>1.1171336612053663E-3</v>
       </c>
       <c r="BD5" s="15">
         <f>BNVFE!U11</f>
-        <v>1.1363173060091043E-3</v>
+        <v>1.1206100747897447E-3</v>
       </c>
       <c r="BE5" s="15">
         <f>BNVFE!V11</f>
-        <v>1.1377662262980173E-3</v>
+        <v>1.1235212292291126E-3</v>
       </c>
       <c r="BF5" s="15">
         <f>BNVFE!W11</f>
-        <v>1.1390197972220566E-3</v>
+        <v>1.1259730524110234E-3</v>
       </c>
       <c r="BG5" s="15">
         <f>BNVFE!X11</f>
-        <v>1.1397364875179114E-3</v>
+        <v>1.1281614527253151E-3</v>
       </c>
       <c r="BH5" s="15">
         <f>BNVFE!Y11</f>
-        <v>1.1392933043873901E-3</v>
+        <v>1.129421179757297E-3</v>
       </c>
       <c r="BI5" s="15">
         <f>BNVFE!Z11</f>
-        <v>1.1388601184964234E-3</v>
+        <v>1.1306625149142973E-3</v>
       </c>
       <c r="BJ5" s="15">
         <f>BNVFE!AA11</f>
-        <v>1.1391492395756162E-3</v>
+        <v>1.1324246427843901E-3</v>
       </c>
       <c r="BK5" s="15">
         <f>BNVFE!AB11</f>
-        <v>1.1395317718776441E-3</v>
+        <v>1.134243692343509E-3</v>
       </c>
       <c r="BL5" s="15">
         <f>BNVFE!AC11</f>
-        <v>1.1409474920448823E-3</v>
+        <v>1.1368047027325904E-3</v>
       </c>
       <c r="BM5" s="15">
         <f>BNVFE!AD11</f>
-        <v>1.1434410850173278E-3</v>
+        <v>1.1399612373774119E-3</v>
       </c>
       <c r="BN5" s="15">
         <f>BNVFE!AE11</f>
-        <v>1.1461114373246067E-3</v>
+        <v>1.1432056572476211E-3</v>
       </c>
       <c r="BO5" s="15">
         <f>BNVFE!AF11</f>
-        <v>1.1479206663210523E-3</v>
+        <v>1.1458748072054243E-3</v>
       </c>
       <c r="BP5" s="15">
         <f>BNVFE!AG11</f>
-        <v>1.15049539242983E-3</v>
+        <v>1.149034601169863E-3</v>
       </c>
       <c r="BQ5" s="15">
         <f>BNVFE!AH11</f>
-        <v>1.1527793116698328E-3</v>
+        <v>1.1517386724092774E-3</v>
       </c>
       <c r="BR5" s="15">
         <f>BNVFE!AI11</f>
-        <v>1.1559556686971183E-3</v>
+        <v>1.1549563192969183E-3</v>
       </c>
       <c r="BS5" s="15"/>
       <c r="BT5" s="4"/>
@@ -21055,7 +21019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -21065,12 +21029,12 @@
       <selection activeCell="B11" sqref="B11:AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>92</v>
       </c>
@@ -22122,7 +22086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -22130,12 +22094,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>92</v>
       </c>
@@ -22242,131 +22206,131 @@
       </c>
       <c r="B2" s="4">
         <f>B$4/(1-'Other Values'!$B$2)</f>
-        <v>2.5339049373489963E-4</v>
+        <v>3.7240169237243121E-4</v>
       </c>
       <c r="C2" s="4">
         <f>C$4/(1-'Other Values'!$B$2)</f>
-        <v>2.5524905239919065E-4</v>
+        <v>3.7423762771690073E-4</v>
       </c>
       <c r="D2" s="4">
         <f>D$4/(1-'Other Values'!$B$2)</f>
-        <v>2.5710761106348168E-4</v>
+        <v>3.760735630613702E-4</v>
       </c>
       <c r="E2" s="4">
         <f>E$4/(1-'Other Values'!$B$2)</f>
-        <v>2.589661697277727E-4</v>
+        <v>3.7790949840583971E-4</v>
       </c>
       <c r="F2" s="4">
         <f>F$4/(1-'Other Values'!$B$2)</f>
-        <v>2.6082472839206373E-4</v>
+        <v>3.7974543375030918E-4</v>
       </c>
       <c r="G2" s="4">
         <f>G$4/(1-'Other Values'!$B$2)</f>
-        <v>2.6268328705635475E-4</v>
+        <v>3.815813690947787E-4</v>
       </c>
       <c r="H2" s="4">
         <f>H$4/(1-'Other Values'!$B$2)</f>
-        <v>2.6454184572064578E-4</v>
+        <v>3.8341730443924816E-4</v>
       </c>
       <c r="I2" s="4">
         <f>I$4/(1-'Other Values'!$B$2)</f>
-        <v>2.664004043849368E-4</v>
+        <v>3.8525323978371763E-4</v>
       </c>
       <c r="J2" s="4">
         <f>J$4/(1-'Other Values'!$B$2)</f>
-        <v>2.6825896304922783E-4</v>
+        <v>3.8708917512818709E-4</v>
       </c>
       <c r="K2" s="4">
         <f>K$4/(1-'Other Values'!$B$2)</f>
-        <v>2.7011752171351885E-4</v>
+        <v>3.8892511047265661E-4</v>
       </c>
       <c r="L2" s="4">
         <f>L$4/(1-'Other Values'!$B$2)</f>
-        <v>2.7197608037780988E-4</v>
+        <v>3.9076104581712613E-4</v>
       </c>
       <c r="M2" s="4">
         <f>M$4/(1-'Other Values'!$B$2)</f>
-        <v>2.738346390421009E-4</v>
+        <v>3.9259698116159559E-4</v>
       </c>
       <c r="N2" s="4">
         <f>N$4/(1-'Other Values'!$B$2)</f>
-        <v>2.7569319770639193E-4</v>
+        <v>3.9443291650606506E-4</v>
       </c>
       <c r="O2" s="4">
         <f>O$4/(1-'Other Values'!$B$2)</f>
-        <v>2.7941031503497376E-4</v>
+        <v>3.9810478719500361E-4</v>
       </c>
       <c r="P2" s="4">
         <f>P$4/(1-'Other Values'!$B$2)</f>
-        <v>2.8100265566934128E-4</v>
+        <v>4.0037355966071413E-4</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$4/(1-'Other Values'!$B$2)</f>
-        <v>2.8488628617808506E-4</v>
+        <v>4.0590696989660307E-4</v>
       </c>
       <c r="R2" s="4">
         <f>R$4/(1-'Other Values'!$B$2)</f>
-        <v>2.8788192337174054E-4</v>
+        <v>4.1017516417334043E-4</v>
       </c>
       <c r="S2" s="4">
         <f>S$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9180345173598302E-4</v>
+        <v>4.1576257140535518E-4</v>
       </c>
       <c r="T2" s="4">
         <f>T$4/(1-'Other Values'!$B$2)</f>
-        <v>2.965068668399576E-4</v>
+        <v>4.2246401357946801E-4</v>
       </c>
       <c r="U2" s="4">
         <f>U$4/(1-'Other Values'!$B$2)</f>
-        <v>3.0212747311734388E-4</v>
+        <v>4.3047227292266976E-4</v>
       </c>
       <c r="V2" s="4">
         <f>V$4/(1-'Other Values'!$B$2)</f>
-        <v>3.0770081373843514E-4</v>
+        <v>4.384131879946387E-4</v>
       </c>
       <c r="W2" s="4">
         <f>W$4/(1-'Other Values'!$B$2)</f>
-        <v>3.1233741138009615E-4</v>
+        <v>4.450194284164043E-4</v>
       </c>
       <c r="X2" s="4">
         <f>X$4/(1-'Other Values'!$B$2)</f>
-        <v>3.1245650302586312E-4</v>
+        <v>4.4518911060687335E-4</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$4/(1-'Other Values'!$B$2)</f>
-        <v>3.1409917008312258E-4</v>
+        <v>4.475295883346933E-4</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$4/(1-'Other Values'!$B$2)</f>
-        <v>3.1524326608691177E-4</v>
+        <v>4.491597002940965E-4</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$4/(1-'Other Values'!$B$2)</f>
-        <v>3.158050187829806E-4</v>
+        <v>4.4996008748630418E-4</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$4/(1-'Other Values'!$B$2)</f>
-        <v>3.154876822122429E-4</v>
+        <v>4.4950794523827402E-4</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$4/(1-'Other Values'!$B$2)</f>
-        <v>3.1500235593059141E-4</v>
+        <v>4.4881645066674112E-4</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$4/(1-'Other Values'!$B$2)</f>
-        <v>3.1452053561795092E-4</v>
+        <v>4.4812995141203045E-4</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$4/(1-'Other Values'!$B$2)</f>
-        <v>3.1393893431425415E-4</v>
+        <v>4.4730128385474444E-4</v>
       </c>
       <c r="AF2" s="4">
         <f>AF$4/(1-'Other Values'!$B$2)</f>
-        <v>3.1361805467430441E-4</v>
+        <v>4.4684409342939666E-4</v>
       </c>
       <c r="AG2" s="4">
         <f>AG$4/(1-'Other Values'!$B$2)</f>
-        <v>3.1327443261103521E-4</v>
+        <v>4.4635449952032364E-4</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -22377,131 +22341,131 @@
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:AG3" si="0">B$4</f>
-        <v>7.9577179850629656E-5</v>
+        <v>1.169525976045652E-4</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" si="0"/>
-        <v>8.0160859431150803E-5</v>
+        <v>1.1752917234084488E-4</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
-        <v>8.0744539011671951E-5</v>
+        <v>1.1810574707712455E-4</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" si="0"/>
-        <v>8.1328218592193098E-5</v>
+        <v>1.1868232181340423E-4</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" si="0"/>
-        <v>8.1911898172714245E-5</v>
+        <v>1.192588965496839E-4</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" si="0"/>
-        <v>8.2495577753235392E-5</v>
+        <v>1.1983547128596358E-4</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" si="0"/>
-        <v>8.307925733375654E-5</v>
+        <v>1.2041204602224325E-4</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="0"/>
-        <v>8.3662936914277687E-5</v>
+        <v>1.2098862075852291E-4</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" si="0"/>
-        <v>8.4246616494798834E-5</v>
+        <v>1.2156519549480259E-4</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" si="0"/>
-        <v>8.4830296075319981E-5</v>
+        <v>1.2214177023108226E-4</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="0"/>
-        <v>8.5413975655841129E-5</v>
+        <v>1.2271834496736195E-4</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="0"/>
-        <v>8.5997655236362289E-5</v>
+        <v>1.2329491970364162E-4</v>
       </c>
       <c r="N3" s="4">
         <f t="shared" si="0"/>
-        <v>8.6581334816883437E-5</v>
+        <v>1.2387149443992128E-4</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" si="0"/>
-        <v>8.7748693977925663E-5</v>
+        <v>1.2502464391248049E-4</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" si="0"/>
-        <v>8.824876789615679E-5</v>
+        <v>1.257371509678276E-4</v>
       </c>
       <c r="Q3" s="4">
         <f t="shared" si="0"/>
-        <v>8.9468420452621779E-5</v>
+        <v>1.2747491616587538E-4</v>
       </c>
       <c r="R3" s="4">
         <f t="shared" si="0"/>
-        <v>9.0409199075422672E-5</v>
+        <v>1.288153408147681E-4</v>
       </c>
       <c r="S3" s="4">
         <f t="shared" si="0"/>
-        <v>9.1640753437746759E-5</v>
+        <v>1.3057006374713636E-4</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" si="0"/>
-        <v>9.3117859007590004E-5</v>
+        <v>1.3267464889272552E-4</v>
       </c>
       <c r="U3" s="4">
         <f t="shared" si="0"/>
-        <v>9.4883008086438589E-5</v>
+        <v>1.3518963943025996E-4</v>
       </c>
       <c r="V3" s="4">
         <f t="shared" si="0"/>
-        <v>9.6633313405458996E-5</v>
+        <v>1.3768348052724193E-4</v>
       </c>
       <c r="W3" s="4">
         <f t="shared" si="0"/>
-        <v>9.8089434978873195E-5</v>
+        <v>1.39758167601846E-4</v>
       </c>
       <c r="X3" s="4">
         <f t="shared" si="0"/>
-        <v>9.8126835661014889E-5</v>
+        <v>1.398114562236462E-4</v>
       </c>
       <c r="Y3" s="4">
         <f t="shared" si="0"/>
-        <v>9.8642714571559186E-5</v>
+        <v>1.4054648228692851E-4</v>
       </c>
       <c r="Z3" s="4">
         <f t="shared" si="0"/>
-        <v>9.9002017448782231E-5</v>
+        <v>1.410584182741791E-4</v>
       </c>
       <c r="AA3" s="4">
         <f t="shared" si="0"/>
-        <v>9.9178435650853423E-5</v>
+        <v>1.4130977954115341E-4</v>
       </c>
       <c r="AB3" s="4">
         <f t="shared" si="0"/>
-        <v>9.9078776231944067E-5</v>
+        <v>1.4116778445499517E-4</v>
       </c>
       <c r="AC3" s="4">
         <f t="shared" si="0"/>
-        <v>9.8926359713739475E-5</v>
+        <v>1.4095062087054683E-4</v>
       </c>
       <c r="AD3" s="4">
         <f t="shared" si="0"/>
-        <v>9.8775044243654031E-5</v>
+        <v>1.4073502606328232E-4</v>
       </c>
       <c r="AE3" s="4">
         <f t="shared" si="0"/>
-        <v>9.8592392594559178E-5</v>
+        <v>1.4047478335934126E-4</v>
       </c>
       <c r="AF3" s="4">
         <f t="shared" si="0"/>
-        <v>9.8491620476227854E-5</v>
+        <v>1.4033120289518245E-4</v>
       </c>
       <c r="AG3" s="4">
         <f t="shared" si="0"/>
-        <v>9.8383706109250751E-5</v>
+        <v>1.4017744613034961E-4</v>
       </c>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
@@ -22512,131 +22476,131 @@
       </c>
       <c r="B4" s="4">
         <f>Extrapolations!Z3</f>
-        <v>7.9577179850629656E-5</v>
+        <v>1.169525976045652E-4</v>
       </c>
       <c r="C4" s="4">
         <f>Extrapolations!AA3</f>
-        <v>8.0160859431150803E-5</v>
+        <v>1.1752917234084488E-4</v>
       </c>
       <c r="D4" s="4">
         <f>Extrapolations!AB3</f>
-        <v>8.0744539011671951E-5</v>
+        <v>1.1810574707712455E-4</v>
       </c>
       <c r="E4" s="4">
         <f>Extrapolations!AC3</f>
-        <v>8.1328218592193098E-5</v>
+        <v>1.1868232181340423E-4</v>
       </c>
       <c r="F4" s="4">
         <f>Extrapolations!AD3</f>
-        <v>8.1911898172714245E-5</v>
+        <v>1.192588965496839E-4</v>
       </c>
       <c r="G4" s="4">
         <f>Extrapolations!AE3</f>
-        <v>8.2495577753235392E-5</v>
+        <v>1.1983547128596358E-4</v>
       </c>
       <c r="H4" s="4">
         <f>Extrapolations!AF3</f>
-        <v>8.307925733375654E-5</v>
+        <v>1.2041204602224325E-4</v>
       </c>
       <c r="I4" s="4">
         <f>Extrapolations!AG3</f>
-        <v>8.3662936914277687E-5</v>
+        <v>1.2098862075852291E-4</v>
       </c>
       <c r="J4" s="4">
         <f>Extrapolations!AH3</f>
-        <v>8.4246616494798834E-5</v>
+        <v>1.2156519549480259E-4</v>
       </c>
       <c r="K4" s="4">
         <f>Extrapolations!AI3</f>
-        <v>8.4830296075319981E-5</v>
+        <v>1.2214177023108226E-4</v>
       </c>
       <c r="L4" s="4">
         <f>Extrapolations!AJ3</f>
-        <v>8.5413975655841129E-5</v>
+        <v>1.2271834496736195E-4</v>
       </c>
       <c r="M4" s="4">
         <f>Extrapolations!AK3</f>
-        <v>8.5997655236362289E-5</v>
+        <v>1.2329491970364162E-4</v>
       </c>
       <c r="N4" s="4">
         <f>Extrapolations!AL3</f>
-        <v>8.6581334816883437E-5</v>
+        <v>1.2387149443992128E-4</v>
       </c>
       <c r="O4" s="4">
         <f>Extrapolations!AM3</f>
-        <v>8.7748693977925663E-5</v>
+        <v>1.2502464391248049E-4</v>
       </c>
       <c r="P4" s="4">
         <f>Extrapolations!AN3</f>
-        <v>8.824876789615679E-5</v>
+        <v>1.257371509678276E-4</v>
       </c>
       <c r="Q4" s="4">
         <f>Extrapolations!AO3</f>
-        <v>8.9468420452621779E-5</v>
+        <v>1.2747491616587538E-4</v>
       </c>
       <c r="R4" s="4">
         <f>Extrapolations!AP3</f>
-        <v>9.0409199075422672E-5</v>
+        <v>1.288153408147681E-4</v>
       </c>
       <c r="S4" s="4">
         <f>Extrapolations!AQ3</f>
-        <v>9.1640753437746759E-5</v>
+        <v>1.3057006374713636E-4</v>
       </c>
       <c r="T4" s="4">
         <f>Extrapolations!AR3</f>
-        <v>9.3117859007590004E-5</v>
+        <v>1.3267464889272552E-4</v>
       </c>
       <c r="U4" s="4">
         <f>Extrapolations!AS3</f>
-        <v>9.4883008086438589E-5</v>
+        <v>1.3518963943025996E-4</v>
       </c>
       <c r="V4" s="4">
         <f>Extrapolations!AT3</f>
-        <v>9.6633313405458996E-5</v>
+        <v>1.3768348052724193E-4</v>
       </c>
       <c r="W4" s="4">
         <f>Extrapolations!AU3</f>
-        <v>9.8089434978873195E-5</v>
+        <v>1.39758167601846E-4</v>
       </c>
       <c r="X4" s="4">
         <f>Extrapolations!AV3</f>
-        <v>9.8126835661014889E-5</v>
+        <v>1.398114562236462E-4</v>
       </c>
       <c r="Y4" s="4">
         <f>Extrapolations!AW3</f>
-        <v>9.8642714571559186E-5</v>
+        <v>1.4054648228692851E-4</v>
       </c>
       <c r="Z4" s="4">
         <f>Extrapolations!AX3</f>
-        <v>9.9002017448782231E-5</v>
+        <v>1.410584182741791E-4</v>
       </c>
       <c r="AA4" s="4">
         <f>Extrapolations!AY3</f>
-        <v>9.9178435650853423E-5</v>
+        <v>1.4130977954115341E-4</v>
       </c>
       <c r="AB4" s="4">
         <f>Extrapolations!AZ3</f>
-        <v>9.9078776231944067E-5</v>
+        <v>1.4116778445499517E-4</v>
       </c>
       <c r="AC4" s="4">
         <f>Extrapolations!BA3</f>
-        <v>9.8926359713739475E-5</v>
+        <v>1.4095062087054683E-4</v>
       </c>
       <c r="AD4" s="4">
         <f>Extrapolations!BB3</f>
-        <v>9.8775044243654031E-5</v>
+        <v>1.4073502606328232E-4</v>
       </c>
       <c r="AE4" s="4">
         <f>Extrapolations!BC3</f>
-        <v>9.8592392594559178E-5</v>
+        <v>1.4047478335934126E-4</v>
       </c>
       <c r="AF4" s="4">
         <f>Extrapolations!BD3</f>
-        <v>9.8491620476227854E-5</v>
+        <v>1.4033120289518245E-4</v>
       </c>
       <c r="AG4" s="4">
         <f>Extrapolations!BE3</f>
-        <v>9.8383706109250751E-5</v>
+        <v>1.4017744613034961E-4</v>
       </c>
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
@@ -22647,131 +22611,131 @@
       </c>
       <c r="B5" s="4">
         <f t="shared" ref="B5:AG5" si="1">B$4</f>
-        <v>7.9577179850629656E-5</v>
+        <v>1.169525976045652E-4</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="1"/>
-        <v>8.0160859431150803E-5</v>
+        <v>1.1752917234084488E-4</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="1"/>
-        <v>8.0744539011671951E-5</v>
+        <v>1.1810574707712455E-4</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>8.1328218592193098E-5</v>
+        <v>1.1868232181340423E-4</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>8.1911898172714245E-5</v>
+        <v>1.192588965496839E-4</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="1"/>
-        <v>8.2495577753235392E-5</v>
+        <v>1.1983547128596358E-4</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="1"/>
-        <v>8.307925733375654E-5</v>
+        <v>1.2041204602224325E-4</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="1"/>
-        <v>8.3662936914277687E-5</v>
+        <v>1.2098862075852291E-4</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="1"/>
-        <v>8.4246616494798834E-5</v>
+        <v>1.2156519549480259E-4</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="1"/>
-        <v>8.4830296075319981E-5</v>
+        <v>1.2214177023108226E-4</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="1"/>
-        <v>8.5413975655841129E-5</v>
+        <v>1.2271834496736195E-4</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="1"/>
-        <v>8.5997655236362289E-5</v>
+        <v>1.2329491970364162E-4</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="1"/>
-        <v>8.6581334816883437E-5</v>
+        <v>1.2387149443992128E-4</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="1"/>
-        <v>8.7748693977925663E-5</v>
+        <v>1.2502464391248049E-4</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="1"/>
-        <v>8.824876789615679E-5</v>
+        <v>1.257371509678276E-4</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="1"/>
-        <v>8.9468420452621779E-5</v>
+        <v>1.2747491616587538E-4</v>
       </c>
       <c r="R5" s="4">
         <f t="shared" si="1"/>
-        <v>9.0409199075422672E-5</v>
+        <v>1.288153408147681E-4</v>
       </c>
       <c r="S5" s="4">
         <f t="shared" si="1"/>
-        <v>9.1640753437746759E-5</v>
+        <v>1.3057006374713636E-4</v>
       </c>
       <c r="T5" s="4">
         <f t="shared" si="1"/>
-        <v>9.3117859007590004E-5</v>
+        <v>1.3267464889272552E-4</v>
       </c>
       <c r="U5" s="4">
         <f t="shared" si="1"/>
-        <v>9.4883008086438589E-5</v>
+        <v>1.3518963943025996E-4</v>
       </c>
       <c r="V5" s="4">
         <f t="shared" si="1"/>
-        <v>9.6633313405458996E-5</v>
+        <v>1.3768348052724193E-4</v>
       </c>
       <c r="W5" s="4">
         <f t="shared" si="1"/>
-        <v>9.8089434978873195E-5</v>
+        <v>1.39758167601846E-4</v>
       </c>
       <c r="X5" s="4">
         <f t="shared" si="1"/>
-        <v>9.8126835661014889E-5</v>
+        <v>1.398114562236462E-4</v>
       </c>
       <c r="Y5" s="4">
         <f t="shared" si="1"/>
-        <v>9.8642714571559186E-5</v>
+        <v>1.4054648228692851E-4</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="1"/>
-        <v>9.9002017448782231E-5</v>
+        <v>1.410584182741791E-4</v>
       </c>
       <c r="AA5" s="4">
         <f t="shared" si="1"/>
-        <v>9.9178435650853423E-5</v>
+        <v>1.4130977954115341E-4</v>
       </c>
       <c r="AB5" s="4">
         <f t="shared" si="1"/>
-        <v>9.9078776231944067E-5</v>
+        <v>1.4116778445499517E-4</v>
       </c>
       <c r="AC5" s="4">
         <f t="shared" si="1"/>
-        <v>9.8926359713739475E-5</v>
+        <v>1.4095062087054683E-4</v>
       </c>
       <c r="AD5" s="4">
         <f t="shared" si="1"/>
-        <v>9.8775044243654031E-5</v>
+        <v>1.4073502606328232E-4</v>
       </c>
       <c r="AE5" s="4">
         <f t="shared" si="1"/>
-        <v>9.8592392594559178E-5</v>
+        <v>1.4047478335934126E-4</v>
       </c>
       <c r="AF5" s="4">
         <f t="shared" si="1"/>
-        <v>9.8491620476227854E-5</v>
+        <v>1.4033120289518245E-4</v>
       </c>
       <c r="AG5" s="4">
         <f t="shared" si="1"/>
-        <v>9.8383706109250751E-5</v>
+        <v>1.4017744613034961E-4</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -22782,131 +22746,131 @@
       </c>
       <c r="B6" s="4">
         <f>B$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+B$4*(1-'Other Values'!$B$6)</f>
-        <v>1.7517450248697813E-4</v>
+        <v>2.574495997268915E-4</v>
       </c>
       <c r="C6" s="4">
         <f>C$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+C$4*(1-'Other Values'!$B$6)</f>
-        <v>1.7645936556357273E-4</v>
+        <v>2.587188227976756E-4</v>
       </c>
       <c r="D6" s="4">
         <f>D$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+D$4*(1-'Other Values'!$B$6)</f>
-        <v>1.7774422864016732E-4</v>
+        <v>2.5998804586845964E-4</v>
       </c>
       <c r="E6" s="4">
         <f>E$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+E$4*(1-'Other Values'!$B$6)</f>
-        <v>1.7902909171676188E-4</v>
+        <v>2.6125726893924374E-4</v>
       </c>
       <c r="F6" s="4">
         <f>F$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+F$4*(1-'Other Values'!$B$6)</f>
-        <v>1.8031395479335647E-4</v>
+        <v>2.6252649201002784E-4</v>
       </c>
       <c r="G6" s="4">
         <f>G$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+G$4*(1-'Other Values'!$B$6)</f>
-        <v>1.8159881786995104E-4</v>
+        <v>2.6379571508081188E-4</v>
       </c>
       <c r="H6" s="4">
         <f>H$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+H$4*(1-'Other Values'!$B$6)</f>
-        <v>1.8288368094654563E-4</v>
+        <v>2.6506493815159598E-4</v>
       </c>
       <c r="I6" s="4">
         <f>I$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+I$4*(1-'Other Values'!$B$6)</f>
-        <v>1.8416854402314022E-4</v>
+        <v>2.6633416122238003E-4</v>
       </c>
       <c r="J6" s="4">
         <f>J$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+J$4*(1-'Other Values'!$B$6)</f>
-        <v>1.8545340709973481E-4</v>
+        <v>2.6760338429316407E-4</v>
       </c>
       <c r="K6" s="4">
         <f>K$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+K$4*(1-'Other Values'!$B$6)</f>
-        <v>1.8673827017632937E-4</v>
+        <v>2.6887260736394817E-4</v>
       </c>
       <c r="L6" s="4">
         <f>L$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+L$4*(1-'Other Values'!$B$6)</f>
-        <v>1.8802313325292394E-4</v>
+        <v>2.7014183043473227E-4</v>
       </c>
       <c r="M6" s="4">
         <f>M$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+M$4*(1-'Other Values'!$B$6)</f>
-        <v>1.8930799632951853E-4</v>
+        <v>2.7141105350551631E-4</v>
       </c>
       <c r="N6" s="4">
         <f>N$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+N$4*(1-'Other Values'!$B$6)</f>
-        <v>1.9059285940611312E-4</v>
+        <v>2.7268027657630035E-4</v>
       </c>
       <c r="O6" s="4">
         <f>O$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+O$4*(1-'Other Values'!$B$6)</f>
-        <v>1.9316258555930214E-4</v>
+        <v>2.7521872271786822E-4</v>
       </c>
       <c r="P6" s="4">
         <f>P$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+P$4*(1-'Other Values'!$B$6)</f>
-        <v>1.9426340617140827E-4</v>
+        <v>2.7678717574891522E-4</v>
       </c>
       <c r="Q6" s="4">
         <f>Q$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Q$4*(1-'Other Values'!$B$6)</f>
-        <v>1.9694824660162661E-4</v>
+        <v>2.8061254571777562E-4</v>
       </c>
       <c r="R6" s="4">
         <f>R$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+R$4*(1-'Other Values'!$B$6)</f>
-        <v>1.9901919743839751E-4</v>
+        <v>2.8356324366198292E-4</v>
       </c>
       <c r="S6" s="4">
         <f>S$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+S$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0173023750177672E-4</v>
+        <v>2.8742594295915673E-4</v>
       </c>
       <c r="T6" s="4">
         <f>T$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+T$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0498181331539219E-4</v>
+        <v>2.9205879947043391E-4</v>
       </c>
       <c r="U6" s="4">
         <f>U$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+U$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0886746385343651E-4</v>
+        <v>2.9759508785108535E-4</v>
       </c>
       <c r="V6" s="4">
         <f>V$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+V$4*(1-'Other Values'!$B$6)</f>
-        <v>2.127204385885959E-4</v>
+        <v>3.030848196343102E-4</v>
       </c>
       <c r="W6" s="4">
         <f>W$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+W$4*(1-'Other Values'!$B$6)</f>
-        <v>2.1592582199954585E-4</v>
+        <v>3.0765186104985309E-4</v>
       </c>
       <c r="X6" s="4">
         <f>X$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+X$4*(1-'Other Values'!$B$6)</f>
-        <v>2.1600815271168142E-4</v>
+        <v>3.0776916613442116E-4</v>
       </c>
       <c r="Y6" s="4">
         <f>Y$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Y$4*(1-'Other Values'!$B$6)</f>
-        <v>2.1714376510291908E-4</v>
+        <v>3.0938719061319916E-4</v>
       </c>
       <c r="Z6" s="4">
         <f>Z$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Z$4*(1-'Other Values'!$B$6)</f>
-        <v>2.179347041997535E-4</v>
+        <v>3.1051412338513367E-4</v>
       </c>
       <c r="AA6" s="4">
         <f>AA$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AA$4*(1-'Other Values'!$B$6)</f>
-        <v>2.1832305637352339E-4</v>
+        <v>3.110674489109864E-4</v>
       </c>
       <c r="AB6" s="4">
         <f>AB$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AB$4*(1-'Other Values'!$B$6)</f>
-        <v>2.1810367452110844E-4</v>
+        <v>3.1075487288579853E-4</v>
       </c>
       <c r="AC6" s="4">
         <f>AC$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AC$4*(1-'Other Values'!$B$6)</f>
-        <v>2.1776815763300807E-4</v>
+        <v>3.1027682725845364E-4</v>
       </c>
       <c r="AD6" s="4">
         <f>AD$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AD$4*(1-'Other Values'!$B$6)</f>
-        <v>2.1743506449951733E-4</v>
+        <v>3.0980223500509381E-4</v>
       </c>
       <c r="AE6" s="4">
         <f>AE$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AE$4*(1-'Other Values'!$B$6)</f>
-        <v>2.1703299054039144E-4</v>
+        <v>3.09229358631813E-4</v>
       </c>
       <c r="AF6" s="4">
         <f>AF$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AF$4*(1-'Other Values'!$B$6)</f>
-        <v>2.1681115928516998E-4</v>
+        <v>3.0891329268900028E-4</v>
       </c>
       <c r="AG6" s="4">
         <f>AG$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AG$4*(1-'Other Values'!$B$6)</f>
-        <v>2.1657360568523221E-4</v>
+        <v>3.0857482549483535E-4</v>
       </c>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
@@ -22917,131 +22881,131 @@
       </c>
       <c r="B7" s="4">
         <f>B$4*Calculations!$B$31</f>
-        <v>6.1672314384237991E-5</v>
+        <v>9.0638263143538028E-5</v>
       </c>
       <c r="C7" s="4">
         <f>C$4*Calculations!$B$31</f>
-        <v>6.2124666059141872E-5</v>
+        <v>9.1085108564154777E-5</v>
       </c>
       <c r="D7" s="4">
         <f>D$4*Calculations!$B$31</f>
-        <v>6.2577017734045766E-5</v>
+        <v>9.1531953984771525E-5</v>
       </c>
       <c r="E7" s="4">
         <f>E$4*Calculations!$B$31</f>
-        <v>6.3029369408949647E-5</v>
+        <v>9.1978799405388273E-5</v>
       </c>
       <c r="F7" s="4">
         <f>F$4*Calculations!$B$31</f>
-        <v>6.3481721083853541E-5</v>
+        <v>9.2425644826005021E-5</v>
       </c>
       <c r="G7" s="4">
         <f>G$4*Calculations!$B$31</f>
-        <v>6.3934072758757435E-5</v>
+        <v>9.2872490246621769E-5</v>
       </c>
       <c r="H7" s="4">
         <f>H$4*Calculations!$B$31</f>
-        <v>6.4386424433661316E-5</v>
+        <v>9.3319335667238517E-5</v>
       </c>
       <c r="I7" s="4">
         <f>I$4*Calculations!$B$31</f>
-        <v>6.483877610856521E-5</v>
+        <v>9.3766181087855265E-5</v>
       </c>
       <c r="J7" s="4">
         <f>J$4*Calculations!$B$31</f>
-        <v>6.5291127783469104E-5</v>
+        <v>9.4213026508472013E-5</v>
       </c>
       <c r="K7" s="4">
         <f>K$4*Calculations!$B$31</f>
-        <v>6.5743479458372985E-5</v>
+        <v>9.4659871929088761E-5</v>
       </c>
       <c r="L7" s="4">
         <f>L$4*Calculations!$B$31</f>
-        <v>6.6195831133276879E-5</v>
+        <v>9.5106717349705523E-5</v>
       </c>
       <c r="M7" s="4">
         <f>M$4*Calculations!$B$31</f>
-        <v>6.6648182808180773E-5</v>
+        <v>9.5553562770322258E-5</v>
       </c>
       <c r="N7" s="4">
         <f>N$4*Calculations!$B$31</f>
-        <v>6.7100534483084667E-5</v>
+        <v>9.6000408190938992E-5</v>
       </c>
       <c r="O7" s="4">
         <f>O$4*Calculations!$B$31</f>
-        <v>6.8005237832892388E-5</v>
+        <v>9.689409903217238E-5</v>
       </c>
       <c r="P7" s="4">
         <f>P$4*Calculations!$B$31</f>
-        <v>6.8392795119521512E-5</v>
+        <v>9.7446292000066394E-5</v>
       </c>
       <c r="Q7" s="4">
         <f>Q$4*Calculations!$B$31</f>
-        <v>6.9338025850781875E-5</v>
+        <v>9.8793060028553418E-5</v>
       </c>
       <c r="R7" s="4">
         <f>R$4*Calculations!$B$31</f>
-        <v>7.0067129283452574E-5</v>
+        <v>9.9831889131445282E-5</v>
       </c>
       <c r="S7" s="4">
         <f>S$4*Calculations!$B$31</f>
-        <v>7.1021583914253737E-5</v>
+        <v>1.0119179940403068E-4</v>
       </c>
       <c r="T7" s="4">
         <f>T$4*Calculations!$B$31</f>
-        <v>7.2166340730882257E-5</v>
+        <v>1.0282285289186228E-4</v>
       </c>
       <c r="U7" s="4">
         <f>U$4*Calculations!$B$31</f>
-        <v>7.3534331266989904E-5</v>
+        <v>1.0477197055845147E-4</v>
       </c>
       <c r="V7" s="4">
         <f>V$4*Calculations!$B$31</f>
-        <v>7.4890817889230731E-5</v>
+        <v>1.067046974086125E-4</v>
       </c>
       <c r="W7" s="4">
         <f>W$4*Calculations!$B$31</f>
-        <v>7.6019312108626722E-5</v>
+        <v>1.0831257989143065E-4</v>
       </c>
       <c r="X7" s="4">
         <f>X$4*Calculations!$B$31</f>
-        <v>7.6048297637286536E-5</v>
+        <v>1.0835387857332581E-4</v>
       </c>
       <c r="Y7" s="4">
         <f>Y$4*Calculations!$B$31</f>
-        <v>7.644810379295837E-5</v>
+        <v>1.0892352377236961E-4</v>
       </c>
       <c r="Z7" s="4">
         <f>Z$4*Calculations!$B$31</f>
-        <v>7.6726563522806228E-5</v>
+        <v>1.093202741624888E-4</v>
       </c>
       <c r="AA7" s="4">
         <f>AA$4*Calculations!$B$31</f>
-        <v>7.6863287629411404E-5</v>
+        <v>1.095150791443939E-4</v>
       </c>
       <c r="AB7" s="4">
         <f>AB$4*Calculations!$B$31</f>
-        <v>7.6786051579756653E-5</v>
+        <v>1.0940503295262126E-4</v>
       </c>
       <c r="AC7" s="4">
         <f>AC$4*Calculations!$B$31</f>
-        <v>7.6667928778148089E-5</v>
+        <v>1.0923673117467379E-4</v>
       </c>
       <c r="AD7" s="4">
         <f>AD$4*Calculations!$B$31</f>
-        <v>7.6550659288831879E-5</v>
+        <v>1.090696451990438E-4</v>
       </c>
       <c r="AE7" s="4">
         <f>AE$4*Calculations!$B$31</f>
-        <v>7.6409104260783363E-5</v>
+        <v>1.0886795710348948E-4</v>
       </c>
       <c r="AF7" s="4">
         <f>AF$4*Calculations!$B$31</f>
-        <v>7.6331005869076585E-5</v>
+        <v>1.087566822437664E-4</v>
       </c>
       <c r="AG7" s="4">
         <f>AG$4*Calculations!$B$31</f>
-        <v>7.6247372234669334E-5</v>
+        <v>1.0863752075102094E-4</v>
       </c>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
@@ -23052,131 +23016,131 @@
       </c>
       <c r="B8" s="4">
         <f>B$4*Calculations!$B$27</f>
-        <v>2.3873153955188893E-4</v>
+        <v>3.5085779281369554E-4</v>
       </c>
       <c r="C8" s="4">
         <f>C$4*Calculations!$B$27</f>
-        <v>2.4048257829345238E-4</v>
+        <v>3.5258751702253456E-4</v>
       </c>
       <c r="D8" s="4">
         <f>D$4*Calculations!$B$27</f>
-        <v>2.4223361703501581E-4</v>
+        <v>3.5431724123137362E-4</v>
       </c>
       <c r="E8" s="4">
         <f>E$4*Calculations!$B$27</f>
-        <v>2.4398465577657927E-4</v>
+        <v>3.5604696544021264E-4</v>
       </c>
       <c r="F8" s="4">
         <f>F$4*Calculations!$B$27</f>
-        <v>2.4573569451814272E-4</v>
+        <v>3.5777668964905165E-4</v>
       </c>
       <c r="G8" s="4">
         <f>G$4*Calculations!$B$27</f>
-        <v>2.4748673325970615E-4</v>
+        <v>3.5950641385789066E-4</v>
       </c>
       <c r="H8" s="4">
         <f>H$4*Calculations!$B$27</f>
-        <v>2.4923777200126958E-4</v>
+        <v>3.6123613806672973E-4</v>
       </c>
       <c r="I8" s="4">
         <f>I$4*Calculations!$B$27</f>
-        <v>2.5098881074283301E-4</v>
+        <v>3.6296586227556869E-4</v>
       </c>
       <c r="J8" s="4">
         <f>J$4*Calculations!$B$27</f>
-        <v>2.5273984948439649E-4</v>
+        <v>3.646955864844077E-4</v>
       </c>
       <c r="K8" s="4">
         <f>K$4*Calculations!$B$27</f>
-        <v>2.5449088822595992E-4</v>
+        <v>3.6642531069324671E-4</v>
       </c>
       <c r="L8" s="4">
         <f>L$4*Calculations!$B$27</f>
-        <v>2.5624192696752334E-4</v>
+        <v>3.6815503490208578E-4</v>
       </c>
       <c r="M8" s="4">
         <f>M$4*Calculations!$B$27</f>
-        <v>2.5799296570908683E-4</v>
+        <v>3.6988475911092479E-4</v>
       </c>
       <c r="N8" s="4">
         <f>N$4*Calculations!$B$27</f>
-        <v>2.5974400445065026E-4</v>
+        <v>3.7161448331976375E-4</v>
       </c>
       <c r="O8" s="4">
         <f>O$4*Calculations!$B$27</f>
-        <v>2.6324608193377695E-4</v>
+        <v>3.750739317374414E-4</v>
       </c>
       <c r="P8" s="4">
         <f>P$4*Calculations!$B$27</f>
-        <v>2.6474630368847032E-4</v>
+        <v>3.7721145290348275E-4</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$4*Calculations!$B$27</f>
-        <v>2.684052613578653E-4</v>
+        <v>3.8242474849762605E-4</v>
       </c>
       <c r="R8" s="4">
         <f>R$4*Calculations!$B$27</f>
-        <v>2.7122759722626798E-4</v>
+        <v>3.8644602244430421E-4</v>
       </c>
       <c r="S8" s="4">
         <f>S$4*Calculations!$B$27</f>
-        <v>2.7492226031324024E-4</v>
+        <v>3.9171019124140902E-4</v>
       </c>
       <c r="T8" s="4">
         <f>T$4*Calculations!$B$27</f>
-        <v>2.7935357702276999E-4</v>
+        <v>3.980239466781765E-4</v>
       </c>
       <c r="U8" s="4">
         <f>U$4*Calculations!$B$27</f>
-        <v>2.8464902425931574E-4</v>
+        <v>4.0556891829077982E-4</v>
       </c>
       <c r="V8" s="4">
         <f>V$4*Calculations!$B$27</f>
-        <v>2.8989994021637696E-4</v>
+        <v>4.130504415817257E-4</v>
       </c>
       <c r="W8" s="4">
         <f>W$4*Calculations!$B$27</f>
-        <v>2.9426830493661956E-4</v>
+        <v>4.1927450280553795E-4</v>
       </c>
       <c r="X8" s="4">
         <f>X$4*Calculations!$B$27</f>
-        <v>2.9438050698304464E-4</v>
+        <v>4.1943436867093855E-4</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$4*Calculations!$B$27</f>
-        <v>2.9592814371467752E-4</v>
+        <v>4.2163944686078548E-4</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$4*Calculations!$B$27</f>
-        <v>2.9700605234634665E-4</v>
+        <v>4.2317525482253723E-4</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$4*Calculations!$B$27</f>
-        <v>2.9753530695256024E-4</v>
+        <v>4.2392933862346019E-4</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$4*Calculations!$B$27</f>
-        <v>2.9723632869583215E-4</v>
+        <v>4.2350335336498543E-4</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$4*Calculations!$B$27</f>
-        <v>2.9677907914121837E-4</v>
+        <v>4.228518626116404E-4</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$4*Calculations!$B$27</f>
-        <v>2.9632513273096202E-4</v>
+        <v>4.2220507818984689E-4</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$4*Calculations!$B$27</f>
-        <v>2.9577717778367748E-4</v>
+        <v>4.2142435007802369E-4</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$4*Calculations!$B$27</f>
-        <v>2.9547486142868354E-4</v>
+        <v>4.2099360868554726E-4</v>
       </c>
       <c r="AG8" s="4">
         <f>AG$4*Calculations!$B$27</f>
-        <v>2.9515111832775223E-4</v>
+        <v>4.2053233839104873E-4</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -23187,7 +23151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -23195,12 +23159,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>92</v>
       </c>
@@ -23307,115 +23271,115 @@
       </c>
       <c r="B2" s="4">
         <f>B$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5521143619082771E-3</v>
+        <v>2.6585761196103791E-3</v>
       </c>
       <c r="C2" s="4">
         <f>C$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5521143619082771E-3</v>
+        <v>2.6585761196103791E-3</v>
       </c>
       <c r="D2" s="4">
         <f>D$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5521143619082771E-3</v>
+        <v>2.6585761196103791E-3</v>
       </c>
       <c r="E2" s="4">
         <f>E$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5521143619082771E-3</v>
+        <v>2.6585761196103791E-3</v>
       </c>
       <c r="F2" s="4">
         <f>F$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5521143619082771E-3</v>
+        <v>2.6585761196103791E-3</v>
       </c>
       <c r="G2" s="4">
         <f>G$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5521143619082771E-3</v>
+        <v>2.6585761196103791E-3</v>
       </c>
       <c r="H2" s="4">
         <f>H$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5521143619082771E-3</v>
+        <v>2.6585761196103791E-3</v>
       </c>
       <c r="I2" s="4">
         <f>I$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5521143619082771E-3</v>
+        <v>2.6585761196103791E-3</v>
       </c>
       <c r="J2" s="4">
         <f>J$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5521143619082771E-3</v>
+        <v>2.6585761196103791E-3</v>
       </c>
       <c r="K2" s="4">
         <f>K$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5521143619082771E-3</v>
+        <v>2.6585761196103791E-3</v>
       </c>
       <c r="L2" s="4">
         <f>L$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5521143619082771E-3</v>
+        <v>2.6585761196103791E-3</v>
       </c>
       <c r="M2" s="4">
         <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5521143619082771E-3</v>
+        <v>2.6585761196103791E-3</v>
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5713993123192645E-3</v>
+        <v>2.6719465279268057E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5906842627302523E-3</v>
+        <v>2.6853169362432323E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6099692131412401E-3</v>
+        <v>2.6986873445596585E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6292541635522279E-3</v>
+        <v>2.7120577528760856E-3</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6485391139632161E-3</v>
+        <v>2.7254281611925123E-3</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6678240643742035E-3</v>
+        <v>2.7387985695089385E-3</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6871090147851918E-3</v>
+        <v>2.7521689778253651E-3</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7063939651961796E-3</v>
+        <v>2.7655393861417922E-3</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7256789156071674E-3</v>
+        <v>2.7789097944582188E-3</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7449638660181552E-3</v>
+        <v>2.7922802027746454E-3</v>
       </c>
       <c r="X2" s="4">
         <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>2.764248816429143E-3</v>
+        <v>2.8056506110910717E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7835337668401308E-3</v>
+        <v>2.8190210194074987E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8028187172511186E-3</v>
+        <v>2.8323914277239254E-3</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8221036676621064E-3</v>
+        <v>2.845761836040352E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8413886180730943E-3</v>
+        <v>2.8591322443567786E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8606735684840821E-3</v>
+        <v>2.8725026526732053E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)</f>
@@ -23442,115 +23406,115 @@
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:AG4" si="0">B$5</f>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" si="0"/>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" si="0"/>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" si="0"/>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" si="0"/>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" si="0"/>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="0"/>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" si="0"/>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" si="0"/>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="0"/>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="0"/>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="N3" s="4">
         <f t="shared" si="0"/>
-        <v>8.0019281309157803E-4</v>
+        <v>8.3148206440313553E-4</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" si="0"/>
-        <v>8.0619408976835419E-4</v>
+        <v>8.3564279688511426E-4</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" si="0"/>
-        <v>8.1219536644513036E-4</v>
+        <v>8.3980352936709288E-4</v>
       </c>
       <c r="Q3" s="4">
         <f t="shared" si="0"/>
-        <v>8.1819664312190652E-4</v>
+        <v>8.4396426184907161E-4</v>
       </c>
       <c r="R3" s="4">
         <f t="shared" si="0"/>
-        <v>8.2419791979868279E-4</v>
+        <v>8.4812499433105034E-4</v>
       </c>
       <c r="S3" s="4">
         <f t="shared" si="0"/>
-        <v>8.3019919647545895E-4</v>
+        <v>8.5228572681302897E-4</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" si="0"/>
-        <v>8.3620047315223522E-4</v>
+        <v>8.564464592950077E-4</v>
       </c>
       <c r="U3" s="4">
         <f t="shared" si="0"/>
-        <v>8.4220174982901138E-4</v>
+        <v>8.6060719177698643E-4</v>
       </c>
       <c r="V3" s="4">
         <f t="shared" si="0"/>
-        <v>8.4820302650578754E-4</v>
+        <v>8.6476792425896516E-4</v>
       </c>
       <c r="W3" s="4">
         <f t="shared" si="0"/>
-        <v>8.5420430318256381E-4</v>
+        <v>8.6892865674094389E-4</v>
       </c>
       <c r="X3" s="4">
         <f t="shared" si="0"/>
-        <v>8.6020557985933997E-4</v>
+        <v>8.7308938922292252E-4</v>
       </c>
       <c r="Y3" s="4">
         <f t="shared" si="0"/>
-        <v>8.6620685653611613E-4</v>
+        <v>8.7725012170490125E-4</v>
       </c>
       <c r="Z3" s="4">
         <f t="shared" si="0"/>
-        <v>8.7220813321289229E-4</v>
+        <v>8.8141085418687998E-4</v>
       </c>
       <c r="AA3" s="4">
         <f t="shared" si="0"/>
-        <v>8.7820940988966845E-4</v>
+        <v>8.8557158666885871E-4</v>
       </c>
       <c r="AB3" s="4">
         <f t="shared" si="0"/>
-        <v>8.8421068656644472E-4</v>
+        <v>8.8973231915083744E-4</v>
       </c>
       <c r="AC3" s="4">
         <f t="shared" si="0"/>
-        <v>8.9021196324322088E-4</v>
+        <v>8.9389305163281607E-4</v>
       </c>
       <c r="AD3" s="4">
         <f t="shared" si="0"/>
@@ -23577,115 +23541,115 @@
       </c>
       <c r="B4" s="4">
         <f t="shared" si="0"/>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="0"/>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="0"/>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="0"/>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="0"/>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" si="0"/>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="J4" s="4">
         <f t="shared" si="0"/>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="K4" s="4">
         <f t="shared" si="0"/>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="0"/>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="0"/>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" si="0"/>
-        <v>8.0019281309157803E-4</v>
+        <v>8.3148206440313553E-4</v>
       </c>
       <c r="O4" s="4">
         <f t="shared" si="0"/>
-        <v>8.0619408976835419E-4</v>
+        <v>8.3564279688511426E-4</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="0"/>
-        <v>8.1219536644513036E-4</v>
+        <v>8.3980352936709288E-4</v>
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="0"/>
-        <v>8.1819664312190652E-4</v>
+        <v>8.4396426184907161E-4</v>
       </c>
       <c r="R4" s="4">
         <f t="shared" si="0"/>
-        <v>8.2419791979868279E-4</v>
+        <v>8.4812499433105034E-4</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" si="0"/>
-        <v>8.3019919647545895E-4</v>
+        <v>8.5228572681302897E-4</v>
       </c>
       <c r="T4" s="4">
         <f t="shared" si="0"/>
-        <v>8.3620047315223522E-4</v>
+        <v>8.564464592950077E-4</v>
       </c>
       <c r="U4" s="4">
         <f t="shared" si="0"/>
-        <v>8.4220174982901138E-4</v>
+        <v>8.6060719177698643E-4</v>
       </c>
       <c r="V4" s="4">
         <f t="shared" si="0"/>
-        <v>8.4820302650578754E-4</v>
+        <v>8.6476792425896516E-4</v>
       </c>
       <c r="W4" s="4">
         <f t="shared" si="0"/>
-        <v>8.5420430318256381E-4</v>
+        <v>8.6892865674094389E-4</v>
       </c>
       <c r="X4" s="4">
         <f t="shared" si="0"/>
-        <v>8.6020557985933997E-4</v>
+        <v>8.7308938922292252E-4</v>
       </c>
       <c r="Y4" s="4">
         <f t="shared" si="0"/>
-        <v>8.6620685653611613E-4</v>
+        <v>8.7725012170490125E-4</v>
       </c>
       <c r="Z4" s="4">
         <f t="shared" si="0"/>
-        <v>8.7220813321289229E-4</v>
+        <v>8.8141085418687998E-4</v>
       </c>
       <c r="AA4" s="4">
         <f t="shared" si="0"/>
-        <v>8.7820940988966845E-4</v>
+        <v>8.8557158666885871E-4</v>
       </c>
       <c r="AB4" s="4">
         <f t="shared" si="0"/>
-        <v>8.8421068656644472E-4</v>
+        <v>8.8973231915083744E-4</v>
       </c>
       <c r="AC4" s="4">
         <f t="shared" si="0"/>
-        <v>8.9021196324322088E-4</v>
+        <v>8.9389305163281607E-4</v>
       </c>
       <c r="AD4" s="4">
         <f t="shared" si="0"/>
@@ -23712,115 +23676,115 @@
       </c>
       <c r="B5" s="4">
         <f>Extrapolations!K4</f>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="C5" s="4">
         <f>Extrapolations!L4</f>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="D5" s="4">
         <f>Extrapolations!M4</f>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="E5" s="4">
         <f>Extrapolations!N4</f>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="F5" s="4">
         <f>Extrapolations!O4</f>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="G5" s="4">
         <f>Extrapolations!P4</f>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="H5" s="4">
         <f>Extrapolations!Q4</f>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="I5" s="4">
         <f>Extrapolations!R4</f>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="J5" s="4">
         <f>Extrapolations!S4</f>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="K5" s="4">
         <f>Extrapolations!T4</f>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="L5" s="4">
         <f>Extrapolations!U4</f>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="M5" s="4">
         <f>Extrapolations!V4</f>
-        <v>7.9419153641480187E-4</v>
+        <v>8.273213319211569E-4</v>
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!W4</f>
-        <v>8.0019281309157803E-4</v>
+        <v>8.3148206440313553E-4</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!X4</f>
-        <v>8.0619408976835419E-4</v>
+        <v>8.3564279688511426E-4</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!Y4</f>
-        <v>8.1219536644513036E-4</v>
+        <v>8.3980352936709288E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!Z4</f>
-        <v>8.1819664312190652E-4</v>
+        <v>8.4396426184907161E-4</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!AA4</f>
-        <v>8.2419791979868279E-4</v>
+        <v>8.4812499433105034E-4</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!AB4</f>
-        <v>8.3019919647545895E-4</v>
+        <v>8.5228572681302897E-4</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!AC4</f>
-        <v>8.3620047315223522E-4</v>
+        <v>8.564464592950077E-4</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!AD4</f>
-        <v>8.4220174982901138E-4</v>
+        <v>8.6060719177698643E-4</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!AE4</f>
-        <v>8.4820302650578754E-4</v>
+        <v>8.6476792425896516E-4</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!AF4</f>
-        <v>8.5420430318256381E-4</v>
+        <v>8.6892865674094389E-4</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!AG4</f>
-        <v>8.6020557985933997E-4</v>
+        <v>8.7308938922292252E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>Extrapolations!AH4</f>
-        <v>8.6620685653611613E-4</v>
+        <v>8.7725012170490125E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>Extrapolations!AI4</f>
-        <v>8.7220813321289229E-4</v>
+        <v>8.8141085418687998E-4</v>
       </c>
       <c r="AA5" s="4">
         <f>Extrapolations!AJ4</f>
-        <v>8.7820940988966845E-4</v>
+        <v>8.8557158666885871E-4</v>
       </c>
       <c r="AB5" s="4">
         <f>Extrapolations!AK4</f>
-        <v>8.8421068656644472E-4</v>
+        <v>8.8973231915083744E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>Extrapolations!AL4</f>
-        <v>8.9021196324322088E-4</v>
+        <v>8.9389305163281607E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>Extrapolations!AM4</f>
@@ -23847,115 +23811,115 @@
       </c>
       <c r="B6" s="4">
         <f>B$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+B$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7610490904362132E-3</v>
+        <v>1.8345114651502291E-3</v>
       </c>
       <c r="C6" s="4">
         <f>C$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+C$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7610490904362132E-3</v>
+        <v>1.8345114651502291E-3</v>
       </c>
       <c r="D6" s="4">
         <f>D$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+D$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7610490904362132E-3</v>
+        <v>1.8345114651502291E-3</v>
       </c>
       <c r="E6" s="4">
         <f>E$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+E$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7610490904362132E-3</v>
+        <v>1.8345114651502291E-3</v>
       </c>
       <c r="F6" s="4">
         <f>F$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+F$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7610490904362132E-3</v>
+        <v>1.8345114651502291E-3</v>
       </c>
       <c r="G6" s="4">
         <f>G$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+G$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7610490904362132E-3</v>
+        <v>1.8345114651502291E-3</v>
       </c>
       <c r="H6" s="4">
         <f>H$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+H$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7610490904362132E-3</v>
+        <v>1.8345114651502291E-3</v>
       </c>
       <c r="I6" s="4">
         <f>I$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+I$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7610490904362132E-3</v>
+        <v>1.8345114651502291E-3</v>
       </c>
       <c r="J6" s="4">
         <f>J$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+J$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7610490904362132E-3</v>
+        <v>1.8345114651502291E-3</v>
       </c>
       <c r="K6" s="4">
         <f>K$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+K$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7610490904362132E-3</v>
+        <v>1.8345114651502291E-3</v>
       </c>
       <c r="L6" s="4">
         <f>L$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+L$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7610490904362132E-3</v>
+        <v>1.8345114651502291E-3</v>
       </c>
       <c r="M6" s="4">
         <f>M$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+M$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7610490904362132E-3</v>
+        <v>1.8345114651502291E-3</v>
       </c>
       <c r="N6" s="4">
         <f>N$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+N$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7743563876668057E-3</v>
+        <v>1.8437375193411541E-3</v>
       </c>
       <c r="O6" s="4">
         <f>O$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+O$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7876636848973982E-3</v>
+        <v>1.8529635735320795E-3</v>
       </c>
       <c r="P6" s="4">
         <f>P$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+P$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8009709821279907E-3</v>
+        <v>1.862189627723004E-3</v>
       </c>
       <c r="Q6" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Q$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8142782793585835E-3</v>
+        <v>1.8714156819139294E-3</v>
       </c>
       <c r="R6" s="4">
         <f>R$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+R$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8275855765891762E-3</v>
+        <v>1.8806417361048543E-3</v>
       </c>
       <c r="S6" s="4">
         <f>S$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+S$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8408928738197685E-3</v>
+        <v>1.8898677902957793E-3</v>
       </c>
       <c r="T6" s="4">
         <f>T$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+T$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8542001710503615E-3</v>
+        <v>1.8990938444867042E-3</v>
       </c>
       <c r="U6" s="4">
         <f>U$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+U$5*(1-'Other Values'!$B$6)</f>
-        <v>1.867507468280954E-3</v>
+        <v>1.9083198986776296E-3</v>
       </c>
       <c r="V6" s="4">
         <f>V$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+V$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8808147655115465E-3</v>
+        <v>1.9175459528685546E-3</v>
       </c>
       <c r="W6" s="4">
         <f>W$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+W$5*(1-'Other Values'!$B$6)</f>
-        <v>1.894122062742139E-3</v>
+        <v>1.9267720070594799E-3</v>
       </c>
       <c r="X6" s="4">
         <f>X$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+X$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9074293599727317E-3</v>
+        <v>1.9359980612504045E-3</v>
       </c>
       <c r="Y6" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Y$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9207366572033242E-3</v>
+        <v>1.9452241154413301E-3</v>
       </c>
       <c r="Z6" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Z$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9340439544339168E-3</v>
+        <v>1.9544501696322548E-3</v>
       </c>
       <c r="AA6" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AA$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9473512516645095E-3</v>
+        <v>1.9636762238231802E-3</v>
       </c>
       <c r="AB6" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AB$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9606585488951022E-3</v>
+        <v>1.9729022780141051E-3</v>
       </c>
       <c r="AC6" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AC$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9739658461256945E-3</v>
+        <v>1.9821283322050301E-3</v>
       </c>
       <c r="AD6" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AD$5*(1-'Other Values'!$B$6)</f>
@@ -23982,115 +23946,115 @@
       </c>
       <c r="B7" s="4">
         <f>B$4*Calculations!$B$31</f>
-        <v>6.1549844072147149E-4</v>
+        <v>6.4117403223889666E-4</v>
       </c>
       <c r="C7" s="4">
         <f>C$4*Calculations!$B$31</f>
-        <v>6.1549844072147149E-4</v>
+        <v>6.4117403223889666E-4</v>
       </c>
       <c r="D7" s="4">
         <f>D$4*Calculations!$B$31</f>
-        <v>6.1549844072147149E-4</v>
+        <v>6.4117403223889666E-4</v>
       </c>
       <c r="E7" s="4">
         <f>E$4*Calculations!$B$31</f>
-        <v>6.1549844072147149E-4</v>
+        <v>6.4117403223889666E-4</v>
       </c>
       <c r="F7" s="4">
         <f>F$4*Calculations!$B$31</f>
-        <v>6.1549844072147149E-4</v>
+        <v>6.4117403223889666E-4</v>
       </c>
       <c r="G7" s="4">
         <f>G$4*Calculations!$B$31</f>
-        <v>6.1549844072147149E-4</v>
+        <v>6.4117403223889666E-4</v>
       </c>
       <c r="H7" s="4">
         <f>H$4*Calculations!$B$31</f>
-        <v>6.1549844072147149E-4</v>
+        <v>6.4117403223889666E-4</v>
       </c>
       <c r="I7" s="4">
         <f>I$4*Calculations!$B$31</f>
-        <v>6.1549844072147149E-4</v>
+        <v>6.4117403223889666E-4</v>
       </c>
       <c r="J7" s="4">
         <f>J$4*Calculations!$B$31</f>
-        <v>6.1549844072147149E-4</v>
+        <v>6.4117403223889666E-4</v>
       </c>
       <c r="K7" s="4">
         <f>K$4*Calculations!$B$31</f>
-        <v>6.1549844072147149E-4</v>
+        <v>6.4117403223889666E-4</v>
       </c>
       <c r="L7" s="4">
         <f>L$4*Calculations!$B$31</f>
-        <v>6.1549844072147149E-4</v>
+        <v>6.4117403223889666E-4</v>
       </c>
       <c r="M7" s="4">
         <f>M$4*Calculations!$B$31</f>
-        <v>6.1549844072147149E-4</v>
+        <v>6.4117403223889666E-4</v>
       </c>
       <c r="N7" s="4">
         <f>N$4*Calculations!$B$31</f>
-        <v>6.2014943014597295E-4</v>
+        <v>6.4439859991243008E-4</v>
       </c>
       <c r="O7" s="4">
         <f>O$4*Calculations!$B$31</f>
-        <v>6.2480041957047451E-4</v>
+        <v>6.4762316758596361E-4</v>
       </c>
       <c r="P7" s="4">
         <f>P$4*Calculations!$B$31</f>
-        <v>6.2945140899497607E-4</v>
+        <v>6.5084773525949703E-4</v>
       </c>
       <c r="Q7" s="4">
         <f>Q$4*Calculations!$B$31</f>
-        <v>6.3410239841947753E-4</v>
+        <v>6.5407230293303056E-4</v>
       </c>
       <c r="R7" s="4">
         <f>R$4*Calculations!$B$31</f>
-        <v>6.387533878439792E-4</v>
+        <v>6.5729687060656408E-4</v>
       </c>
       <c r="S7" s="4">
         <f>S$4*Calculations!$B$31</f>
-        <v>6.4340437726848065E-4</v>
+        <v>6.605214382800975E-4</v>
       </c>
       <c r="T7" s="4">
         <f>T$4*Calculations!$B$31</f>
-        <v>6.4805536669298232E-4</v>
+        <v>6.6374600595363103E-4</v>
       </c>
       <c r="U7" s="4">
         <f>U$4*Calculations!$B$31</f>
-        <v>6.5270635611748389E-4</v>
+        <v>6.6697057362716445E-4</v>
       </c>
       <c r="V7" s="4">
         <f>V$4*Calculations!$B$31</f>
-        <v>6.5735734554198534E-4</v>
+        <v>6.7019514130069798E-4</v>
       </c>
       <c r="W7" s="4">
         <f>W$4*Calculations!$B$31</f>
-        <v>6.6200833496648701E-4</v>
+        <v>6.7341970897423151E-4</v>
       </c>
       <c r="X7" s="4">
         <f>X$4*Calculations!$B$31</f>
-        <v>6.6665932439098846E-4</v>
+        <v>6.7664427664776493E-4</v>
       </c>
       <c r="Y7" s="4">
         <f>Y$4*Calculations!$B$31</f>
-        <v>6.7131031381549003E-4</v>
+        <v>6.7986884432129845E-4</v>
       </c>
       <c r="Z7" s="4">
         <f>Z$4*Calculations!$B$31</f>
-        <v>6.7596130323999159E-4</v>
+        <v>6.8309341199483198E-4</v>
       </c>
       <c r="AA7" s="4">
         <f>AA$4*Calculations!$B$31</f>
-        <v>6.8061229266449304E-4</v>
+        <v>6.8631797966836551E-4</v>
       </c>
       <c r="AB7" s="4">
         <f>AB$4*Calculations!$B$31</f>
-        <v>6.8526328208899472E-4</v>
+        <v>6.8954254734189904E-4</v>
       </c>
       <c r="AC7" s="4">
         <f>AC$4*Calculations!$B$31</f>
-        <v>6.8991427151349617E-4</v>
+        <v>6.9276711501543246E-4</v>
       </c>
       <c r="AD7" s="4">
         <f>AD$4*Calculations!$B$31</f>
@@ -24117,115 +24081,115 @@
       </c>
       <c r="B8" s="4">
         <f>B$4*Calculations!$B$27</f>
-        <v>2.3825746092444051E-3</v>
+        <v>2.4819639957634702E-3</v>
       </c>
       <c r="C8" s="4">
         <f>C$4*Calculations!$B$27</f>
-        <v>2.3825746092444051E-3</v>
+        <v>2.4819639957634702E-3</v>
       </c>
       <c r="D8" s="4">
         <f>D$4*Calculations!$B$27</f>
-        <v>2.3825746092444051E-3</v>
+        <v>2.4819639957634702E-3</v>
       </c>
       <c r="E8" s="4">
         <f>E$4*Calculations!$B$27</f>
-        <v>2.3825746092444051E-3</v>
+        <v>2.4819639957634702E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$4*Calculations!$B$27</f>
-        <v>2.3825746092444051E-3</v>
+        <v>2.4819639957634702E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$4*Calculations!$B$27</f>
-        <v>2.3825746092444051E-3</v>
+        <v>2.4819639957634702E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$4*Calculations!$B$27</f>
-        <v>2.3825746092444051E-3</v>
+        <v>2.4819639957634702E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$4*Calculations!$B$27</f>
-        <v>2.3825746092444051E-3</v>
+        <v>2.4819639957634702E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$4*Calculations!$B$27</f>
-        <v>2.3825746092444051E-3</v>
+        <v>2.4819639957634702E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$4*Calculations!$B$27</f>
-        <v>2.3825746092444051E-3</v>
+        <v>2.4819639957634702E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$4*Calculations!$B$27</f>
-        <v>2.3825746092444051E-3</v>
+        <v>2.4819639957634702E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$4*Calculations!$B$27</f>
-        <v>2.3825746092444051E-3</v>
+        <v>2.4819639957634702E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$4*Calculations!$B$27</f>
-        <v>2.4005784392747338E-3</v>
+        <v>2.4944461932094064E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$4*Calculations!$B$27</f>
-        <v>2.418582269305062E-3</v>
+        <v>2.5069283906553426E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$4*Calculations!$B$27</f>
-        <v>2.4365860993353907E-3</v>
+        <v>2.5194105881012783E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$4*Calculations!$B$27</f>
-        <v>2.454589929365719E-3</v>
+        <v>2.5318927855472145E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$4*Calculations!$B$27</f>
-        <v>2.4725937593960481E-3</v>
+        <v>2.5443749829931507E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$4*Calculations!$B$27</f>
-        <v>2.4905975894263764E-3</v>
+        <v>2.5568571804390865E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$4*Calculations!$B$27</f>
-        <v>2.5086014194567051E-3</v>
+        <v>2.5693393778850227E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$4*Calculations!$B$27</f>
-        <v>2.5266052494870338E-3</v>
+        <v>2.5818215753309589E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$4*Calculations!$B$27</f>
-        <v>2.5446090795173621E-3</v>
+        <v>2.5943037727768951E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$4*Calculations!$B$27</f>
-        <v>2.5626129095476912E-3</v>
+        <v>2.6067859702228312E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$4*Calculations!$B$27</f>
-        <v>2.5806167395780195E-3</v>
+        <v>2.619268167668767E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$4*Calculations!$B$27</f>
-        <v>2.5986205696083482E-3</v>
+        <v>2.6317503651147032E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$4*Calculations!$B$27</f>
-        <v>2.6166243996386764E-3</v>
+        <v>2.6442325625606394E-3</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$4*Calculations!$B$27</f>
-        <v>2.6346282296690051E-3</v>
+        <v>2.6567147600065756E-3</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$4*Calculations!$B$27</f>
-        <v>2.6526320596993338E-3</v>
+        <v>2.6691969574525118E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$4*Calculations!$B$27</f>
-        <v>2.6706358897296621E-3</v>
+        <v>2.681679154898448E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$4*Calculations!$B$27</f>
@@ -24252,7 +24216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -24260,12 +24224,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>92</v>
       </c>
@@ -24420,83 +24384,83 @@
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5267611174972808E-3</v>
+        <v>2.5204231300163934E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>2.545711290898158E-3</v>
+        <v>2.5330353159363837E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5646614642990356E-3</v>
+        <v>2.545647501856374E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5836116376999133E-3</v>
+        <v>2.5582596877763639E-3</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6025618111007905E-3</v>
+        <v>2.5708718736963542E-3</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6215119845016681E-3</v>
+        <v>2.5834840596163445E-3</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6404621579025457E-3</v>
+        <v>2.5960962455363347E-3</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>2.659412331303423E-3</v>
+        <v>2.608708431456325E-3</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6783625047043006E-3</v>
+        <v>2.6213206173763149E-3</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6973126781051782E-3</v>
+        <v>2.6339328032963052E-3</v>
       </c>
       <c r="X2" s="4">
         <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7162628515060554E-3</v>
+        <v>2.6465449892162955E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7352130249069331E-3</v>
+        <v>2.6591571751362858E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7541631983078107E-3</v>
+        <v>2.6717693610562761E-3</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7731133717086879E-3</v>
+        <v>2.6843815469762659E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7920635451095656E-3</v>
+        <v>2.6969937328962562E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8110137185104432E-3</v>
+        <v>2.7096059188162465E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8489140653121955E-3</v>
+        <v>2.7348302906562241E-3</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)</f>
-        <v>2.9018543439805655E-3</v>
+        <v>2.7752391053675212E-3</v>
       </c>
       <c r="AF2" s="4">
         <f>AF$5/(1-'Other Values'!$B$3)</f>
-        <v>3.0115020578275085E-3</v>
+        <v>2.8488676338252043E-3</v>
       </c>
       <c r="AG2" s="4">
         <f>AG$5/(1-'Other Values'!$B$3)</f>
-        <v>3.0153485298682389E-3</v>
+        <v>2.8795886122343932E-3</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -24555,83 +24519,83 @@
       </c>
       <c r="N3" s="4">
         <f t="shared" si="0"/>
-        <v>7.8630186954391234E-4</v>
+        <v>7.8432955353395896E-4</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" si="0"/>
-        <v>7.9219896708515125E-4</v>
+        <v>7.8825433506524449E-4</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" si="0"/>
-        <v>7.9809606462639016E-4</v>
+        <v>7.9217911659653002E-4</v>
       </c>
       <c r="Q3" s="4">
         <f t="shared" si="0"/>
-        <v>8.0399316216762907E-4</v>
+        <v>7.9610389812781554E-4</v>
       </c>
       <c r="R3" s="4">
         <f t="shared" si="0"/>
-        <v>8.0989025970886798E-4</v>
+        <v>8.0002867965910107E-4</v>
       </c>
       <c r="S3" s="4">
         <f t="shared" si="0"/>
-        <v>8.1578735725010689E-4</v>
+        <v>8.039534611903866E-4</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" si="0"/>
-        <v>8.2168445479134579E-4</v>
+        <v>8.0787824272167213E-4</v>
       </c>
       <c r="U3" s="4">
         <f t="shared" si="0"/>
-        <v>8.275815523325847E-4</v>
+        <v>8.1180302425295765E-4</v>
       </c>
       <c r="V3" s="4">
         <f t="shared" si="0"/>
-        <v>8.3347864987382361E-4</v>
+        <v>8.1572780578424318E-4</v>
       </c>
       <c r="W3" s="4">
         <f t="shared" si="0"/>
-        <v>8.3937574741506252E-4</v>
+        <v>8.1965258731552871E-4</v>
       </c>
       <c r="X3" s="4">
         <f t="shared" si="0"/>
-        <v>8.4527284495630143E-4</v>
+        <v>8.2357736884681424E-4</v>
       </c>
       <c r="Y3" s="4">
         <f t="shared" si="0"/>
-        <v>8.5116994249754034E-4</v>
+        <v>8.2750215037809976E-4</v>
       </c>
       <c r="Z3" s="4">
         <f t="shared" si="0"/>
-        <v>8.5706704003877924E-4</v>
+        <v>8.3142693190938529E-4</v>
       </c>
       <c r="AA3" s="4">
         <f t="shared" si="0"/>
-        <v>8.6296413758001815E-4</v>
+        <v>8.3535171344067082E-4</v>
       </c>
       <c r="AB3" s="4">
         <f t="shared" si="0"/>
-        <v>8.6886123512125706E-4</v>
+        <v>8.3927649497195634E-4</v>
       </c>
       <c r="AC3" s="4">
         <f t="shared" si="0"/>
-        <v>8.7475833266249597E-4</v>
+        <v>8.4320127650324187E-4</v>
       </c>
       <c r="AD3" s="4">
         <f t="shared" si="0"/>
-        <v>8.8655252774497303E-4</v>
+        <v>8.5105083956581206E-4</v>
       </c>
       <c r="AE3" s="4">
         <f t="shared" si="0"/>
-        <v>9.0302699373341036E-4</v>
+        <v>8.6362564386112969E-4</v>
       </c>
       <c r="AF3" s="4">
         <f t="shared" si="0"/>
-        <v>9.3714822576917284E-4</v>
+        <v>8.8653807874749006E-4</v>
       </c>
       <c r="AG3" s="4">
         <f t="shared" si="0"/>
-        <v>9.3834520799904446E-4</v>
+        <v>8.9609812880132704E-4</v>
       </c>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
@@ -24690,83 +24654,83 @@
       </c>
       <c r="N4" s="4">
         <f t="shared" si="0"/>
-        <v>7.8630186954391234E-4</v>
+        <v>7.8432955353395896E-4</v>
       </c>
       <c r="O4" s="4">
         <f t="shared" si="0"/>
-        <v>7.9219896708515125E-4</v>
+        <v>7.8825433506524449E-4</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="0"/>
-        <v>7.9809606462639016E-4</v>
+        <v>7.9217911659653002E-4</v>
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="0"/>
-        <v>8.0399316216762907E-4</v>
+        <v>7.9610389812781554E-4</v>
       </c>
       <c r="R4" s="4">
         <f t="shared" si="0"/>
-        <v>8.0989025970886798E-4</v>
+        <v>8.0002867965910107E-4</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" si="0"/>
-        <v>8.1578735725010689E-4</v>
+        <v>8.039534611903866E-4</v>
       </c>
       <c r="T4" s="4">
         <f t="shared" si="0"/>
-        <v>8.2168445479134579E-4</v>
+        <v>8.0787824272167213E-4</v>
       </c>
       <c r="U4" s="4">
         <f t="shared" si="0"/>
-        <v>8.275815523325847E-4</v>
+        <v>8.1180302425295765E-4</v>
       </c>
       <c r="V4" s="4">
         <f t="shared" si="0"/>
-        <v>8.3347864987382361E-4</v>
+        <v>8.1572780578424318E-4</v>
       </c>
       <c r="W4" s="4">
         <f t="shared" si="0"/>
-        <v>8.3937574741506252E-4</v>
+        <v>8.1965258731552871E-4</v>
       </c>
       <c r="X4" s="4">
         <f t="shared" si="0"/>
-        <v>8.4527284495630143E-4</v>
+        <v>8.2357736884681424E-4</v>
       </c>
       <c r="Y4" s="4">
         <f t="shared" si="0"/>
-        <v>8.5116994249754034E-4</v>
+        <v>8.2750215037809976E-4</v>
       </c>
       <c r="Z4" s="4">
         <f t="shared" si="0"/>
-        <v>8.5706704003877924E-4</v>
+        <v>8.3142693190938529E-4</v>
       </c>
       <c r="AA4" s="4">
         <f t="shared" si="0"/>
-        <v>8.6296413758001815E-4</v>
+        <v>8.3535171344067082E-4</v>
       </c>
       <c r="AB4" s="4">
         <f t="shared" si="0"/>
-        <v>8.6886123512125706E-4</v>
+        <v>8.3927649497195634E-4</v>
       </c>
       <c r="AC4" s="4">
         <f t="shared" si="0"/>
-        <v>8.7475833266249597E-4</v>
+        <v>8.4320127650324187E-4</v>
       </c>
       <c r="AD4" s="4">
         <f t="shared" si="0"/>
-        <v>8.8655252774497303E-4</v>
+        <v>8.5105083956581206E-4</v>
       </c>
       <c r="AE4" s="4">
         <f t="shared" si="0"/>
-        <v>9.0302699373341036E-4</v>
+        <v>8.6362564386112969E-4</v>
       </c>
       <c r="AF4" s="4">
         <f t="shared" si="0"/>
-        <v>9.3714822576917284E-4</v>
+        <v>8.8653807874749006E-4</v>
       </c>
       <c r="AG4" s="4">
         <f t="shared" si="0"/>
-        <v>9.3834520799904446E-4</v>
+        <v>8.9609812880132704E-4</v>
       </c>
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
@@ -24825,83 +24789,83 @@
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!W5</f>
-        <v>7.8630186954391234E-4</v>
+        <v>7.8432955353395896E-4</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!X5</f>
-        <v>7.9219896708515125E-4</v>
+        <v>7.8825433506524449E-4</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!Y5</f>
-        <v>7.9809606462639016E-4</v>
+        <v>7.9217911659653002E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!Z5</f>
-        <v>8.0399316216762907E-4</v>
+        <v>7.9610389812781554E-4</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!AA5</f>
-        <v>8.0989025970886798E-4</v>
+        <v>8.0002867965910107E-4</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!AB5</f>
-        <v>8.1578735725010689E-4</v>
+        <v>8.039534611903866E-4</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!AC5</f>
-        <v>8.2168445479134579E-4</v>
+        <v>8.0787824272167213E-4</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!AD5</f>
-        <v>8.275815523325847E-4</v>
+        <v>8.1180302425295765E-4</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!AE5</f>
-        <v>8.3347864987382361E-4</v>
+        <v>8.1572780578424318E-4</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!AF5</f>
-        <v>8.3937574741506252E-4</v>
+        <v>8.1965258731552871E-4</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!AG5</f>
-        <v>8.4527284495630143E-4</v>
+        <v>8.2357736884681424E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>Extrapolations!AH5</f>
-        <v>8.5116994249754034E-4</v>
+        <v>8.2750215037809976E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>Extrapolations!AI5</f>
-        <v>8.5706704003877924E-4</v>
+        <v>8.3142693190938529E-4</v>
       </c>
       <c r="AA5" s="4">
         <f>Extrapolations!AJ5</f>
-        <v>8.6296413758001815E-4</v>
+        <v>8.3535171344067082E-4</v>
       </c>
       <c r="AB5" s="4">
         <f>Extrapolations!AK5</f>
-        <v>8.6886123512125706E-4</v>
+        <v>8.3927649497195634E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>Extrapolations!AL5</f>
-        <v>8.7475833266249597E-4</v>
+        <v>8.4320127650324187E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>Extrapolations!AM5</f>
-        <v>8.8655252774497303E-4</v>
+        <v>8.5105083956581206E-4</v>
       </c>
       <c r="AE5" s="4">
         <f>Extrapolations!AN5</f>
-        <v>9.0302699373341036E-4</v>
+        <v>8.6362564386112969E-4</v>
       </c>
       <c r="AF5" s="4">
         <f>Extrapolations!AO5</f>
-        <v>9.3714822576917284E-4</v>
+        <v>8.8653807874749006E-4</v>
       </c>
       <c r="AG5" s="4">
         <f>Extrapolations!AP5</f>
-        <v>9.3834520799904446E-4</v>
+        <v>8.9609812880132704E-4</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -24960,83 +24924,83 @@
       </c>
       <c r="N6" s="4">
         <f>N$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+N$5*(1-'Other Values'!$B$6)</f>
-        <v>1.743554455918265E-3</v>
+        <v>1.7391810205992979E-3</v>
       </c>
       <c r="O6" s="4">
         <f>O$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+O$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7566307451823051E-3</v>
+        <v>1.7478838745443712E-3</v>
       </c>
       <c r="P6" s="4">
         <f>P$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+P$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7697070344463452E-3</v>
+        <v>1.7565867284894442E-3</v>
       </c>
       <c r="Q6" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Q$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7827833237103853E-3</v>
+        <v>1.7652895824345172E-3</v>
       </c>
       <c r="R6" s="4">
         <f>R$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+R$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7958596129744255E-3</v>
+        <v>1.7739924363795903E-3</v>
       </c>
       <c r="S6" s="4">
         <f>S$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+S$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8089359022384656E-3</v>
+        <v>1.7826952903246636E-3</v>
       </c>
       <c r="T6" s="4">
         <f>T$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+T$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8220121915025059E-3</v>
+        <v>1.7913981442697366E-3</v>
       </c>
       <c r="U6" s="4">
         <f>U$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+U$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8350884807665458E-3</v>
+        <v>1.8001009982148096E-3</v>
       </c>
       <c r="V6" s="4">
         <f>V$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+V$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8481647700305862E-3</v>
+        <v>1.8088038521598829E-3</v>
       </c>
       <c r="W6" s="4">
         <f>W$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+W$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8612410592946263E-3</v>
+        <v>1.817506706104956E-3</v>
       </c>
       <c r="X6" s="4">
         <f>X$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+X$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8743173485586662E-3</v>
+        <v>1.826209560050029E-3</v>
       </c>
       <c r="Y6" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Y$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8873936378227063E-3</v>
+        <v>1.834912413995102E-3</v>
       </c>
       <c r="Z6" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Z$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9004699270867467E-3</v>
+        <v>1.8436152679401753E-3</v>
       </c>
       <c r="AA6" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AA$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9135462163507866E-3</v>
+        <v>1.8523181218852484E-3</v>
       </c>
       <c r="AB6" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AB$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9266225056148267E-3</v>
+        <v>1.8610209758303212E-3</v>
       </c>
       <c r="AC6" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AC$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9396987948788671E-3</v>
+        <v>1.8697238297753947E-3</v>
       </c>
       <c r="AD6" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AD$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9658513734069454E-3</v>
+        <v>1.8871295376655386E-3</v>
       </c>
       <c r="AE6" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AE$5*(1-'Other Values'!$B$6)</f>
-        <v>2.0023820363693455E-3</v>
+        <v>1.9150130476896451E-3</v>
       </c>
       <c r="AF6" s="4">
         <f>AF$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AF$5*(1-'Other Values'!$B$6)</f>
-        <v>2.0780428334012577E-3</v>
+        <v>1.9658193340402331E-3</v>
       </c>
       <c r="AG6" s="4">
         <f>AG$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AG$5*(1-'Other Values'!$B$6)</f>
-        <v>2.0806970350271013E-3</v>
+        <v>1.9870178946895132E-3</v>
       </c>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
@@ -25095,83 +25059,83 @@
       </c>
       <c r="N7" s="4">
         <f>N$4*Calculations!$B$31</f>
-        <v>6.0938394889653211E-4</v>
+        <v>6.0785540398881823E-4</v>
       </c>
       <c r="O7" s="4">
         <f>O$4*Calculations!$B$31</f>
-        <v>6.1395419949099219E-4</v>
+        <v>6.1089710967556453E-4</v>
       </c>
       <c r="P7" s="4">
         <f>P$4*Calculations!$B$31</f>
-        <v>6.1852445008545238E-4</v>
+        <v>6.1393881536231083E-4</v>
       </c>
       <c r="Q7" s="4">
         <f>Q$4*Calculations!$B$31</f>
-        <v>6.2309470067991256E-4</v>
+        <v>6.1698052104905703E-4</v>
       </c>
       <c r="R7" s="4">
         <f>R$4*Calculations!$B$31</f>
-        <v>6.2766495127437275E-4</v>
+        <v>6.2002222673580333E-4</v>
       </c>
       <c r="S7" s="4">
         <f>S$4*Calculations!$B$31</f>
-        <v>6.3223520186883283E-4</v>
+        <v>6.2306393242254963E-4</v>
       </c>
       <c r="T7" s="4">
         <f>T$4*Calculations!$B$31</f>
-        <v>6.3680545246329301E-4</v>
+        <v>6.2610563810929594E-4</v>
       </c>
       <c r="U7" s="4">
         <f>U$4*Calculations!$B$31</f>
-        <v>6.413757030577532E-4</v>
+        <v>6.2914734379604224E-4</v>
       </c>
       <c r="V7" s="4">
         <f>V$4*Calculations!$B$31</f>
-        <v>6.4594595365221328E-4</v>
+        <v>6.3218904948278843E-4</v>
       </c>
       <c r="W7" s="4">
         <f>W$4*Calculations!$B$31</f>
-        <v>6.5051620424667347E-4</v>
+        <v>6.3523075516953474E-4</v>
       </c>
       <c r="X7" s="4">
         <f>X$4*Calculations!$B$31</f>
-        <v>6.5508645484113365E-4</v>
+        <v>6.3827246085628104E-4</v>
       </c>
       <c r="Y7" s="4">
         <f>Y$4*Calculations!$B$31</f>
-        <v>6.5965670543559373E-4</v>
+        <v>6.4131416654302734E-4</v>
       </c>
       <c r="Z7" s="4">
         <f>Z$4*Calculations!$B$31</f>
-        <v>6.6422695603005392E-4</v>
+        <v>6.4435587222977364E-4</v>
       </c>
       <c r="AA7" s="4">
         <f>AA$4*Calculations!$B$31</f>
-        <v>6.687972066245141E-4</v>
+        <v>6.4739757791651995E-4</v>
       </c>
       <c r="AB7" s="4">
         <f>AB$4*Calculations!$B$31</f>
-        <v>6.7336745721897429E-4</v>
+        <v>6.5043928360326614E-4</v>
       </c>
       <c r="AC7" s="4">
         <f>AC$4*Calculations!$B$31</f>
-        <v>6.7793770781343437E-4</v>
+        <v>6.5348098929001244E-4</v>
       </c>
       <c r="AD7" s="4">
         <f>AD$4*Calculations!$B$31</f>
-        <v>6.8707820900235409E-4</v>
+        <v>6.595644006635044E-4</v>
       </c>
       <c r="AE7" s="4">
         <f>AE$4*Calculations!$B$31</f>
-        <v>6.9984592014339306E-4</v>
+        <v>6.6930987399237553E-4</v>
       </c>
       <c r="AF7" s="4">
         <f>AF$4*Calculations!$B$31</f>
-        <v>7.2628987497110899E-4</v>
+        <v>6.8706701102930483E-4</v>
       </c>
       <c r="AG7" s="4">
         <f>AG$4*Calculations!$B$31</f>
-        <v>7.2721753619925953E-4</v>
+        <v>6.9447604982102846E-4</v>
       </c>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
@@ -25230,83 +25194,83 @@
       </c>
       <c r="N8" s="4">
         <f>N$4*Calculations!$B$27</f>
-        <v>2.3589056086317367E-3</v>
+        <v>2.3529886606018765E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$4*Calculations!$B$27</f>
-        <v>2.3765969012554534E-3</v>
+        <v>2.3647630051957329E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$4*Calculations!$B$27</f>
-        <v>2.3942881938791702E-3</v>
+        <v>2.3765373497895898E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$4*Calculations!$B$27</f>
-        <v>2.4119794865028869E-3</v>
+        <v>2.3883116943834463E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$4*Calculations!$B$27</f>
-        <v>2.4296707791266036E-3</v>
+        <v>2.4000860389773028E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$4*Calculations!$B$27</f>
-        <v>2.4473620717503203E-3</v>
+        <v>2.4118603835711593E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$4*Calculations!$B$27</f>
-        <v>2.4650533643740371E-3</v>
+        <v>2.4236347281650162E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$4*Calculations!$B$27</f>
-        <v>2.4827446569977538E-3</v>
+        <v>2.4354090727588726E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$4*Calculations!$B$27</f>
-        <v>2.5004359496214705E-3</v>
+        <v>2.4471834173527291E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$4*Calculations!$B$27</f>
-        <v>2.5181272422451872E-3</v>
+        <v>2.4589577619465856E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$4*Calculations!$B$27</f>
-        <v>2.535818534868904E-3</v>
+        <v>2.4707321065404425E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$4*Calculations!$B$27</f>
-        <v>2.5535098274926207E-3</v>
+        <v>2.482506451134299E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$4*Calculations!$B$27</f>
-        <v>2.5712011201163374E-3</v>
+        <v>2.4942807957281554E-3</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$4*Calculations!$B$27</f>
-        <v>2.5888924127400541E-3</v>
+        <v>2.5060551403220119E-3</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$4*Calculations!$B$27</f>
-        <v>2.6065837053637709E-3</v>
+        <v>2.5178294849158688E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$4*Calculations!$B$27</f>
-        <v>2.6242749979874876E-3</v>
+        <v>2.5296038295097253E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$4*Calculations!$B$27</f>
-        <v>2.6596575832349189E-3</v>
+        <v>2.5531525186974356E-3</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$4*Calculations!$B$27</f>
-        <v>2.7090809812002309E-3</v>
+        <v>2.5908769315833888E-3</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$4*Calculations!$B$27</f>
-        <v>2.811444677307518E-3</v>
+        <v>2.6596142362424698E-3</v>
       </c>
       <c r="AG8" s="4">
         <f>AG$4*Calculations!$B$27</f>
-        <v>2.8150356239971331E-3</v>
+        <v>2.6882943864039808E-3</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\MN\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AE2DD19-146D-4E07-AC19-E0D16FA4848E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A61455B-3F35-4EB8-9D97-AD919D1B834E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="555" windowWidth="19605" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="730" windowWidth="9800" windowHeight="10070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1777,133 +1777,133 @@
                   <c:v>3.142498616321923E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>3.170827862483609E-4</c:v>
+                  <c:v>3.1934654476143933E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>3.199157108645295E-4</c:v>
+                  <c:v>3.2444322789068635E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>3.227486354806981E-4</c:v>
+                  <c:v>3.2953991101993338E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>3.255815600968667E-4</c:v>
+                  <c:v>3.346365941491804E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>3.284144847130353E-4</c:v>
+                  <c:v>3.3973327727842743E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>3.312474093292039E-4</c:v>
+                  <c:v>3.4482996040767445E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>3.3408033394537249E-4</c:v>
+                  <c:v>3.4992664353692148E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>3.3691325856154109E-4</c:v>
+                  <c:v>3.550233266661685E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>3.3974618317770969E-4</c:v>
+                  <c:v>3.6012000979541552E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>3.4257910779387829E-4</c:v>
+                  <c:v>3.6521669292466255E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>3.4541203241004689E-4</c:v>
+                  <c:v>3.7031337605390957E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>3.4824495702621549E-4</c:v>
+                  <c:v>3.754100591831566E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>3.5107788164238408E-4</c:v>
+                  <c:v>3.8050674231240362E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>3.5391080625855263E-4</c:v>
+                  <c:v>3.8560342544165043E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>3.6152338546126896E-4</c:v>
+                  <c:v>3.938977091004229E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>3.6806778318324615E-4</c:v>
+                  <c:v>4.0102815590911211E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>3.7326311577328699E-4</c:v>
+                  <c:v>4.0668872915977704E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>3.8684273091170592E-4</c:v>
+                  <c:v>4.2148439524556525E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>3.9133628030331842E-4</c:v>
+                  <c:v>4.2638034079782157E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>3.9460271712590122E-4</c:v>
+                  <c:v>4.2993928617474374E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>4.0654622240144441E-4</c:v>
+                  <c:v>4.4295232919176118E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>4.0753465089361259E-4</c:v>
+                  <c:v>4.4402927119422075E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>4.0771889354095417E-4</c:v>
+                  <c:v>4.4423001272194757E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>4.0791884576015625E-4</c:v>
+                  <c:v>4.4444787060954387E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>4.0852284515353123E-4</c:v>
+                  <c:v>4.4510595798899477E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>4.09583671112226E-4</c:v>
+                  <c:v>4.4626178063197816E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>4.1078673798239525E-4</c:v>
+                  <c:v>4.4757258182247277E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>4.122748024320864E-4</c:v>
+                  <c:v>4.4919390205042781E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>4.1373149805260076E-4</c:v>
+                  <c:v>4.5078104437884211E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>4.1495700440447459E-4</c:v>
+                  <c:v>4.5211629450069859E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>4.1601549646964788E-4</c:v>
+                  <c:v>4.5326957425061224E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>4.1779365223495714E-4</c:v>
+                  <c:v>4.5520696339484528E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>4.1809544457369974E-4</c:v>
+                  <c:v>4.5553578115777672E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>4.1838332983416382E-4</c:v>
+                  <c:v>4.5584944646724456E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>4.1848122624012197E-4</c:v>
+                  <c:v>4.559561094704881E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>4.1826563698301188E-4</c:v>
+                  <c:v>4.5572121425237108E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>4.1769414168042572E-4</c:v>
+                  <c:v>4.550985416964502E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>4.1714393092982577E-4</c:v>
+                  <c:v>4.5449905971852166E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>4.1708664938544884E-4</c:v>
+                  <c:v>4.5443664862698183E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>4.165029094218215E-4</c:v>
+                  <c:v>4.5380063490385911E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>4.1616572999280917E-4</c:v>
+                  <c:v>4.5343326114607497E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>4.1755377409260071E-4</c:v>
+                  <c:v>4.5494560422822621E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>4.1711981834238049E-4</c:v>
+                  <c:v>4.5447278785524218E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3236,136 +3236,136 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>7.5108389563240119E-5</c:v>
+                  <c:v>5.0412726378568952E-5</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>7.7552820431472588E-5</c:v>
+                  <c:v>5.4271492176534604E-5</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>7.9997251299705058E-5</c:v>
+                  <c:v>5.8130257974500256E-5</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>8.2441682167937527E-5</c:v>
+                  <c:v>6.1989023772465041E-5</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>8.4886113036169997E-5</c:v>
+                  <c:v>6.5847789570430693E-5</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>8.7330543904402466E-5</c:v>
+                  <c:v>6.9706555368396345E-5</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>8.9774974772634936E-5</c:v>
+                  <c:v>7.3565321166361129E-5</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>9.2219405640867405E-5</c:v>
+                  <c:v>7.7424086964326781E-5</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>9.4663836509099875E-5</c:v>
+                  <c:v>8.1282852762291566E-5</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>9.7108267377332344E-5</c:v>
+                  <c:v>8.5141618560257218E-5</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>9.9552698245564814E-5</c:v>
+                  <c:v>8.900038435822287E-5</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>1.0199712911379728E-4</c:v>
+                  <c:v>9.2859150156187655E-5</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>1.0444155998202975E-4</c:v>
+                  <c:v>9.6717915954153307E-5</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>1.0688599085026222E-4</c:v>
+                  <c:v>1.0057668175211809E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>1.0748894488887501E-4</c:v>
+                  <c:v>1.0420515928406728E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>1.1376628742778099E-4</c:v>
+                  <c:v>1.0877081887028839E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>1.1487084665170681E-4</c:v>
+                  <c:v>1.119228749342E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>1.1675219072501874E-4</c:v>
+                  <c:v>1.1596328986495364E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>1.1821814758141852E-4</c:v>
+                  <c:v>1.1990275277656129E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>1.1769306557695523E-4</c:v>
+                  <c:v>1.2199635295884858E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>1.1740735707916262E-4</c:v>
+                  <c:v>1.243467097653028E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>1.1551151797500483E-4</c:v>
+                  <c:v>1.2468075205096364E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>1.1449785838376007E-4</c:v>
+                  <c:v>1.2577381385553893E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>1.13287341804607E-4</c:v>
+                  <c:v>1.2646319222836433E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>1.1212406398402511E-4</c:v>
+                  <c:v>1.2698406877407795E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>1.1076186329973974E-4</c:v>
+                  <c:v>1.2710494044541212E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>1.0947685788155618E-4</c:v>
+                  <c:v>1.2713124547346271E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>1.0833659526703707E-4</c:v>
+                  <c:v>1.2714496314152464E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>1.0725258337875167E-4</c:v>
+                  <c:v>1.2712313200368365E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>1.0627237374881068E-4</c:v>
+                  <c:v>1.271005238267318E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>1.053872190542009E-4</c:v>
+                  <c:v>1.2708001023750603E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>1.0457070988285631E-4</c:v>
+                  <c:v>1.2705407014004141E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>1.0382785746559407E-4</c:v>
+                  <c:v>1.2702629811717708E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>1.0317553743970813E-4</c:v>
+                  <c:v>1.2701194080551808E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>1.0260660677729319E-4</c:v>
+                  <c:v>1.2701796387221964E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>1.0212195692865432E-4</c:v>
+                  <c:v>1.2701802056749482E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>1.0164270384030296E-4</c:v>
+                  <c:v>1.270327910946451E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>1.0120623842325044E-4</c:v>
+                  <c:v>1.2702817221538397E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>1.0086620530512349E-4</c:v>
+                  <c:v>1.2698131801807758E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>1.0054219744424832E-4</c:v>
+                  <c:v>1.2695571200958938E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>9.9850684341711718E-5</c:v>
+                  <c:v>1.2640538596243631E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>9.9621972535475967E-5</c:v>
+                  <c:v>1.2643551327178303E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>9.9483752435656976E-5</c:v>
+                  <c:v>1.2650241733350927E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>9.9383928406132565E-5</c:v>
+                  <c:v>1.2663654108394285E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3699,91 +3699,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>1.177387347221569E-3</c:v>
+                  <c:v>1.1604234453908705E-3</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>1.1740372877780075E-3</c:v>
+                  <c:v>1.1579662228857668E-3</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>1.1706872283344459E-3</c:v>
+                  <c:v>1.1555090003806633E-3</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>1.1673371688908844E-3</c:v>
+                  <c:v>1.1530517778755595E-3</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>1.163987109447323E-3</c:v>
+                  <c:v>1.1505945553704558E-3</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>1.1606370500037615E-3</c:v>
+                  <c:v>1.1481373328653521E-3</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>1.1572869905602E-3</c:v>
+                  <c:v>1.1456801103602485E-3</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>1.1539369311166386E-3</c:v>
+                  <c:v>1.1432228878551448E-3</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>1.1505868716730771E-3</c:v>
+                  <c:v>1.1407656653500411E-3</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>1.1472368122295155E-3</c:v>
+                  <c:v>1.1383084428449376E-3</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>1.143886752785954E-3</c:v>
+                  <c:v>1.1358512203398338E-3</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>1.1405366933423926E-3</c:v>
+                  <c:v>1.1333939978347303E-3</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>1.1371866338988309E-3</c:v>
+                  <c:v>1.1309367753296266E-3</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>1.1338365744552694E-3</c:v>
+                  <c:v>1.1284795528245229E-3</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>1.130486515011708E-3</c:v>
+                  <c:v>1.1260223303194191E-3</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>1.1271364555681463E-3</c:v>
+                  <c:v>1.1235651078143154E-3</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>1.1237863961245848E-3</c:v>
+                  <c:v>1.1211078853092119E-3</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>1.1204363366810234E-3</c:v>
+                  <c:v>1.1186506628041082E-3</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
                   <c:v>1.1137362177939013E-3</c:v>
@@ -3801,34 +3801,34 @@
                   <c:v>1.2984724640643824E-3</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>1.3325458991476347E-3</c:v>
+                  <c:v>1.3325458991476349E-3</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
                   <c:v>1.3625499159680566E-3</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>1.3753174198569201E-3</c:v>
+                  <c:v>1.3753174198569197E-3</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
                   <c:v>1.3946841343267524E-3</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>1.4146533498165595E-3</c:v>
+                  <c:v>1.4146533498165597E-3</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>1.4334182752321722E-3</c:v>
+                  <c:v>1.433418275232172E-3</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
                   <c:v>1.4445909758303492E-3</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>1.4455847020325701E-3</c:v>
+                  <c:v>1.4455847020325705E-3</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>1.4457021763821076E-3</c:v>
+                  <c:v>1.4457021763821074E-3</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>1.4456854451868699E-3</c:v>
+                  <c:v>1.4456854451868704E-3</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
                   <c:v>1.4457034223221783E-3</c:v>
@@ -3840,22 +3840,22 @@
                   <c:v>1.4455629870770495E-3</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>1.4452171497116701E-3</c:v>
+                  <c:v>1.4452171497116699E-3</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>1.4450916657473916E-3</c:v>
+                  <c:v>1.4450916657473914E-3</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
                   <c:v>1.4448529792281048E-3</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>1.443856049179987E-3</c:v>
+                  <c:v>1.4438560491799872E-3</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>1.4432142120520614E-3</c:v>
+                  <c:v>1.4432142120520612E-3</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>1.443266541535037E-3</c:v>
+                  <c:v>1.4432665415350372E-3</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
                   <c:v>1.4434251319069122E-3</c:v>
@@ -4240,148 +4240,148 @@
                   <c:v>7.8040477200267344E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>7.7819056047563108E-4</c:v>
+                  <c:v>7.7875573937035282E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>7.7597634894858872E-4</c:v>
+                  <c:v>7.771067067380322E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>7.7376213742154636E-4</c:v>
+                  <c:v>7.7545767410571158E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>7.71547925894504E-4</c:v>
+                  <c:v>7.7380864147339097E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>7.6933371436746164E-4</c:v>
+                  <c:v>7.7215960884107035E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>7.6711950284041929E-4</c:v>
+                  <c:v>7.7051057620874973E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>7.6490529131337693E-4</c:v>
+                  <c:v>7.6886154357642912E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>7.6269107978633457E-4</c:v>
+                  <c:v>7.672125109441085E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>7.6047686825929221E-4</c:v>
+                  <c:v>7.6556347831178788E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>7.5826265673224985E-4</c:v>
+                  <c:v>7.6391444567946727E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>7.5604844520520749E-4</c:v>
+                  <c:v>7.6226541304714665E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>7.5383423367816514E-4</c:v>
+                  <c:v>7.6061638041482603E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>7.5162002215112278E-4</c:v>
+                  <c:v>7.5896734778250542E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>7.4940581062408042E-4</c:v>
+                  <c:v>7.573183151501848E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>7.4719159909703806E-4</c:v>
+                  <c:v>7.5566928251786418E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>7.449773875699957E-4</c:v>
+                  <c:v>7.5402024988554357E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>7.4276317604295334E-4</c:v>
+                  <c:v>7.5237121725322295E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>7.4054896451591099E-4</c:v>
+                  <c:v>7.5072218462090233E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>7.3612054146182692E-4</c:v>
+                  <c:v>7.4742411935626142E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>7.8447318350072194E-4</c:v>
+                  <c:v>7.9651924557390657E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>8.0913266389472246E-4</c:v>
+                  <c:v>8.2155738726285784E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>8.3445529729440947E-4</c:v>
+                  <c:v>8.4726886507457174E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>8.582213975349269E-4</c:v>
+                  <c:v>8.7139990821531331E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>8.8074213007663328E-4</c:v>
+                  <c:v>8.9426646028002797E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>9.0057319308330108E-4</c:v>
+                  <c:v>9.1440204130079723E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>9.0901183566816969E-4</c:v>
+                  <c:v>9.2297026436659075E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>9.2181220627128113E-4</c:v>
+                  <c:v>9.3596719243283541E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>9.3501079807791388E-4</c:v>
+                  <c:v>9.4936845663098554E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>9.4741341804908898E-4</c:v>
+                  <c:v>9.6196152636282171E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>9.5479798028431191E-4</c:v>
+                  <c:v>9.6945948303515201E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>9.5545478057360543E-4</c:v>
+                  <c:v>9.7012636889170394E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>9.5553242488507497E-4</c:v>
+                  <c:v>9.7020520547872228E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>9.5552136645283517E-4</c:v>
+                  <c:v>9.7019397723754094E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>9.5553324838534815E-4</c:v>
+                  <c:v>9.7020604162434225E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>9.5550160244627959E-4</c:v>
+                  <c:v>9.7017390974266364E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>9.5544042814027313E-4</c:v>
+                  <c:v>9.7011179606804271E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>9.5521184799302321E-4</c:v>
+                  <c:v>9.6987970593383536E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>9.5512890975122625E-4</c:v>
+                  <c:v>9.6979549412497463E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>9.5497115062746795E-4</c:v>
+                  <c:v>9.6963531251407814E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>9.5431223276604333E-4</c:v>
+                  <c:v>9.6896627656878928E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>9.5388801248246955E-4</c:v>
+                  <c:v>9.6853554212517003E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>9.5392259949394229E-4</c:v>
+                  <c:v>9.6857066024120565E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>9.5402741931442593E-4</c:v>
+                  <c:v>9.6867708963368051E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>9.5426270510675759E-4</c:v>
+                  <c:v>9.6891598838222154E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>9.5454316577121671E-4</c:v>
+                  <c:v>9.6920075569048212E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>9.5490315303348411E-4</c:v>
+                  <c:v>9.6956627077574963E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>9.5518761355641295E-4</c:v>
+                  <c:v>9.6985509936273564E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>9.555246604539279E-4</c:v>
+                  <c:v>9.701973218200204E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7795,10 +7795,10 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="107.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.40625" customWidth="1"/>
+    <col min="2" max="2" width="107.40625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7809,7 +7809,7 @@
         <v>99</v>
       </c>
       <c r="C1" s="31">
-        <v>45321</v>
+        <v>45467</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8032,12 +8032,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -9031,12 +9031,12 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -9908,12 +9908,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -10785,14 +10785,14 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="2" max="2" width="10.40625" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30">
+    <row r="1" spans="1:32">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -11691,12 +11691,12 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -12568,12 +12568,12 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -13559,12 +13559,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -14436,12 +14436,12 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -15435,12 +15435,12 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="30">
+    <row r="1" spans="1:31">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -16210,14 +16210,14 @@
   <dimension ref="A1:AK30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.40625" customWidth="1"/>
+    <col min="2" max="2" width="16.40625" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -16391,94 +16391,94 @@
         <v>4</v>
       </c>
       <c r="D8" s="4">
-        <v>3.5391080625855263E-4</v>
+        <v>3.8560342544165043E-4</v>
       </c>
       <c r="E8" s="4">
-        <v>3.6152338546126896E-4</v>
+        <v>3.938977091004229E-4</v>
       </c>
       <c r="F8" s="4">
-        <v>3.6806778318324615E-4</v>
+        <v>4.0102815590911211E-4</v>
       </c>
       <c r="G8" s="4">
-        <v>3.7326311577328699E-4</v>
+        <v>4.0668872915977704E-4</v>
       </c>
       <c r="H8" s="4">
-        <v>3.8684273091170592E-4</v>
+        <v>4.2148439524556525E-4</v>
       </c>
       <c r="I8" s="4">
-        <v>3.9133628030331842E-4</v>
+        <v>4.2638034079782157E-4</v>
       </c>
       <c r="J8" s="4">
-        <v>3.9460271712590122E-4</v>
+        <v>4.2993928617474374E-4</v>
       </c>
       <c r="K8" s="4">
-        <v>4.0654622240144441E-4</v>
+        <v>4.4295232919176118E-4</v>
       </c>
       <c r="L8" s="4">
-        <v>4.0753465089361259E-4</v>
+        <v>4.4402927119422075E-4</v>
       </c>
       <c r="M8" s="4">
-        <v>4.0771889354095417E-4</v>
+        <v>4.4423001272194757E-4</v>
       </c>
       <c r="N8" s="4">
-        <v>4.0791884576015625E-4</v>
+        <v>4.4444787060954387E-4</v>
       </c>
       <c r="O8" s="4">
-        <v>4.0852284515353123E-4</v>
+        <v>4.4510595798899477E-4</v>
       </c>
       <c r="P8" s="4">
-        <v>4.09583671112226E-4</v>
+        <v>4.4626178063197816E-4</v>
       </c>
       <c r="Q8" s="4">
-        <v>4.1078673798239525E-4</v>
+        <v>4.4757258182247277E-4</v>
       </c>
       <c r="R8" s="4">
-        <v>4.122748024320864E-4</v>
+        <v>4.4919390205042781E-4</v>
       </c>
       <c r="S8" s="4">
-        <v>4.1373149805260076E-4</v>
+        <v>4.5078104437884211E-4</v>
       </c>
       <c r="T8" s="4">
-        <v>4.1495700440447459E-4</v>
+        <v>4.5211629450069859E-4</v>
       </c>
       <c r="U8" s="4">
-        <v>4.1601549646964788E-4</v>
+        <v>4.5326957425061224E-4</v>
       </c>
       <c r="V8" s="4">
-        <v>4.1779365223495714E-4</v>
+        <v>4.5520696339484528E-4</v>
       </c>
       <c r="W8" s="4">
-        <v>4.1809544457369974E-4</v>
+        <v>4.5553578115777672E-4</v>
       </c>
       <c r="X8" s="4">
-        <v>4.1838332983416382E-4</v>
+        <v>4.5584944646724456E-4</v>
       </c>
       <c r="Y8" s="4">
-        <v>4.1848122624012197E-4</v>
+        <v>4.559561094704881E-4</v>
       </c>
       <c r="Z8" s="4">
-        <v>4.1826563698301188E-4</v>
+        <v>4.5572121425237108E-4</v>
       </c>
       <c r="AA8" s="4">
-        <v>4.1769414168042572E-4</v>
+        <v>4.550985416964502E-4</v>
       </c>
       <c r="AB8" s="4">
-        <v>4.1714393092982577E-4</v>
+        <v>4.5449905971852166E-4</v>
       </c>
       <c r="AC8" s="4">
-        <v>4.1708664938544884E-4</v>
+        <v>4.5443664862698183E-4</v>
       </c>
       <c r="AD8" s="4">
-        <v>4.165029094218215E-4</v>
+        <v>4.5380063490385911E-4</v>
       </c>
       <c r="AE8" s="4">
-        <v>4.1616572999280917E-4</v>
+        <v>4.5343326114607497E-4</v>
       </c>
       <c r="AF8" s="4">
-        <v>4.1755377409260071E-4</v>
+        <v>4.5494560422822621E-4</v>
       </c>
       <c r="AG8" s="4">
-        <v>4.1711981834238049E-4</v>
+        <v>4.5447278785524218E-4</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -16496,94 +16496,94 @@
         <v>4</v>
       </c>
       <c r="D9" s="4">
-        <v>1.0748894488887501E-4</v>
+        <v>1.0420515928406728E-4</v>
       </c>
       <c r="E9" s="4">
-        <v>1.1376628742778099E-4</v>
+        <v>1.0877081887028839E-4</v>
       </c>
       <c r="F9" s="4">
-        <v>1.1487084665170681E-4</v>
+        <v>1.119228749342E-4</v>
       </c>
       <c r="G9" s="4">
-        <v>1.1675219072501874E-4</v>
+        <v>1.1596328986495364E-4</v>
       </c>
       <c r="H9" s="4">
-        <v>1.1821814758141852E-4</v>
+        <v>1.1990275277656129E-4</v>
       </c>
       <c r="I9" s="4">
-        <v>1.1769306557695523E-4</v>
+        <v>1.2199635295884858E-4</v>
       </c>
       <c r="J9" s="4">
-        <v>1.1740735707916262E-4</v>
+        <v>1.243467097653028E-4</v>
       </c>
       <c r="K9" s="4">
-        <v>1.1551151797500483E-4</v>
+        <v>1.2468075205096364E-4</v>
       </c>
       <c r="L9" s="4">
-        <v>1.1449785838376007E-4</v>
+        <v>1.2577381385553893E-4</v>
       </c>
       <c r="M9" s="4">
-        <v>1.13287341804607E-4</v>
+        <v>1.2646319222836433E-4</v>
       </c>
       <c r="N9" s="4">
-        <v>1.1212406398402511E-4</v>
+        <v>1.2698406877407795E-4</v>
       </c>
       <c r="O9" s="4">
-        <v>1.1076186329973974E-4</v>
+        <v>1.2710494044541212E-4</v>
       </c>
       <c r="P9" s="4">
-        <v>1.0947685788155618E-4</v>
+        <v>1.2713124547346271E-4</v>
       </c>
       <c r="Q9" s="4">
-        <v>1.0833659526703707E-4</v>
+        <v>1.2714496314152464E-4</v>
       </c>
       <c r="R9" s="4">
-        <v>1.0725258337875167E-4</v>
+        <v>1.2712313200368365E-4</v>
       </c>
       <c r="S9" s="4">
-        <v>1.0627237374881068E-4</v>
+        <v>1.271005238267318E-4</v>
       </c>
       <c r="T9" s="4">
-        <v>1.053872190542009E-4</v>
+        <v>1.2708001023750603E-4</v>
       </c>
       <c r="U9" s="4">
-        <v>1.0457070988285631E-4</v>
+        <v>1.2705407014004141E-4</v>
       </c>
       <c r="V9" s="4">
-        <v>1.0382785746559407E-4</v>
+        <v>1.2702629811717708E-4</v>
       </c>
       <c r="W9" s="4">
-        <v>1.0317553743970813E-4</v>
+        <v>1.2701194080551808E-4</v>
       </c>
       <c r="X9" s="4">
-        <v>1.0260660677729319E-4</v>
+        <v>1.2701796387221964E-4</v>
       </c>
       <c r="Y9" s="4">
-        <v>1.0212195692865432E-4</v>
+        <v>1.2701802056749482E-4</v>
       </c>
       <c r="Z9" s="4">
-        <v>1.0164270384030296E-4</v>
+        <v>1.270327910946451E-4</v>
       </c>
       <c r="AA9" s="4">
-        <v>1.0120623842325044E-4</v>
+        <v>1.2702817221538397E-4</v>
       </c>
       <c r="AB9" s="4">
-        <v>1.0086620530512349E-4</v>
+        <v>1.2698131801807758E-4</v>
       </c>
       <c r="AC9" s="4">
-        <v>1.0054219744424832E-4</v>
+        <v>1.2695571200958938E-4</v>
       </c>
       <c r="AD9" s="4">
-        <v>9.9850684341711718E-5</v>
+        <v>1.2640538596243631E-4</v>
       </c>
       <c r="AE9" s="4">
-        <v>9.9621972535475967E-5</v>
+        <v>1.2643551327178303E-4</v>
       </c>
       <c r="AF9" s="4">
-        <v>9.9483752435656976E-5</v>
+        <v>1.2650241733350927E-4</v>
       </c>
       <c r="AG9" s="4">
-        <v>9.9383928406132565E-5</v>
+        <v>1.2663654108394285E-4</v>
       </c>
       <c r="AH9" s="4"/>
       <c r="AI9" s="4"/>
@@ -16616,34 +16616,34 @@
         <v>1.2984724640643824E-3</v>
       </c>
       <c r="I10" s="4">
-        <v>1.3325458991476347E-3</v>
+        <v>1.3325458991476349E-3</v>
       </c>
       <c r="J10" s="4">
         <v>1.3625499159680566E-3</v>
       </c>
       <c r="K10" s="4">
-        <v>1.3753174198569201E-3</v>
+        <v>1.3753174198569197E-3</v>
       </c>
       <c r="L10" s="4">
         <v>1.3946841343267524E-3</v>
       </c>
       <c r="M10" s="4">
-        <v>1.4146533498165595E-3</v>
+        <v>1.4146533498165597E-3</v>
       </c>
       <c r="N10" s="4">
-        <v>1.4334182752321722E-3</v>
+        <v>1.433418275232172E-3</v>
       </c>
       <c r="O10" s="4">
         <v>1.4445909758303492E-3</v>
       </c>
       <c r="P10" s="4">
-        <v>1.4455847020325701E-3</v>
+        <v>1.4455847020325705E-3</v>
       </c>
       <c r="Q10" s="4">
-        <v>1.4457021763821076E-3</v>
+        <v>1.4457021763821074E-3</v>
       </c>
       <c r="R10" s="4">
-        <v>1.4456854451868699E-3</v>
+        <v>1.4456854451868704E-3</v>
       </c>
       <c r="S10" s="4">
         <v>1.4457034223221783E-3</v>
@@ -16655,22 +16655,22 @@
         <v>1.4455629870770495E-3</v>
       </c>
       <c r="V10" s="4">
-        <v>1.4452171497116701E-3</v>
+        <v>1.4452171497116699E-3</v>
       </c>
       <c r="W10" s="4">
-        <v>1.4450916657473916E-3</v>
+        <v>1.4450916657473914E-3</v>
       </c>
       <c r="X10" s="4">
         <v>1.4448529792281048E-3</v>
       </c>
       <c r="Y10" s="4">
-        <v>1.443856049179987E-3</v>
+        <v>1.4438560491799872E-3</v>
       </c>
       <c r="Z10" s="4">
-        <v>1.4432142120520614E-3</v>
+        <v>1.4432142120520612E-3</v>
       </c>
       <c r="AA10" s="4">
-        <v>1.443266541535037E-3</v>
+        <v>1.4432665415350372E-3</v>
       </c>
       <c r="AB10" s="4">
         <v>1.4434251319069122E-3</v>
@@ -16706,94 +16706,94 @@
         <v>5</v>
       </c>
       <c r="D11" s="4">
-        <v>7.3612054146182692E-4</v>
+        <v>7.4742411935626142E-4</v>
       </c>
       <c r="E11" s="4">
-        <v>7.8447318350072194E-4</v>
+        <v>7.9651924557390657E-4</v>
       </c>
       <c r="F11" s="4">
-        <v>8.0913266389472246E-4</v>
+        <v>8.2155738726285784E-4</v>
       </c>
       <c r="G11" s="4">
-        <v>8.3445529729440947E-4</v>
+        <v>8.4726886507457174E-4</v>
       </c>
       <c r="H11" s="4">
-        <v>8.582213975349269E-4</v>
+        <v>8.7139990821531331E-4</v>
       </c>
       <c r="I11" s="4">
-        <v>8.8074213007663328E-4</v>
+        <v>8.9426646028002797E-4</v>
       </c>
       <c r="J11" s="4">
-        <v>9.0057319308330108E-4</v>
+        <v>9.1440204130079723E-4</v>
       </c>
       <c r="K11" s="4">
-        <v>9.0901183566816969E-4</v>
+        <v>9.2297026436659075E-4</v>
       </c>
       <c r="L11" s="4">
-        <v>9.2181220627128113E-4</v>
+        <v>9.3596719243283541E-4</v>
       </c>
       <c r="M11" s="4">
-        <v>9.3501079807791388E-4</v>
+        <v>9.4936845663098554E-4</v>
       </c>
       <c r="N11" s="4">
-        <v>9.4741341804908898E-4</v>
+        <v>9.6196152636282171E-4</v>
       </c>
       <c r="O11" s="4">
-        <v>9.5479798028431191E-4</v>
+        <v>9.6945948303515201E-4</v>
       </c>
       <c r="P11" s="4">
-        <v>9.5545478057360543E-4</v>
+        <v>9.7012636889170394E-4</v>
       </c>
       <c r="Q11" s="4">
-        <v>9.5553242488507497E-4</v>
+        <v>9.7020520547872228E-4</v>
       </c>
       <c r="R11" s="4">
-        <v>9.5552136645283517E-4</v>
+        <v>9.7019397723754094E-4</v>
       </c>
       <c r="S11" s="4">
-        <v>9.5553324838534815E-4</v>
+        <v>9.7020604162434225E-4</v>
       </c>
       <c r="T11" s="4">
-        <v>9.5550160244627959E-4</v>
+        <v>9.7017390974266364E-4</v>
       </c>
       <c r="U11" s="4">
-        <v>9.5544042814027313E-4</v>
+        <v>9.7011179606804271E-4</v>
       </c>
       <c r="V11" s="4">
-        <v>9.5521184799302321E-4</v>
+        <v>9.6987970593383536E-4</v>
       </c>
       <c r="W11" s="4">
-        <v>9.5512890975122625E-4</v>
+        <v>9.6979549412497463E-4</v>
       </c>
       <c r="X11" s="4">
-        <v>9.5497115062746795E-4</v>
+        <v>9.6963531251407814E-4</v>
       </c>
       <c r="Y11" s="4">
-        <v>9.5431223276604333E-4</v>
+        <v>9.6896627656878928E-4</v>
       </c>
       <c r="Z11" s="4">
-        <v>9.5388801248246955E-4</v>
+        <v>9.6853554212517003E-4</v>
       </c>
       <c r="AA11" s="4">
-        <v>9.5392259949394229E-4</v>
+        <v>9.6857066024120565E-4</v>
       </c>
       <c r="AB11" s="4">
-        <v>9.5402741931442593E-4</v>
+        <v>9.6867708963368051E-4</v>
       </c>
       <c r="AC11" s="4">
-        <v>9.5426270510675759E-4</v>
+        <v>9.6891598838222154E-4</v>
       </c>
       <c r="AD11" s="4">
-        <v>9.5454316577121671E-4</v>
+        <v>9.6920075569048212E-4</v>
       </c>
       <c r="AE11" s="4">
-        <v>9.5490315303348411E-4</v>
+        <v>9.6956627077574963E-4</v>
       </c>
       <c r="AF11" s="4">
-        <v>9.5518761355641295E-4</v>
+        <v>9.6985509936273564E-4</v>
       </c>
       <c r="AG11" s="4">
-        <v>9.555246604539279E-4</v>
+        <v>9.701973218200204E-4</v>
       </c>
       <c r="AH11" s="4"/>
       <c r="AI11" s="4"/>
@@ -17846,94 +17846,94 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>1.0610370953958444E-3</v>
+        <v>1.1058184387710214E-3</v>
       </c>
       <c r="C24">
-        <v>1.1182929641066262E-3</v>
+        <v>1.1654653618777037E-3</v>
       </c>
       <c r="D24">
-        <v>1.1230378075595187E-3</v>
+        <v>1.1704178038241025E-3</v>
       </c>
       <c r="E24">
-        <v>1.1207737467721995E-3</v>
+        <v>1.1680699023993095E-3</v>
       </c>
       <c r="F24">
-        <v>1.1241462933302886E-3</v>
+        <v>1.1715925157363262E-3</v>
       </c>
       <c r="G24">
-        <v>1.1243227034620279E-3</v>
+        <v>1.1717836975623729E-3</v>
       </c>
       <c r="H24">
-        <v>1.1197764855285623E-3</v>
+        <v>1.1670454732039669E-3</v>
       </c>
       <c r="I24">
-        <v>1.1191149559385343E-3</v>
+        <v>1.1663553647253712E-3</v>
       </c>
       <c r="J24">
-        <v>1.1130469624480827E-3</v>
+        <v>1.1600295837550369E-3</v>
       </c>
       <c r="K24">
-        <v>1.1088287076252618E-3</v>
+        <v>1.1556233631186427E-3</v>
       </c>
       <c r="L24">
-        <v>1.1076057889551705E-3</v>
+        <v>1.1543479301738477E-3</v>
       </c>
       <c r="M24">
-        <v>1.1071053032327867E-3</v>
+        <v>1.1538248111999468E-3</v>
       </c>
       <c r="N24">
-        <v>1.1067724143381994E-3</v>
+        <v>1.1534771013398996E-3</v>
       </c>
       <c r="O24">
-        <v>1.1066615139372906E-3</v>
+        <v>1.153358383316175E-3</v>
       </c>
       <c r="P24">
-        <v>1.1066769292084788E-3</v>
+        <v>1.1533777970732827E-3</v>
       </c>
       <c r="Q24">
-        <v>1.1066795967218581E-3</v>
+        <v>1.1533839998503657E-3</v>
       </c>
       <c r="R24">
-        <v>1.1064406824033406E-3</v>
+        <v>1.1531365054505626E-3</v>
       </c>
       <c r="S24">
-        <v>1.10616658964172E-3</v>
+        <v>1.1528517648706005E-3</v>
       </c>
       <c r="T24">
-        <v>1.1060290826740075E-3</v>
+        <v>1.1527114348871379E-3</v>
       </c>
       <c r="U24">
-        <v>1.1055011555537056E-3</v>
+        <v>1.1521628742468084E-3</v>
       </c>
       <c r="V24">
-        <v>1.1050415873555949E-3</v>
+        <v>1.1516853990217147E-3</v>
       </c>
       <c r="W24">
-        <v>1.1045586465345543E-3</v>
+        <v>1.1511845126241146E-3</v>
       </c>
       <c r="X24">
-        <v>1.1038843213708662E-3</v>
+        <v>1.1504833870552749E-3</v>
       </c>
       <c r="Y24">
-        <v>1.1032661366839319E-3</v>
+        <v>1.1498404422001507E-3</v>
       </c>
       <c r="Z24">
-        <v>1.1026899310228654E-3</v>
+        <v>1.1492400691721339E-3</v>
       </c>
       <c r="AA24">
-        <v>1.1033241851303997E-3</v>
+        <v>1.1499032994117962E-3</v>
       </c>
       <c r="AB24">
-        <v>1.1025809057094401E-3</v>
+        <v>1.1491304009395679E-3</v>
       </c>
       <c r="AC24">
-        <v>1.1023701654874632E-3</v>
+        <v>1.148913547482614E-3</v>
       </c>
       <c r="AD24">
-        <v>1.1025099635140992E-3</v>
+        <v>1.1490606826052038E-3</v>
       </c>
       <c r="AE24">
-        <v>1.1022449653531074E-3</v>
+        <v>1.1487858957225897E-3</v>
       </c>
     </row>
     <row r="25" spans="1:37">
@@ -17941,94 +17941,94 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>3.9757641638912632E-4</v>
+        <v>4.1435623124899391E-4</v>
       </c>
       <c r="C25">
-        <v>3.9900747239960505E-4</v>
+        <v>4.1583860682125711E-4</v>
       </c>
       <c r="D25">
-        <v>4.094728037527083E-4</v>
+        <v>4.2674810809389702E-4</v>
       </c>
       <c r="E25">
-        <v>4.1042134222259559E-4</v>
+        <v>4.2774094105362768E-4</v>
       </c>
       <c r="F25">
-        <v>4.2303467685595353E-4</v>
+        <v>4.4088946807188358E-4</v>
       </c>
       <c r="G25">
-        <v>4.2712563186039055E-4</v>
+        <v>4.4515587089355332E-4</v>
       </c>
       <c r="H25">
-        <v>4.2901230740863917E-4</v>
+        <v>4.4712215141194824E-4</v>
       </c>
       <c r="I25">
-        <v>4.4013468861937947E-4</v>
+        <v>4.5871378319881849E-4</v>
       </c>
       <c r="J25">
-        <v>4.4145313646605977E-4</v>
+        <v>4.60087233889707E-4</v>
       </c>
       <c r="K25">
-        <v>4.4134933786440692E-4</v>
+        <v>4.5997510943360454E-4</v>
       </c>
       <c r="L25">
-        <v>4.4091962109341271E-4</v>
+        <v>4.5952689761791997E-4</v>
       </c>
       <c r="M25">
-        <v>4.4021823423990848E-4</v>
+        <v>4.5879531018905696E-4</v>
       </c>
       <c r="N25">
-        <v>4.4027827540505136E-4</v>
+        <v>4.5885757750912214E-4</v>
       </c>
       <c r="O25">
-        <v>4.4040955993276986E-4</v>
+        <v>4.5899315341134275E-4</v>
       </c>
       <c r="P25">
-        <v>4.4116372836744042E-4</v>
+        <v>4.5978047950904734E-4</v>
       </c>
       <c r="Q25">
-        <v>4.4149861084351322E-4</v>
+        <v>4.6013085920391559E-4</v>
       </c>
       <c r="R25">
-        <v>4.4225600784943527E-4</v>
+        <v>4.6092082071518263E-4</v>
       </c>
       <c r="S25">
-        <v>4.4285604557792939E-4</v>
+        <v>4.615465505005841E-4</v>
       </c>
       <c r="T25">
-        <v>4.4414588143789507E-4</v>
+        <v>4.6289202003053275E-4</v>
       </c>
       <c r="U25">
-        <v>4.4411604405746724E-4</v>
+        <v>4.6286158567069468E-4</v>
       </c>
       <c r="V25">
-        <v>4.4420971921594975E-4</v>
+        <v>4.6295981398202245E-4</v>
       </c>
       <c r="W25">
-        <v>4.4397500702864155E-4</v>
+        <v>4.6271617508682986E-4</v>
       </c>
       <c r="X25">
-        <v>4.4370861117360116E-4</v>
+        <v>4.6243920306310218E-4</v>
       </c>
       <c r="Y25">
-        <v>4.424879140459794E-4</v>
+        <v>4.6116751148015295E-4</v>
       </c>
       <c r="Z25">
-        <v>4.4177355237873966E-4</v>
+        <v>4.6042305602918797E-4</v>
       </c>
       <c r="AA25">
-        <v>4.4054153352135982E-4</v>
+        <v>4.591399062500133E-4</v>
       </c>
       <c r="AB25">
-        <v>4.3982519474178468E-4</v>
+        <v>4.5839402783031833E-4</v>
       </c>
       <c r="AC25">
-        <v>4.3880580213641828E-4</v>
+        <v>4.573327059931574E-4</v>
       </c>
       <c r="AD25">
-        <v>4.4035893908705087E-4</v>
+        <v>4.5895199125989522E-4</v>
       </c>
       <c r="AE25">
-        <v>4.3940968502460365E-4</v>
+        <v>4.579632154985259E-4</v>
       </c>
     </row>
     <row r="26" spans="1:37">
@@ -18036,94 +18036,94 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>3.4525981498377545E-4</v>
+        <v>3.8560342544165043E-4</v>
       </c>
       <c r="C26">
-        <v>3.5982944807231638E-4</v>
+        <v>3.938977091004229E-4</v>
       </c>
       <c r="D26">
-        <v>3.6710644959195353E-4</v>
+        <v>4.0102815590911211E-4</v>
       </c>
       <c r="E26">
-        <v>3.7373493890990666E-4</v>
+        <v>4.0668872915977704E-4</v>
       </c>
       <c r="F26">
-        <v>3.9582578415611009E-4</v>
+        <v>4.2148439524556525E-4</v>
       </c>
       <c r="G26">
-        <v>4.3494713071778808E-4</v>
+        <v>4.2638034079782157E-4</v>
       </c>
       <c r="H26">
-        <v>4.4227847691112512E-4</v>
+        <v>4.2993928617474374E-4</v>
       </c>
       <c r="I26">
-        <v>4.5901794912486538E-4</v>
+        <v>4.4295232919176118E-4</v>
       </c>
       <c r="J26">
-        <v>4.6412939868974872E-4</v>
+        <v>4.4402927119422075E-4</v>
       </c>
       <c r="K26">
-        <v>4.6774364798041294E-4</v>
+        <v>4.4423001272194757E-4</v>
       </c>
       <c r="L26">
-        <v>4.6966309910348734E-4</v>
+        <v>4.4444787060954387E-4</v>
       </c>
       <c r="M26">
-        <v>4.7260846794834008E-4</v>
+        <v>4.4510595798899477E-4</v>
       </c>
       <c r="N26">
-        <v>4.7526441798452414E-4</v>
+        <v>4.4626178063197816E-4</v>
       </c>
       <c r="O26">
-        <v>4.7788153153438258E-4</v>
+        <v>4.4757258182247277E-4</v>
       </c>
       <c r="P26">
-        <v>4.8072409114320114E-4</v>
+        <v>4.4919390205042781E-4</v>
       </c>
       <c r="Q26">
-        <v>4.8317943716800202E-4</v>
+        <v>4.5078104437884211E-4</v>
       </c>
       <c r="R26">
-        <v>4.8470967915637789E-4</v>
+        <v>4.5211629450069859E-4</v>
       </c>
       <c r="S26">
-        <v>4.8594611468298545E-4</v>
+        <v>4.5326957425061224E-4</v>
       </c>
       <c r="T26">
-        <v>4.8792763254902827E-4</v>
+        <v>4.5520696339484528E-4</v>
       </c>
       <c r="U26">
-        <v>4.8771717870415681E-4</v>
+        <v>4.5553578115777672E-4</v>
       </c>
       <c r="V26">
-        <v>4.8811136392356582E-4</v>
+        <v>4.5584944646724456E-4</v>
       </c>
       <c r="W26">
-        <v>4.8843918429084768E-4</v>
+        <v>4.559561094704881E-4</v>
       </c>
       <c r="X26">
-        <v>4.8810682276656785E-4</v>
+        <v>4.5572121425237108E-4</v>
       </c>
       <c r="Y26">
-        <v>4.8747689393500613E-4</v>
+        <v>4.550985416964502E-4</v>
       </c>
       <c r="Z26">
-        <v>4.8672999513277174E-4</v>
+        <v>4.5449905971852166E-4</v>
       </c>
       <c r="AA26">
-        <v>4.8843454079791745E-4</v>
+        <v>4.5443664862698183E-4</v>
       </c>
       <c r="AB26">
-        <v>4.8748772875184347E-4</v>
+        <v>4.5380063490385911E-4</v>
       </c>
       <c r="AC26">
-        <v>4.8711906355556337E-4</v>
+        <v>4.5343326114607497E-4</v>
       </c>
       <c r="AD26">
-        <v>4.8876138897384217E-4</v>
+        <v>4.5494560422822621E-4</v>
       </c>
       <c r="AE26">
-        <v>4.8839502633604009E-4</v>
+        <v>4.5447278785524218E-4</v>
       </c>
     </row>
     <row r="27" spans="1:37">
@@ -18131,94 +18131,94 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>3.8826950759574409E-4</v>
+        <v>4.0465652197743196E-4</v>
       </c>
       <c r="C27">
-        <v>3.989339915927411E-4</v>
+        <v>4.1576202640994142E-4</v>
       </c>
       <c r="D27">
-        <v>4.0175941665032688E-4</v>
+        <v>4.1870929984394776E-4</v>
       </c>
       <c r="E27">
-        <v>4.046076403132251E-4</v>
+        <v>4.2168190349906829E-4</v>
       </c>
       <c r="F27">
-        <v>4.1514273478187707E-4</v>
+        <v>4.3266443515270633E-4</v>
       </c>
       <c r="G27">
-        <v>4.1963901427461011E-4</v>
+        <v>4.3735322098718013E-4</v>
       </c>
       <c r="H27">
-        <v>4.2143164929997338E-4</v>
+        <v>4.3922149191073594E-4</v>
       </c>
       <c r="I27">
-        <v>4.2796953665692094E-4</v>
+        <v>4.4603511227335165E-4</v>
       </c>
       <c r="J27">
-        <v>4.2869137838688967E-4</v>
+        <v>4.4678679157952655E-4</v>
       </c>
       <c r="K27">
-        <v>4.2889294118354267E-4</v>
+        <v>4.4699302940114473E-4</v>
       </c>
       <c r="L27">
-        <v>4.2958514978309507E-4</v>
+        <v>4.4771409957447328E-4</v>
       </c>
       <c r="M27">
-        <v>4.3016225956684587E-4</v>
+        <v>4.4831497643516992E-4</v>
       </c>
       <c r="N27">
-        <v>4.314632453320266E-4</v>
+        <v>4.496705619988588E-4</v>
       </c>
       <c r="O27">
-        <v>4.3270248083989658E-4</v>
+        <v>4.5096086515454705E-4</v>
       </c>
       <c r="P27">
-        <v>4.3430279078009501E-4</v>
+        <v>4.5263001592613935E-4</v>
       </c>
       <c r="Q27">
-        <v>4.3530324098676928E-4</v>
+        <v>4.5367403060863823E-4</v>
       </c>
       <c r="R27">
-        <v>4.3666804491927715E-4</v>
+        <v>4.5509702541521833E-4</v>
       </c>
       <c r="S27">
-        <v>4.3784695384923824E-4</v>
+        <v>4.5632605270766956E-4</v>
       </c>
       <c r="T27">
-        <v>4.3919387063071915E-4</v>
+        <v>4.5773099888512522E-4</v>
       </c>
       <c r="U27">
-        <v>4.3965998782187011E-4</v>
+        <v>4.5821744528746784E-4</v>
       </c>
       <c r="V27">
-        <v>4.4023054662472997E-4</v>
+        <v>4.5881268049317148E-4</v>
       </c>
       <c r="W27">
-        <v>4.4040065556194612E-4</v>
+        <v>4.5899094233070158E-4</v>
       </c>
       <c r="X27">
-        <v>4.4071018775672388E-4</v>
+        <v>4.5931420503415025E-4</v>
       </c>
       <c r="Y27">
-        <v>4.4012557028617579E-4</v>
+        <v>4.5870544153793057E-4</v>
       </c>
       <c r="Z27">
-        <v>4.3984103857540357E-4</v>
+        <v>4.584089610106891E-4</v>
       </c>
       <c r="AA27">
-        <v>4.3927502996579274E-4</v>
+        <v>4.5781993462527175E-4</v>
       </c>
       <c r="AB27">
-        <v>4.3896293494925283E-4</v>
+        <v>4.5749536457941731E-4</v>
       </c>
       <c r="AC27">
-        <v>4.3836887632577525E-4</v>
+        <v>4.5687733265413878E-4</v>
       </c>
       <c r="AD27">
-        <v>4.3967475364455565E-4</v>
+        <v>4.5823891780242144E-4</v>
       </c>
       <c r="AE27">
-        <v>4.3902895392029714E-4</v>
+        <v>4.5756640849424067E-4</v>
       </c>
     </row>
     <row r="28" spans="1:37">
@@ -18226,94 +18226,94 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>6.2864085446168573E-4</v>
+        <v>6.5517280333083554E-4</v>
       </c>
       <c r="C28">
-        <v>5.8065173143116884E-4</v>
+        <v>6.0514507559113824E-4</v>
       </c>
       <c r="D28">
-        <v>5.7715727565658991E-4</v>
+        <v>6.0150704320725845E-4</v>
       </c>
       <c r="E28">
-        <v>5.8939802003144003E-4</v>
+        <v>6.1427035538190694E-4</v>
       </c>
       <c r="F28">
-        <v>6.1132283966645277E-4</v>
+        <v>6.3712460549070139E-4</v>
       </c>
       <c r="G28">
-        <v>6.2116495269514782E-4</v>
+        <v>6.4738616664415639E-4</v>
       </c>
       <c r="H28">
-        <v>6.2859863293007745E-4</v>
+        <v>6.5513359005477795E-4</v>
       </c>
       <c r="I28">
-        <v>6.4471041145104213E-4</v>
+        <v>6.7192511645025751E-4</v>
       </c>
       <c r="J28">
-        <v>6.4840312593372079E-4</v>
+        <v>6.7577275142821603E-4</v>
       </c>
       <c r="K28">
-        <v>6.5182617183108646E-4</v>
+        <v>6.7933446138261709E-4</v>
       </c>
       <c r="L28">
-        <v>6.5274851137244263E-4</v>
+        <v>6.8029519215282537E-4</v>
       </c>
       <c r="M28">
-        <v>6.5479808482626608E-4</v>
+        <v>6.8243036537951835E-4</v>
       </c>
       <c r="N28">
-        <v>6.5728685533569657E-4</v>
+        <v>6.8502370209035806E-4</v>
       </c>
       <c r="O28">
-        <v>6.599953694386326E-4</v>
+        <v>6.8784464147818671E-4</v>
       </c>
       <c r="P28">
-        <v>6.6271823685959863E-4</v>
+        <v>6.9068440837210285E-4</v>
       </c>
       <c r="Q28">
-        <v>6.6541147575940635E-4</v>
+        <v>6.9349335772620044E-4</v>
       </c>
       <c r="R28">
-        <v>6.6758238321629323E-4</v>
+        <v>6.9575678906731286E-4</v>
       </c>
       <c r="S28">
-        <v>6.695223998790733E-4</v>
+        <v>6.9777923827096409E-4</v>
       </c>
       <c r="T28">
-        <v>6.7209439570581602E-4</v>
+        <v>7.0046159489822399E-4</v>
       </c>
       <c r="U28">
-        <v>6.7286737744009942E-4</v>
+        <v>7.0126820554068138E-4</v>
       </c>
       <c r="V28">
-        <v>6.7344823507195376E-4</v>
+        <v>7.0187448889172854E-4</v>
       </c>
       <c r="W28">
-        <v>6.73909086850441E-4</v>
+        <v>7.0235628151829209E-4</v>
       </c>
       <c r="X28">
-        <v>6.740064696202369E-4</v>
+        <v>7.0245879124624332E-4</v>
       </c>
       <c r="Y28">
-        <v>6.7364356730673243E-4</v>
+        <v>7.0208138504586923E-4</v>
       </c>
       <c r="Z28">
-        <v>6.7322262507433497E-4</v>
+        <v>7.0164276868927991E-4</v>
       </c>
       <c r="AA28">
-        <v>6.7344500418278937E-4</v>
+        <v>7.0187587901977887E-4</v>
       </c>
       <c r="AB28">
-        <v>6.7281217685356582E-4</v>
+        <v>7.0121740957167211E-4</v>
       </c>
       <c r="AC28">
-        <v>6.7245517568083519E-4</v>
+        <v>7.0084703451029598E-4</v>
       </c>
       <c r="AD28">
-        <v>6.7397575425436052E-4</v>
+        <v>7.0243269074363234E-4</v>
       </c>
       <c r="AE28">
-        <v>6.7349435170381685E-4</v>
+        <v>7.0193181770471214E-4</v>
       </c>
     </row>
     <row r="29" spans="1:37">
@@ -18321,94 +18321,94 @@
         <v>84</v>
       </c>
       <c r="B29">
-        <v>3.4585801076062443E-4</v>
+        <v>3.6045503701553509E-4</v>
       </c>
       <c r="C29">
-        <v>3.4495574783075341E-4</v>
+        <v>3.5950684514816466E-4</v>
       </c>
       <c r="D29">
-        <v>3.6039991749266362E-4</v>
+        <v>3.7560487909735457E-4</v>
       </c>
       <c r="E29">
-        <v>3.6434083049787565E-4</v>
+        <v>3.7971585214712964E-4</v>
       </c>
       <c r="F29">
-        <v>3.7594665871961683E-4</v>
+        <v>3.9181403193273731E-4</v>
       </c>
       <c r="G29">
-        <v>3.8265282942463545E-4</v>
+        <v>3.9880573963794092E-4</v>
       </c>
       <c r="H29">
-        <v>3.8491153807264589E-4</v>
+        <v>4.0115976169978224E-4</v>
       </c>
       <c r="I29">
-        <v>3.948653271158722E-4</v>
+        <v>4.1153349812879397E-4</v>
       </c>
       <c r="J29">
-        <v>3.9594612256427204E-4</v>
+        <v>4.1265933176568687E-4</v>
       </c>
       <c r="K29">
-        <v>3.9619175896624695E-4</v>
+        <v>4.129117958327599E-4</v>
       </c>
       <c r="L29">
-        <v>3.9654376773871745E-4</v>
+        <v>4.1327833609856163E-4</v>
       </c>
       <c r="M29">
-        <v>3.9707573055230652E-4</v>
+        <v>4.1383220593268312E-4</v>
       </c>
       <c r="N29">
-        <v>3.9834863581642401E-4</v>
+        <v>4.1515854913946708E-4</v>
       </c>
       <c r="O29">
-        <v>3.9959695124185265E-4</v>
+        <v>4.1645840924083266E-4</v>
       </c>
       <c r="P29">
-        <v>4.0092020917552979E-4</v>
+        <v>4.1783871648228943E-4</v>
       </c>
       <c r="Q29">
-        <v>4.0164593001903277E-4</v>
+        <v>4.185963043514945E-4</v>
       </c>
       <c r="R29">
-        <v>4.025864972614837E-4</v>
+        <v>4.1957711242621983E-4</v>
       </c>
       <c r="S29">
-        <v>4.0337312378417004E-4</v>
+        <v>4.2039727289771742E-4</v>
       </c>
       <c r="T29">
-        <v>4.0442495213179318E-4</v>
+        <v>4.2149458289914189E-4</v>
       </c>
       <c r="U29">
-        <v>4.0454932437130627E-4</v>
+        <v>4.2162480789881447E-4</v>
       </c>
       <c r="V29">
-        <v>4.0464803339247029E-4</v>
+        <v>4.2172822917568159E-4</v>
       </c>
       <c r="W29">
-        <v>4.0439328301694171E-4</v>
+        <v>4.2146361886612633E-4</v>
       </c>
       <c r="X29">
-        <v>4.040545754555679E-4</v>
+        <v>4.2111122291148745E-4</v>
       </c>
       <c r="Y29">
-        <v>4.0293590438237893E-4</v>
+        <v>4.1994581639741166E-4</v>
       </c>
       <c r="Z29">
-        <v>4.0211529090881346E-4</v>
+        <v>4.190906180766014E-4</v>
       </c>
       <c r="AA29">
-        <v>4.0078697353040108E-4</v>
+        <v>4.1770702521979762E-4</v>
       </c>
       <c r="AB29">
-        <v>4.0014215791000135E-4</v>
+        <v>4.170356261122462E-4</v>
       </c>
       <c r="AC29">
-        <v>3.9916649340924858E-4</v>
+        <v>4.1601977841646405E-4</v>
       </c>
       <c r="AD29">
-        <v>3.9985648048380197E-4</v>
+        <v>4.1673941788640924E-4</v>
       </c>
       <c r="AE29">
-        <v>3.9882869849444967E-4</v>
+        <v>4.1566874700402494E-4</v>
       </c>
     </row>
     <row r="30" spans="1:37">
@@ -18416,94 +18416,94 @@
         <v>85</v>
       </c>
       <c r="B30">
-        <v>5.5949994465194052E-4</v>
+        <v>5.8311378364830837E-4</v>
       </c>
       <c r="C30">
-        <v>5.490709016341414E-4</v>
+        <v>5.7223208730528745E-4</v>
       </c>
       <c r="D30">
-        <v>5.4591562691943185E-4</v>
+        <v>5.6894733626181731E-4</v>
       </c>
       <c r="E30">
-        <v>5.4428202142592678E-4</v>
+        <v>5.6725048162098066E-4</v>
       </c>
       <c r="F30">
-        <v>5.4687829275625965E-4</v>
+        <v>5.6996008314341522E-4</v>
       </c>
       <c r="G30">
-        <v>5.4645085655929157E-4</v>
+        <v>5.6951816703823988E-4</v>
       </c>
       <c r="H30">
-        <v>5.4701855850944456E-4</v>
+        <v>5.7010978594149338E-4</v>
       </c>
       <c r="I30">
-        <v>5.5159545353608997E-4</v>
+        <v>5.7487956261865754E-4</v>
       </c>
       <c r="J30">
-        <v>5.5116986450326347E-4</v>
+        <v>5.7443519462267441E-4</v>
       </c>
       <c r="K30">
-        <v>5.5082515994957833E-4</v>
+        <v>5.7407101696939681E-4</v>
       </c>
       <c r="L30">
-        <v>5.5045116908780244E-4</v>
+        <v>5.7368079332420063E-4</v>
       </c>
       <c r="M30">
-        <v>5.5016894781847396E-4</v>
+        <v>5.7338591052819412E-4</v>
       </c>
       <c r="N30">
-        <v>5.5030632856499669E-4</v>
+        <v>5.7352870427450646E-4</v>
       </c>
       <c r="O30">
-        <v>5.5080345075069956E-4</v>
+        <v>5.7404524281558721E-4</v>
       </c>
       <c r="P30">
-        <v>5.5167571643641449E-4</v>
+        <v>5.7495598374617473E-4</v>
       </c>
       <c r="Q30">
-        <v>5.5236107717376317E-4</v>
+        <v>5.7567197447162301E-4</v>
       </c>
       <c r="R30">
-        <v>5.5273978734272802E-4</v>
+        <v>5.7606741774479436E-4</v>
       </c>
       <c r="S30">
-        <v>5.5274410279881891E-4</v>
+        <v>5.7607237499356242E-4</v>
       </c>
       <c r="T30">
-        <v>5.5289670193281145E-4</v>
+        <v>5.762329043721763E-4</v>
       </c>
       <c r="U30">
-        <v>5.5265714178147211E-4</v>
+        <v>5.7598405732017636E-4</v>
       </c>
       <c r="V30">
-        <v>5.5244896195009953E-4</v>
+        <v>5.7576783576552626E-4</v>
       </c>
       <c r="W30">
-        <v>5.5221137170350255E-4</v>
+        <v>5.7552143636232329E-4</v>
       </c>
       <c r="X30">
-        <v>5.5188530920952062E-4</v>
+        <v>5.7518244213933473E-4</v>
       </c>
       <c r="Y30">
-        <v>5.5130828970691593E-4</v>
+        <v>5.7458173195686134E-4</v>
       </c>
       <c r="Z30">
-        <v>5.5089526377585969E-4</v>
+        <v>5.7415134865799545E-4</v>
       </c>
       <c r="AA30">
-        <v>5.5094868459087108E-4</v>
+        <v>5.7420812373722705E-4</v>
       </c>
       <c r="AB30">
-        <v>5.5070873103541993E-4</v>
+        <v>5.7395891913116653E-4</v>
       </c>
       <c r="AC30">
-        <v>5.5038144396247959E-4</v>
+        <v>5.7361920437307709E-4</v>
       </c>
       <c r="AD30">
-        <v>5.5068737415113456E-4</v>
+        <v>5.7393876788858417E-4</v>
       </c>
       <c r="AE30">
-        <v>5.5020714130888889E-4</v>
+        <v>5.7343895733650446E-4</v>
       </c>
     </row>
   </sheetData>
@@ -18519,7 +18519,7 @@
       <selection sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -18896,9 +18896,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" customWidth="1"/>
+    <col min="1" max="1" width="50.40625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -19005,11 +19005,11 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="42.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" customWidth="1"/>
+    <col min="1" max="1" width="42.1328125" customWidth="1"/>
+    <col min="2" max="2" width="26.40625" customWidth="1"/>
+    <col min="3" max="3" width="42.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -19153,7 +19153,7 @@
       </c>
       <c r="B16">
         <f>TREND(C16:D16,C13:D13,B13)</f>
-        <v>3.1424986163219263E-4</v>
+        <v>3.142498616321935E-4</v>
       </c>
       <c r="C16">
         <f>C15*$B$2/$B$9</f>
@@ -19161,7 +19161,7 @@
       </c>
       <c r="D16" s="4">
         <f>BNVFE!D8</f>
-        <v>3.5391080625855263E-4</v>
+        <v>3.8560342544165043E-4</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -19179,7 +19179,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30">
+    <row r="20" spans="1:4" ht="29.5">
       <c r="A20" s="13" t="s">
         <v>68</v>
       </c>
@@ -19197,7 +19197,7 @@
         <v>6.7042622950819668</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30">
+    <row r="22" spans="1:4" ht="29.5">
       <c r="A22" s="13" t="s">
         <v>70</v>
       </c>
@@ -19289,11 +19289,11 @@
       <selection pane="topRight" activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="40" max="40" width="8.7109375" style="24"/>
+    <col min="15" max="15" width="11.40625" customWidth="1"/>
+    <col min="40" max="40" width="8.7265625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -19539,175 +19539,175 @@
       </c>
       <c r="AB2" s="4">
         <f>($AO$2-$AA$2)/COUNT($AB$1:$AO$1)+AA2</f>
-        <v>3.170827862483609E-4</v>
+        <v>3.1934654476143933E-4</v>
       </c>
       <c r="AC2" s="4">
         <f t="shared" ref="AC2:AN2" si="0">($AO$2-$AA$2)/COUNT($AB$1:$AO$1)+AB2</f>
-        <v>3.199157108645295E-4</v>
+        <v>3.2444322789068635E-4</v>
       </c>
       <c r="AD2" s="4">
         <f t="shared" si="0"/>
-        <v>3.227486354806981E-4</v>
+        <v>3.2953991101993338E-4</v>
       </c>
       <c r="AE2" s="4">
         <f t="shared" si="0"/>
-        <v>3.255815600968667E-4</v>
+        <v>3.346365941491804E-4</v>
       </c>
       <c r="AF2" s="4">
         <f t="shared" si="0"/>
-        <v>3.284144847130353E-4</v>
+        <v>3.3973327727842743E-4</v>
       </c>
       <c r="AG2" s="4">
         <f t="shared" si="0"/>
-        <v>3.312474093292039E-4</v>
+        <v>3.4482996040767445E-4</v>
       </c>
       <c r="AH2" s="4">
         <f t="shared" si="0"/>
-        <v>3.3408033394537249E-4</v>
+        <v>3.4992664353692148E-4</v>
       </c>
       <c r="AI2" s="4">
         <f t="shared" si="0"/>
-        <v>3.3691325856154109E-4</v>
+        <v>3.550233266661685E-4</v>
       </c>
       <c r="AJ2" s="4">
         <f t="shared" si="0"/>
-        <v>3.3974618317770969E-4</v>
+        <v>3.6012000979541552E-4</v>
       </c>
       <c r="AK2" s="4">
         <f t="shared" si="0"/>
-        <v>3.4257910779387829E-4</v>
+        <v>3.6521669292466255E-4</v>
       </c>
       <c r="AL2" s="4">
         <f t="shared" si="0"/>
-        <v>3.4541203241004689E-4</v>
+        <v>3.7031337605390957E-4</v>
       </c>
       <c r="AM2" s="4">
         <f t="shared" si="0"/>
-        <v>3.4824495702621549E-4</v>
+        <v>3.754100591831566E-4</v>
       </c>
       <c r="AN2" s="26">
         <f t="shared" si="0"/>
-        <v>3.5107788164238408E-4</v>
+        <v>3.8050674231240362E-4</v>
       </c>
       <c r="AO2" s="10">
         <f>BNVFE!D8</f>
-        <v>3.5391080625855263E-4</v>
+        <v>3.8560342544165043E-4</v>
       </c>
       <c r="AP2" s="10">
         <f>BNVFE!E8</f>
-        <v>3.6152338546126896E-4</v>
+        <v>3.938977091004229E-4</v>
       </c>
       <c r="AQ2" s="10">
         <f>BNVFE!F8</f>
-        <v>3.6806778318324615E-4</v>
+        <v>4.0102815590911211E-4</v>
       </c>
       <c r="AR2" s="10">
         <f>BNVFE!G8</f>
-        <v>3.7326311577328699E-4</v>
+        <v>4.0668872915977704E-4</v>
       </c>
       <c r="AS2" s="10">
         <f>BNVFE!H8</f>
-        <v>3.8684273091170592E-4</v>
+        <v>4.2148439524556525E-4</v>
       </c>
       <c r="AT2" s="10">
         <f>BNVFE!I8</f>
-        <v>3.9133628030331842E-4</v>
+        <v>4.2638034079782157E-4</v>
       </c>
       <c r="AU2" s="10">
         <f>BNVFE!J8</f>
-        <v>3.9460271712590122E-4</v>
+        <v>4.2993928617474374E-4</v>
       </c>
       <c r="AV2" s="10">
         <f>BNVFE!K8</f>
-        <v>4.0654622240144441E-4</v>
+        <v>4.4295232919176118E-4</v>
       </c>
       <c r="AW2" s="10">
         <f>BNVFE!L8</f>
-        <v>4.0753465089361259E-4</v>
+        <v>4.4402927119422075E-4</v>
       </c>
       <c r="AX2" s="10">
         <f>BNVFE!M8</f>
-        <v>4.0771889354095417E-4</v>
+        <v>4.4423001272194757E-4</v>
       </c>
       <c r="AY2" s="10">
         <f>BNVFE!N8</f>
-        <v>4.0791884576015625E-4</v>
+        <v>4.4444787060954387E-4</v>
       </c>
       <c r="AZ2" s="10">
         <f>BNVFE!O8</f>
-        <v>4.0852284515353123E-4</v>
+        <v>4.4510595798899477E-4</v>
       </c>
       <c r="BA2" s="10">
         <f>BNVFE!P8</f>
-        <v>4.09583671112226E-4</v>
+        <v>4.4626178063197816E-4</v>
       </c>
       <c r="BB2" s="10">
         <f>BNVFE!Q8</f>
-        <v>4.1078673798239525E-4</v>
+        <v>4.4757258182247277E-4</v>
       </c>
       <c r="BC2" s="10">
         <f>BNVFE!R8</f>
-        <v>4.122748024320864E-4</v>
+        <v>4.4919390205042781E-4</v>
       </c>
       <c r="BD2" s="10">
         <f>BNVFE!S8</f>
-        <v>4.1373149805260076E-4</v>
+        <v>4.5078104437884211E-4</v>
       </c>
       <c r="BE2" s="10">
         <f>BNVFE!T8</f>
-        <v>4.1495700440447459E-4</v>
+        <v>4.5211629450069859E-4</v>
       </c>
       <c r="BF2" s="10">
         <f>BNVFE!U8</f>
-        <v>4.1601549646964788E-4</v>
+        <v>4.5326957425061224E-4</v>
       </c>
       <c r="BG2" s="10">
         <f>BNVFE!V8</f>
-        <v>4.1779365223495714E-4</v>
+        <v>4.5520696339484528E-4</v>
       </c>
       <c r="BH2" s="10">
         <f>BNVFE!W8</f>
-        <v>4.1809544457369974E-4</v>
+        <v>4.5553578115777672E-4</v>
       </c>
       <c r="BI2" s="10">
         <f>BNVFE!X8</f>
-        <v>4.1838332983416382E-4</v>
+        <v>4.5584944646724456E-4</v>
       </c>
       <c r="BJ2" s="10">
         <f>BNVFE!Y8</f>
-        <v>4.1848122624012197E-4</v>
+        <v>4.559561094704881E-4</v>
       </c>
       <c r="BK2" s="10">
         <f>BNVFE!Z8</f>
-        <v>4.1826563698301188E-4</v>
+        <v>4.5572121425237108E-4</v>
       </c>
       <c r="BL2" s="10">
         <f>BNVFE!AA8</f>
-        <v>4.1769414168042572E-4</v>
+        <v>4.550985416964502E-4</v>
       </c>
       <c r="BM2" s="10">
         <f>BNVFE!AB8</f>
-        <v>4.1714393092982577E-4</v>
+        <v>4.5449905971852166E-4</v>
       </c>
       <c r="BN2" s="10">
         <f>BNVFE!AC8</f>
-        <v>4.1708664938544884E-4</v>
+        <v>4.5443664862698183E-4</v>
       </c>
       <c r="BO2" s="10">
         <f>BNVFE!AD8</f>
-        <v>4.165029094218215E-4</v>
+        <v>4.5380063490385911E-4</v>
       </c>
       <c r="BP2" s="10">
         <f>BNVFE!AE8</f>
-        <v>4.1616572999280917E-4</v>
+        <v>4.5343326114607497E-4</v>
       </c>
       <c r="BQ2" s="10">
         <f>BNVFE!AF8</f>
-        <v>4.1755377409260071E-4</v>
+        <v>4.5494560422822621E-4</v>
       </c>
       <c r="BR2" s="10">
         <f>BNVFE!AG8</f>
-        <v>4.1711981834238049E-4</v>
+        <v>4.5447278785524218E-4</v>
       </c>
       <c r="BS2" s="10"/>
       <c r="BT2" s="4"/>
@@ -19745,179 +19745,179 @@
       <c r="Z3" s="9"/>
       <c r="AA3" s="4" cm="1">
         <f t="array" ref="AA3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AA1)</f>
-        <v>7.5108389563240119E-5</v>
+        <v>5.0412726378568952E-5</v>
       </c>
       <c r="AB3" s="4" cm="1">
         <f t="array" ref="AB3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AB1)</f>
-        <v>7.7552820431472588E-5</v>
+        <v>5.4271492176534604E-5</v>
       </c>
       <c r="AC3" s="4" cm="1">
         <f t="array" ref="AC3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AC1)</f>
-        <v>7.9997251299705058E-5</v>
+        <v>5.8130257974500256E-5</v>
       </c>
       <c r="AD3" s="4" cm="1">
         <f t="array" ref="AD3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AD1)</f>
-        <v>8.2441682167937527E-5</v>
+        <v>6.1989023772465041E-5</v>
       </c>
       <c r="AE3" s="4" cm="1">
         <f t="array" ref="AE3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AE1)</f>
-        <v>8.4886113036169997E-5</v>
+        <v>6.5847789570430693E-5</v>
       </c>
       <c r="AF3" s="4" cm="1">
         <f t="array" ref="AF3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AF1)</f>
-        <v>8.7330543904402466E-5</v>
+        <v>6.9706555368396345E-5</v>
       </c>
       <c r="AG3" s="4" cm="1">
         <f t="array" ref="AG3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AG1)</f>
-        <v>8.9774974772634936E-5</v>
+        <v>7.3565321166361129E-5</v>
       </c>
       <c r="AH3" s="4" cm="1">
         <f t="array" ref="AH3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AH1)</f>
-        <v>9.2219405640867405E-5</v>
+        <v>7.7424086964326781E-5</v>
       </c>
       <c r="AI3" s="4" cm="1">
         <f t="array" ref="AI3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AI1)</f>
-        <v>9.4663836509099875E-5</v>
+        <v>8.1282852762291566E-5</v>
       </c>
       <c r="AJ3" s="4" cm="1">
         <f t="array" ref="AJ3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AJ1)</f>
-        <v>9.7108267377332344E-5</v>
+        <v>8.5141618560257218E-5</v>
       </c>
       <c r="AK3" s="4" cm="1">
         <f t="array" ref="AK3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AK1)</f>
-        <v>9.9552698245564814E-5</v>
+        <v>8.900038435822287E-5</v>
       </c>
       <c r="AL3" s="4" cm="1">
         <f t="array" ref="AL3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AL1)</f>
-        <v>1.0199712911379728E-4</v>
+        <v>9.2859150156187655E-5</v>
       </c>
       <c r="AM3" s="4" cm="1">
         <f t="array" ref="AM3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AM1)</f>
-        <v>1.0444155998202975E-4</v>
+        <v>9.6717915954153307E-5</v>
       </c>
       <c r="AN3" s="26" cm="1">
         <f t="array" ref="AN3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AN1)</f>
-        <v>1.0688599085026222E-4</v>
+        <v>1.0057668175211809E-4</v>
       </c>
       <c r="AO3" s="10">
         <f>BNVFE!D9</f>
-        <v>1.0748894488887501E-4</v>
+        <v>1.0420515928406728E-4</v>
       </c>
       <c r="AP3" s="10">
         <f>BNVFE!E9</f>
-        <v>1.1376628742778099E-4</v>
+        <v>1.0877081887028839E-4</v>
       </c>
       <c r="AQ3" s="10">
         <f>BNVFE!F9</f>
-        <v>1.1487084665170681E-4</v>
+        <v>1.119228749342E-4</v>
       </c>
       <c r="AR3" s="10">
         <f>BNVFE!G9</f>
-        <v>1.1675219072501874E-4</v>
+        <v>1.1596328986495364E-4</v>
       </c>
       <c r="AS3" s="10">
         <f>BNVFE!H9</f>
-        <v>1.1821814758141852E-4</v>
+        <v>1.1990275277656129E-4</v>
       </c>
       <c r="AT3" s="10">
         <f>BNVFE!I9</f>
-        <v>1.1769306557695523E-4</v>
+        <v>1.2199635295884858E-4</v>
       </c>
       <c r="AU3" s="10">
         <f>BNVFE!J9</f>
-        <v>1.1740735707916262E-4</v>
+        <v>1.243467097653028E-4</v>
       </c>
       <c r="AV3" s="10">
         <f>BNVFE!K9</f>
-        <v>1.1551151797500483E-4</v>
+        <v>1.2468075205096364E-4</v>
       </c>
       <c r="AW3" s="10">
         <f>BNVFE!L9</f>
-        <v>1.1449785838376007E-4</v>
+        <v>1.2577381385553893E-4</v>
       </c>
       <c r="AX3" s="10">
         <f>BNVFE!M9</f>
-        <v>1.13287341804607E-4</v>
+        <v>1.2646319222836433E-4</v>
       </c>
       <c r="AY3" s="10">
         <f>BNVFE!N9</f>
-        <v>1.1212406398402511E-4</v>
+        <v>1.2698406877407795E-4</v>
       </c>
       <c r="AZ3" s="10">
         <f>BNVFE!O9</f>
-        <v>1.1076186329973974E-4</v>
+        <v>1.2710494044541212E-4</v>
       </c>
       <c r="BA3" s="10">
         <f>BNVFE!P9</f>
-        <v>1.0947685788155618E-4</v>
+        <v>1.2713124547346271E-4</v>
       </c>
       <c r="BB3" s="10">
         <f>BNVFE!Q9</f>
-        <v>1.0833659526703707E-4</v>
+        <v>1.2714496314152464E-4</v>
       </c>
       <c r="BC3" s="10">
         <f>BNVFE!R9</f>
-        <v>1.0725258337875167E-4</v>
+        <v>1.2712313200368365E-4</v>
       </c>
       <c r="BD3" s="10">
         <f>BNVFE!S9</f>
-        <v>1.0627237374881068E-4</v>
+        <v>1.271005238267318E-4</v>
       </c>
       <c r="BE3" s="10">
         <f>BNVFE!T9</f>
-        <v>1.053872190542009E-4</v>
+        <v>1.2708001023750603E-4</v>
       </c>
       <c r="BF3" s="10">
         <f>BNVFE!U9</f>
-        <v>1.0457070988285631E-4</v>
+        <v>1.2705407014004141E-4</v>
       </c>
       <c r="BG3" s="10">
         <f>BNVFE!V9</f>
-        <v>1.0382785746559407E-4</v>
+        <v>1.2702629811717708E-4</v>
       </c>
       <c r="BH3" s="10">
         <f>BNVFE!W9</f>
-        <v>1.0317553743970813E-4</v>
+        <v>1.2701194080551808E-4</v>
       </c>
       <c r="BI3" s="10">
         <f>BNVFE!X9</f>
-        <v>1.0260660677729319E-4</v>
+        <v>1.2701796387221964E-4</v>
       </c>
       <c r="BJ3" s="10">
         <f>BNVFE!Y9</f>
-        <v>1.0212195692865432E-4</v>
+        <v>1.2701802056749482E-4</v>
       </c>
       <c r="BK3" s="10">
         <f>BNVFE!Z9</f>
-        <v>1.0164270384030296E-4</v>
+        <v>1.270327910946451E-4</v>
       </c>
       <c r="BL3" s="10">
         <f>BNVFE!AA9</f>
-        <v>1.0120623842325044E-4</v>
+        <v>1.2702817221538397E-4</v>
       </c>
       <c r="BM3" s="10">
         <f>BNVFE!AB9</f>
-        <v>1.0086620530512349E-4</v>
+        <v>1.2698131801807758E-4</v>
       </c>
       <c r="BN3" s="10">
         <f>BNVFE!AC9</f>
-        <v>1.0054219744424832E-4</v>
+        <v>1.2695571200958938E-4</v>
       </c>
       <c r="BO3" s="10">
         <f>BNVFE!AD9</f>
-        <v>9.9850684341711718E-5</v>
+        <v>1.2640538596243631E-4</v>
       </c>
       <c r="BP3" s="10">
         <f>BNVFE!AE9</f>
-        <v>9.9621972535475967E-5</v>
+        <v>1.2643551327178303E-4</v>
       </c>
       <c r="BQ3" s="10">
         <f>BNVFE!AF9</f>
-        <v>9.9483752435656976E-5</v>
+        <v>1.2650241733350927E-4</v>
       </c>
       <c r="BR3" s="10">
         <f>BNVFE!AG9</f>
-        <v>9.9383928406132565E-5</v>
+        <v>1.2663654108394285E-4</v>
       </c>
       <c r="BS3" s="10"/>
       <c r="BT3" s="4"/>
@@ -19940,119 +19940,119 @@
       <c r="K4" s="9"/>
       <c r="L4" s="4">
         <f>L5/M5*M4</f>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" ref="M4:AI4" si="1">M5/N5*N4</f>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="O4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="R4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="T4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="U4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="V4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="W4" s="4">
         <f t="shared" si="1"/>
-        <v>1.177387347221569E-3</v>
+        <v>1.1604234453908705E-3</v>
       </c>
       <c r="X4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1740372877780075E-3</v>
+        <v>1.1579662228857668E-3</v>
       </c>
       <c r="Y4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1706872283344459E-3</v>
+        <v>1.1555090003806633E-3</v>
       </c>
       <c r="Z4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1673371688908844E-3</v>
+        <v>1.1530517778755595E-3</v>
       </c>
       <c r="AA4" s="4">
         <f t="shared" si="1"/>
-        <v>1.163987109447323E-3</v>
+        <v>1.1505945553704558E-3</v>
       </c>
       <c r="AB4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1606370500037615E-3</v>
+        <v>1.1481373328653521E-3</v>
       </c>
       <c r="AC4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1572869905602E-3</v>
+        <v>1.1456801103602485E-3</v>
       </c>
       <c r="AD4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1539369311166386E-3</v>
+        <v>1.1432228878551448E-3</v>
       </c>
       <c r="AE4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1505868716730771E-3</v>
+        <v>1.1407656653500411E-3</v>
       </c>
       <c r="AF4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1472368122295155E-3</v>
+        <v>1.1383084428449376E-3</v>
       </c>
       <c r="AG4" s="4">
         <f>AG5/AH5*AH4</f>
-        <v>1.143886752785954E-3</v>
+        <v>1.1358512203398338E-3</v>
       </c>
       <c r="AH4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1405366933423926E-3</v>
+        <v>1.1333939978347303E-3</v>
       </c>
       <c r="AI4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1371866338988309E-3</v>
+        <v>1.1309367753296266E-3</v>
       </c>
       <c r="AJ4" s="4">
         <f>AJ5/AK5*AK4</f>
-        <v>1.1338365744552694E-3</v>
+        <v>1.1284795528245229E-3</v>
       </c>
       <c r="AK4" s="19">
         <f>AK5/AL5*AL4</f>
-        <v>1.130486515011708E-3</v>
+        <v>1.1260223303194191E-3</v>
       </c>
       <c r="AL4" s="19">
         <f>AL5/AM5*AM4</f>
-        <v>1.1271364555681463E-3</v>
+        <v>1.1235651078143154E-3</v>
       </c>
       <c r="AM4" s="19">
         <f>AM5/AN5*AN4</f>
-        <v>1.1237863961245848E-3</v>
+        <v>1.1211078853092119E-3</v>
       </c>
       <c r="AN4" s="27">
         <f>AN5/AO5*AO4</f>
-        <v>1.1204363366810234E-3</v>
+        <v>1.1186506628041082E-3</v>
       </c>
       <c r="AO4" s="10">
         <f>BNVFE!D10</f>
@@ -20076,7 +20076,7 @@
       </c>
       <c r="AT4" s="10">
         <f>BNVFE!I10</f>
-        <v>1.3325458991476347E-3</v>
+        <v>1.3325458991476349E-3</v>
       </c>
       <c r="AU4" s="10">
         <f>BNVFE!J10</f>
@@ -20084,7 +20084,7 @@
       </c>
       <c r="AV4" s="10">
         <f>BNVFE!K10</f>
-        <v>1.3753174198569201E-3</v>
+        <v>1.3753174198569197E-3</v>
       </c>
       <c r="AW4" s="10">
         <f>BNVFE!L10</f>
@@ -20092,11 +20092,11 @@
       </c>
       <c r="AX4" s="10">
         <f>BNVFE!M10</f>
-        <v>1.4146533498165595E-3</v>
+        <v>1.4146533498165597E-3</v>
       </c>
       <c r="AY4" s="10">
         <f>BNVFE!N10</f>
-        <v>1.4334182752321722E-3</v>
+        <v>1.433418275232172E-3</v>
       </c>
       <c r="AZ4" s="10">
         <f>BNVFE!O10</f>
@@ -20104,15 +20104,15 @@
       </c>
       <c r="BA4" s="10">
         <f>BNVFE!P10</f>
-        <v>1.4455847020325701E-3</v>
+        <v>1.4455847020325705E-3</v>
       </c>
       <c r="BB4" s="10">
         <f>BNVFE!Q10</f>
-        <v>1.4457021763821076E-3</v>
+        <v>1.4457021763821074E-3</v>
       </c>
       <c r="BC4" s="10">
         <f>BNVFE!R10</f>
-        <v>1.4456854451868699E-3</v>
+        <v>1.4456854451868704E-3</v>
       </c>
       <c r="BD4" s="10">
         <f>BNVFE!S10</f>
@@ -20128,11 +20128,11 @@
       </c>
       <c r="BG4" s="10">
         <f>BNVFE!V10</f>
-        <v>1.4452171497116701E-3</v>
+        <v>1.4452171497116699E-3</v>
       </c>
       <c r="BH4" s="10">
         <f>BNVFE!W10</f>
-        <v>1.4450916657473916E-3</v>
+        <v>1.4450916657473914E-3</v>
       </c>
       <c r="BI4" s="10">
         <f>BNVFE!X10</f>
@@ -20140,15 +20140,15 @@
       </c>
       <c r="BJ4" s="10">
         <f>BNVFE!Y10</f>
-        <v>1.443856049179987E-3</v>
+        <v>1.4438560491799872E-3</v>
       </c>
       <c r="BK4" s="10">
         <f>BNVFE!Z10</f>
-        <v>1.4432142120520614E-3</v>
+        <v>1.4432142120520612E-3</v>
       </c>
       <c r="BL4" s="10">
         <f>BNVFE!AA10</f>
-        <v>1.443266541535037E-3</v>
+        <v>1.4432665415350372E-3</v>
       </c>
       <c r="BM4" s="10">
         <f>BNVFE!AB10</f>
@@ -20239,195 +20239,195 @@
       </c>
       <c r="W5" s="4">
         <f>($AO$5-$V$5)/COUNT($V$1:$AO$1)+V5</f>
-        <v>7.7819056047563108E-4</v>
+        <v>7.7875573937035282E-4</v>
       </c>
       <c r="X5" s="4">
         <f t="shared" ref="X5:AN5" si="3">($AO$5-$V$5)/COUNT($V$1:$AO$1)+W5</f>
-        <v>7.7597634894858872E-4</v>
+        <v>7.771067067380322E-4</v>
       </c>
       <c r="Y5" s="4">
         <f t="shared" si="3"/>
-        <v>7.7376213742154636E-4</v>
+        <v>7.7545767410571158E-4</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="3"/>
-        <v>7.71547925894504E-4</v>
+        <v>7.7380864147339097E-4</v>
       </c>
       <c r="AA5" s="4">
         <f t="shared" si="3"/>
-        <v>7.6933371436746164E-4</v>
+        <v>7.7215960884107035E-4</v>
       </c>
       <c r="AB5" s="4">
         <f t="shared" si="3"/>
-        <v>7.6711950284041929E-4</v>
+        <v>7.7051057620874973E-4</v>
       </c>
       <c r="AC5" s="4">
         <f t="shared" si="3"/>
-        <v>7.6490529131337693E-4</v>
+        <v>7.6886154357642912E-4</v>
       </c>
       <c r="AD5" s="4">
         <f t="shared" si="3"/>
-        <v>7.6269107978633457E-4</v>
+        <v>7.672125109441085E-4</v>
       </c>
       <c r="AE5" s="4">
         <f t="shared" si="3"/>
-        <v>7.6047686825929221E-4</v>
+        <v>7.6556347831178788E-4</v>
       </c>
       <c r="AF5" s="4">
         <f t="shared" si="3"/>
-        <v>7.5826265673224985E-4</v>
+        <v>7.6391444567946727E-4</v>
       </c>
       <c r="AG5" s="4">
         <f t="shared" si="3"/>
-        <v>7.5604844520520749E-4</v>
+        <v>7.6226541304714665E-4</v>
       </c>
       <c r="AH5" s="4">
         <f t="shared" si="3"/>
-        <v>7.5383423367816514E-4</v>
+        <v>7.6061638041482603E-4</v>
       </c>
       <c r="AI5" s="4">
         <f t="shared" si="3"/>
-        <v>7.5162002215112278E-4</v>
+        <v>7.5896734778250542E-4</v>
       </c>
       <c r="AJ5" s="4">
         <f t="shared" si="3"/>
-        <v>7.4940581062408042E-4</v>
+        <v>7.573183151501848E-4</v>
       </c>
       <c r="AK5" s="4">
         <f t="shared" si="3"/>
-        <v>7.4719159909703806E-4</v>
+        <v>7.5566928251786418E-4</v>
       </c>
       <c r="AL5" s="4">
         <f t="shared" si="3"/>
-        <v>7.449773875699957E-4</v>
+        <v>7.5402024988554357E-4</v>
       </c>
       <c r="AM5" s="4">
         <f t="shared" si="3"/>
-        <v>7.4276317604295334E-4</v>
+        <v>7.5237121725322295E-4</v>
       </c>
       <c r="AN5" s="26">
         <f t="shared" si="3"/>
-        <v>7.4054896451591099E-4</v>
+        <v>7.5072218462090233E-4</v>
       </c>
       <c r="AO5" s="10">
         <f>BNVFE!D11</f>
-        <v>7.3612054146182692E-4</v>
+        <v>7.4742411935626142E-4</v>
       </c>
       <c r="AP5" s="10">
         <f>BNVFE!E11</f>
-        <v>7.8447318350072194E-4</v>
+        <v>7.9651924557390657E-4</v>
       </c>
       <c r="AQ5" s="10">
         <f>BNVFE!F11</f>
-        <v>8.0913266389472246E-4</v>
+        <v>8.2155738726285784E-4</v>
       </c>
       <c r="AR5" s="10">
         <f>BNVFE!G11</f>
-        <v>8.3445529729440947E-4</v>
+        <v>8.4726886507457174E-4</v>
       </c>
       <c r="AS5" s="10">
         <f>BNVFE!H11</f>
-        <v>8.582213975349269E-4</v>
+        <v>8.7139990821531331E-4</v>
       </c>
       <c r="AT5" s="10">
         <f>BNVFE!I11</f>
-        <v>8.8074213007663328E-4</v>
+        <v>8.9426646028002797E-4</v>
       </c>
       <c r="AU5" s="10">
         <f>BNVFE!J11</f>
-        <v>9.0057319308330108E-4</v>
+        <v>9.1440204130079723E-4</v>
       </c>
       <c r="AV5" s="10">
         <f>BNVFE!K11</f>
-        <v>9.0901183566816969E-4</v>
+        <v>9.2297026436659075E-4</v>
       </c>
       <c r="AW5" s="10">
         <f>BNVFE!L11</f>
-        <v>9.2181220627128113E-4</v>
+        <v>9.3596719243283541E-4</v>
       </c>
       <c r="AX5" s="10">
         <f>BNVFE!M11</f>
-        <v>9.3501079807791388E-4</v>
+        <v>9.4936845663098554E-4</v>
       </c>
       <c r="AY5" s="10">
         <f>BNVFE!N11</f>
-        <v>9.4741341804908898E-4</v>
+        <v>9.6196152636282171E-4</v>
       </c>
       <c r="AZ5" s="10">
         <f>BNVFE!O11</f>
-        <v>9.5479798028431191E-4</v>
+        <v>9.6945948303515201E-4</v>
       </c>
       <c r="BA5" s="10">
         <f>BNVFE!P11</f>
-        <v>9.5545478057360543E-4</v>
+        <v>9.7012636889170394E-4</v>
       </c>
       <c r="BB5" s="10">
         <f>BNVFE!Q11</f>
-        <v>9.5553242488507497E-4</v>
+        <v>9.7020520547872228E-4</v>
       </c>
       <c r="BC5" s="10">
         <f>BNVFE!R11</f>
-        <v>9.5552136645283517E-4</v>
+        <v>9.7019397723754094E-4</v>
       </c>
       <c r="BD5" s="10">
         <f>BNVFE!S11</f>
-        <v>9.5553324838534815E-4</v>
+        <v>9.7020604162434225E-4</v>
       </c>
       <c r="BE5" s="10">
         <f>BNVFE!T11</f>
-        <v>9.5550160244627959E-4</v>
+        <v>9.7017390974266364E-4</v>
       </c>
       <c r="BF5" s="10">
         <f>BNVFE!U11</f>
-        <v>9.5544042814027313E-4</v>
+        <v>9.7011179606804271E-4</v>
       </c>
       <c r="BG5" s="10">
         <f>BNVFE!V11</f>
-        <v>9.5521184799302321E-4</v>
+        <v>9.6987970593383536E-4</v>
       </c>
       <c r="BH5" s="10">
         <f>BNVFE!W11</f>
-        <v>9.5512890975122625E-4</v>
+        <v>9.6979549412497463E-4</v>
       </c>
       <c r="BI5" s="10">
         <f>BNVFE!X11</f>
-        <v>9.5497115062746795E-4</v>
+        <v>9.6963531251407814E-4</v>
       </c>
       <c r="BJ5" s="10">
         <f>BNVFE!Y11</f>
-        <v>9.5431223276604333E-4</v>
+        <v>9.6896627656878928E-4</v>
       </c>
       <c r="BK5" s="10">
         <f>BNVFE!Z11</f>
-        <v>9.5388801248246955E-4</v>
+        <v>9.6853554212517003E-4</v>
       </c>
       <c r="BL5" s="10">
         <f>BNVFE!AA11</f>
-        <v>9.5392259949394229E-4</v>
+        <v>9.6857066024120565E-4</v>
       </c>
       <c r="BM5" s="10">
         <f>BNVFE!AB11</f>
-        <v>9.5402741931442593E-4</v>
+        <v>9.6867708963368051E-4</v>
       </c>
       <c r="BN5" s="10">
         <f>BNVFE!AC11</f>
-        <v>9.5426270510675759E-4</v>
+        <v>9.6891598838222154E-4</v>
       </c>
       <c r="BO5" s="10">
         <f>BNVFE!AD11</f>
-        <v>9.5454316577121671E-4</v>
+        <v>9.6920075569048212E-4</v>
       </c>
       <c r="BP5" s="10">
         <f>BNVFE!AE11</f>
-        <v>9.5490315303348411E-4</v>
+        <v>9.6956627077574963E-4</v>
       </c>
       <c r="BQ5" s="10">
         <f>BNVFE!AF11</f>
-        <v>9.5518761355641295E-4</v>
+        <v>9.6985509936273564E-4</v>
       </c>
       <c r="BR5" s="10">
         <f>BNVFE!AG11</f>
-        <v>9.555246604539279E-4</v>
+        <v>9.701973218200204E-4</v>
       </c>
       <c r="BS5" s="10"/>
       <c r="BT5" s="4"/>
@@ -22743,12 +22743,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -22976,123 +22976,123 @@
       </c>
       <c r="B3" s="4">
         <f>BNVFE!B25*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>3.6512977295439592E-4</v>
+        <v>3.4315885705159878E-4</v>
       </c>
       <c r="C3" s="4">
         <f>BNVFE!C25*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.5474795033263841E-4</v>
+        <v>3.4251537077170018E-4</v>
       </c>
       <c r="D3" s="4">
         <f>BNVFE!D25*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.5999582362156076E-4</v>
+        <v>3.5067496258556929E-4</v>
       </c>
       <c r="E3" s="4">
         <f>BNVFE!E25*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.575411527957111E-4</v>
+        <v>3.5195903261955489E-4</v>
       </c>
       <c r="F3" s="4">
         <f>BNVFE!F25*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.5098955393113139E-4</v>
+        <v>3.5537454196456301E-4</v>
       </c>
       <c r="G3" s="4">
         <f>BNVFE!G25*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.2529070551256162E-4</v>
+        <v>3.6001444402488291E-4</v>
       </c>
       <c r="H3" s="4">
         <f>BNVFE!H25*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.2405957424546739E-4</v>
+        <v>3.639117399264578E-4</v>
       </c>
       <c r="I3" s="4">
         <f>BNVFE!I25*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.2305318872919765E-4</v>
+        <v>3.6765602654358315E-4</v>
       </c>
       <c r="J3" s="4">
         <f>BNVFE!J25*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.2314699001954232E-4</v>
+        <v>3.7314346130715945E-4</v>
       </c>
       <c r="K3" s="4">
         <f>BNVFE!K25*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.2324770853401079E-4</v>
+        <v>3.7816127565462235E-4</v>
       </c>
       <c r="L3" s="4">
         <f>BNVFE!L25*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.2427274517001246E-4</v>
+        <v>3.8287720134892478E-4</v>
       </c>
       <c r="M3" s="4">
         <f>BNVFE!M25*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.2437797979064292E-4</v>
+        <v>3.8695589546632644E-4</v>
       </c>
       <c r="N3" s="4">
         <f>BNVFE!N25*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.2523361399085606E-4</v>
+        <v>3.9124659466938441E-4</v>
       </c>
       <c r="O3" s="4">
         <f>BNVFE!O25*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>3.2615971146515569E-4</v>
+        <v>3.9544274917153121E-4</v>
       </c>
       <c r="P3" s="4">
         <f>BNVFE!P25*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.3177243986842866E-4</v>
+        <v>4.0318106889032553E-4</v>
       </c>
       <c r="Q3" s="4">
         <f>BNVFE!Q25*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>3.3631690935380739E-4</v>
+        <v>4.0934602784305208E-4</v>
       </c>
       <c r="R3" s="4">
         <f>BNVFE!R25*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>3.4057057772530629E-4</v>
+        <v>4.1460859761082873E-4</v>
       </c>
       <c r="S3" s="4">
         <f>BNVFE!S25*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>3.5254040910253097E-4</v>
+        <v>4.2918095492519738E-4</v>
       </c>
       <c r="T3" s="4">
         <f>BNVFE!T25*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>3.5622167214823523E-4</v>
+        <v>4.335787303895307E-4</v>
       </c>
       <c r="U3" s="4">
         <f>BNVFE!U25*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>3.5932586621187509E-4</v>
+        <v>4.3685345470599412E-4</v>
       </c>
       <c r="V3" s="4">
         <f>BNVFE!V25*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>3.6998069835868409E-4</v>
+        <v>4.4986152668336464E-4</v>
       </c>
       <c r="W3" s="4">
         <f>BNVFE!W25*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>3.7043547142435307E-4</v>
+        <v>4.506125079279828E-4</v>
       </c>
       <c r="X3" s="4">
         <f>BNVFE!X25*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>3.7063277045978053E-4</v>
+        <v>4.5077860462753374E-4</v>
       </c>
       <c r="Y3" s="4">
         <f>BNVFE!Y25*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>3.7027223527136152E-4</v>
+        <v>4.5037480829452432E-4</v>
       </c>
       <c r="Z3" s="4">
         <f>BNVFE!Z25*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>3.707899458345789E-4</v>
+        <v>4.5090752346333351E-4</v>
       </c>
       <c r="AA3" s="4">
         <f>BNVFE!AA25*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>3.6942231456915355E-4</v>
+        <v>4.5088043127990992E-4</v>
       </c>
       <c r="AB3" s="4">
         <f>BNVFE!AB25*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>3.7062339495815715E-4</v>
+        <v>4.5210293408135845E-4</v>
       </c>
       <c r="AC3" s="4">
         <f>BNVFE!AC25*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>3.7138471662628673E-4</v>
+        <v>4.5305688916845286E-4</v>
       </c>
       <c r="AD3" s="4">
         <f>BNVFE!AD25*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>3.7275932113182964E-4</v>
+        <v>4.5475075705116326E-4</v>
       </c>
       <c r="AE3" s="4">
         <f>BNVFE!AE25*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>3.7333739446942469E-4</v>
+        <v>4.5558862387767087E-4</v>
       </c>
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
@@ -23103,123 +23103,123 @@
       </c>
       <c r="B4" s="4">
         <f>Extrapolations!AB2</f>
-        <v>3.170827862483609E-4</v>
+        <v>3.1934654476143933E-4</v>
       </c>
       <c r="C4" s="4">
         <f>Extrapolations!AC2</f>
-        <v>3.199157108645295E-4</v>
+        <v>3.2444322789068635E-4</v>
       </c>
       <c r="D4" s="4">
         <f>Extrapolations!AD2</f>
-        <v>3.227486354806981E-4</v>
+        <v>3.2953991101993338E-4</v>
       </c>
       <c r="E4" s="4">
         <f>Extrapolations!AE2</f>
-        <v>3.255815600968667E-4</v>
+        <v>3.346365941491804E-4</v>
       </c>
       <c r="F4" s="4">
         <f>Extrapolations!AF2</f>
-        <v>3.284144847130353E-4</v>
+        <v>3.3973327727842743E-4</v>
       </c>
       <c r="G4" s="4">
         <f>Extrapolations!AG2</f>
-        <v>3.312474093292039E-4</v>
+        <v>3.4482996040767445E-4</v>
       </c>
       <c r="H4" s="4">
         <f>Extrapolations!AH2</f>
-        <v>3.3408033394537249E-4</v>
+        <v>3.4992664353692148E-4</v>
       </c>
       <c r="I4" s="4">
         <f>Extrapolations!AI2</f>
-        <v>3.3691325856154109E-4</v>
+        <v>3.550233266661685E-4</v>
       </c>
       <c r="J4" s="4">
         <f>Extrapolations!AJ2</f>
-        <v>3.3974618317770969E-4</v>
+        <v>3.6012000979541552E-4</v>
       </c>
       <c r="K4" s="4">
         <f>Extrapolations!AK2</f>
-        <v>3.4257910779387829E-4</v>
+        <v>3.6521669292466255E-4</v>
       </c>
       <c r="L4" s="4">
         <f>Extrapolations!AL2</f>
-        <v>3.4541203241004689E-4</v>
+        <v>3.7031337605390957E-4</v>
       </c>
       <c r="M4" s="4">
         <f>Extrapolations!AM2</f>
-        <v>3.4824495702621549E-4</v>
+        <v>3.754100591831566E-4</v>
       </c>
       <c r="N4" s="4">
         <f>Extrapolations!AN2</f>
-        <v>3.5107788164238408E-4</v>
+        <v>3.8050674231240362E-4</v>
       </c>
       <c r="O4" s="4">
         <f>Extrapolations!AO2</f>
-        <v>3.5391080625855263E-4</v>
+        <v>3.8560342544165043E-4</v>
       </c>
       <c r="P4" s="4">
         <f>Extrapolations!AP2</f>
-        <v>3.6152338546126896E-4</v>
+        <v>3.938977091004229E-4</v>
       </c>
       <c r="Q4" s="4">
         <f>Extrapolations!AQ2</f>
-        <v>3.6806778318324615E-4</v>
+        <v>4.0102815590911211E-4</v>
       </c>
       <c r="R4" s="4">
         <f>Extrapolations!AR2</f>
-        <v>3.7326311577328699E-4</v>
+        <v>4.0668872915977704E-4</v>
       </c>
       <c r="S4" s="4">
         <f>Extrapolations!AS2</f>
-        <v>3.8684273091170592E-4</v>
+        <v>4.2148439524556525E-4</v>
       </c>
       <c r="T4" s="4">
         <f>Extrapolations!AT2</f>
-        <v>3.9133628030331842E-4</v>
+        <v>4.2638034079782157E-4</v>
       </c>
       <c r="U4" s="4">
         <f>Extrapolations!AU2</f>
-        <v>3.9460271712590122E-4</v>
+        <v>4.2993928617474374E-4</v>
       </c>
       <c r="V4" s="4">
         <f>Extrapolations!AV2</f>
-        <v>4.0654622240144441E-4</v>
+        <v>4.4295232919176118E-4</v>
       </c>
       <c r="W4" s="4">
         <f>Extrapolations!AW2</f>
-        <v>4.0753465089361259E-4</v>
+        <v>4.4402927119422075E-4</v>
       </c>
       <c r="X4" s="4">
         <f>Extrapolations!AX2</f>
-        <v>4.0771889354095417E-4</v>
+        <v>4.4423001272194757E-4</v>
       </c>
       <c r="Y4" s="4">
         <f>Extrapolations!AY2</f>
-        <v>4.0791884576015625E-4</v>
+        <v>4.4444787060954387E-4</v>
       </c>
       <c r="Z4" s="4">
         <f>Extrapolations!AZ2</f>
-        <v>4.0852284515353123E-4</v>
+        <v>4.4510595798899477E-4</v>
       </c>
       <c r="AA4" s="4">
         <f>Extrapolations!BA2</f>
-        <v>4.09583671112226E-4</v>
+        <v>4.4626178063197816E-4</v>
       </c>
       <c r="AB4" s="4">
         <f>Extrapolations!BB2</f>
-        <v>4.1078673798239525E-4</v>
+        <v>4.4757258182247277E-4</v>
       </c>
       <c r="AC4" s="4">
         <f>Extrapolations!BC2</f>
-        <v>4.122748024320864E-4</v>
+        <v>4.4919390205042781E-4</v>
       </c>
       <c r="AD4" s="4">
         <f>Extrapolations!BD2</f>
-        <v>4.1373149805260076E-4</v>
+        <v>4.5078104437884211E-4</v>
       </c>
       <c r="AE4" s="4">
         <f>Extrapolations!BE2</f>
-        <v>4.1495700440447459E-4</v>
+        <v>4.5211629450069859E-4</v>
       </c>
       <c r="AG4" s="4"/>
       <c r="AH4" s="4"/>
@@ -23230,123 +23230,123 @@
       </c>
       <c r="B5" s="4">
         <f>BNVFE!B27*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>3.5658241110255779E-4</v>
+        <v>3.3512581471667653E-4</v>
       </c>
       <c r="C5" s="4">
         <f>BNVFE!C27*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.546826203139623E-4</v>
+        <v>3.4245229349232932E-4</v>
       </c>
       <c r="D5" s="4">
         <f>BNVFE!D27*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.5321445226457391E-4</v>
+        <v>3.4406917165453311E-4</v>
       </c>
       <c r="E5" s="4">
         <f>BNVFE!E27*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.524765095404888E-4</v>
+        <v>3.4697346123362365E-4</v>
       </c>
       <c r="F5" s="4">
         <f>BNVFE!F27*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.4444165282567749E-4</v>
+        <v>3.4874483652143026E-4</v>
       </c>
       <c r="G5" s="4">
         <f>BNVFE!G27*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.1958904086234162E-4</v>
+        <v>3.5370414497766343E-4</v>
       </c>
       <c r="H5" s="4">
         <f>BNVFE!H27*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.1833343353394986E-4</v>
+        <v>3.5748141045927891E-4</v>
       </c>
       <c r="I5" s="4">
         <f>BNVFE!I27*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.1412412398046098E-4</v>
+        <v>3.5749415666950872E-4</v>
       </c>
       <c r="J5" s="4">
         <f>BNVFE!J27*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.1380528787726191E-4</v>
+        <v>3.6235643503264504E-4</v>
       </c>
       <c r="K5" s="4">
         <f>BNVFE!K27*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.1412454613579944E-4</v>
+        <v>3.6748826347409249E-4</v>
       </c>
       <c r="L5" s="4">
         <f>BNVFE!L27*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.1593684912226372E-4</v>
+        <v>3.7303479369352893E-4</v>
       </c>
       <c r="M5" s="4">
         <f>BNVFE!M27*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.1696816235110396E-4</v>
+        <v>3.7811660081257293E-4</v>
       </c>
       <c r="N5" s="4">
         <f>BNVFE!N27*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.1872195023581305E-4</v>
+        <v>3.8341325223429322E-4</v>
       </c>
       <c r="O5" s="4">
         <f>BNVFE!O27*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>3.204519818383183E-4</v>
+        <v>3.8852258026095287E-4</v>
       </c>
       <c r="P5" s="4">
         <f>BNVFE!P27*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.2661274550379422E-4</v>
+        <v>3.9691083411764322E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>BNVFE!Q27*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>3.3159751139569607E-4</v>
+        <v>4.0360184206400415E-4</v>
       </c>
       <c r="R5" s="4">
         <f>BNVFE!R27*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>3.3626742360268452E-4</v>
+        <v>4.0936996335181616E-4</v>
       </c>
       <c r="S5" s="4">
         <f>BNVFE!S27*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>3.4855286672866461E-4</v>
+        <v>4.2432654051018792E-4</v>
       </c>
       <c r="T5" s="4">
         <f>BNVFE!T27*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>3.5224997356011041E-4</v>
+        <v>4.2874453818290829E-4</v>
       </c>
       <c r="U5" s="4">
         <f>BNVFE!U27*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>3.5572055564458207E-4</v>
+        <v>4.3247026795349556E-4</v>
       </c>
       <c r="V5" s="4">
         <f>BNVFE!V27*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>3.6666645963201293E-4</v>
+        <v>4.4583172593973757E-4</v>
       </c>
       <c r="W5" s="4">
         <f>BNVFE!W27*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>3.6745317163350868E-4</v>
+        <v>4.4698471930671959E-4</v>
       </c>
       <c r="X5" s="4">
         <f>BNVFE!X27*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>3.6812816732604984E-4</v>
+        <v>4.4773240473439335E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>BNVFE!Y27*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>3.6829543482855682E-4</v>
+        <v>4.4797035817470312E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>BNVFE!Z27*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>3.6916794586512564E-4</v>
+        <v>4.4893505361214171E-4</v>
       </c>
       <c r="AA5" s="4">
         <f>BNVFE!AA27*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>3.6836027015493497E-4</v>
+        <v>4.4958420464541509E-4</v>
       </c>
       <c r="AB5" s="4">
         <f>BNVFE!AB27*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>3.6989680254038607E-4</v>
+        <v>4.5121660426941369E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>BNVFE!AC27*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>3.7101492304657024E-4</v>
+        <v>4.5260577332722303E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>BNVFE!AD27*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>3.7218016517873024E-4</v>
+        <v>4.5404421104897877E-4</v>
       </c>
       <c r="AE5" s="4">
         <f>BNVFE!AE27*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>3.7301391239035468E-4</v>
+        <v>4.5519387436306075E-4</v>
       </c>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
@@ -23357,123 +23357,123 @@
       </c>
       <c r="B6" s="4">
         <f>BNVFE!B28*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>5.7733679111085859E-4</v>
+        <v>5.4259676434598647E-4</v>
       </c>
       <c r="C6" s="4">
         <f>BNVFE!C28*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>5.1624349374592988E-4</v>
+        <v>4.9844215168280475E-4</v>
       </c>
       <c r="D6" s="4">
         <f>BNVFE!D28*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>5.0741882465691354E-4</v>
+        <v>4.9428094904465346E-4</v>
       </c>
       <c r="E6" s="4">
         <f>BNVFE!E28*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>5.1345781970387209E-4</v>
+        <v>5.0544144667222896E-4</v>
       </c>
       <c r="F6" s="4">
         <f>BNVFE!F28*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>5.0721121114026969E-4</v>
+        <v>5.1354790995754805E-4</v>
       </c>
       <c r="G6" s="4">
         <f>BNVFE!G28*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>4.7306733810797443E-4</v>
+        <v>5.235657577332682E-4</v>
       </c>
       <c r="H6" s="4">
         <f>BNVFE!H28*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>4.7481949081841583E-4</v>
+        <v>5.332117943345761E-4</v>
       </c>
       <c r="I6" s="4">
         <f>BNVFE!I28*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>4.7320913259414843E-4</v>
+        <v>5.3854348287996328E-4</v>
       </c>
       <c r="J6" s="4">
         <f>BNVFE!J28*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>4.7463592657213656E-4</v>
+        <v>5.480703765526247E-4</v>
       </c>
       <c r="K6" s="4">
         <f>BNVFE!K28*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>4.7740258867597427E-4</v>
+        <v>5.5850410433932053E-4</v>
       </c>
       <c r="L6" s="4">
         <f>BNVFE!L28*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>4.8006153857130626E-4</v>
+        <v>5.6682105141791681E-4</v>
       </c>
       <c r="M6" s="4">
         <f>BNVFE!M28*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>4.8249268977570829E-4</v>
+        <v>5.7557356682662623E-4</v>
       </c>
       <c r="N6" s="4">
         <f>BNVFE!N28*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>4.8553787759081645E-4</v>
+        <v>5.8408796944263018E-4</v>
       </c>
       <c r="O6" s="4">
         <f>BNVFE!O28*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>4.8878116836815273E-4</v>
+        <v>5.9260835157877673E-4</v>
       </c>
       <c r="P6" s="4">
         <f>BNVFE!P28*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>4.9839012649989111E-4</v>
+        <v>6.0566050635881105E-4</v>
       </c>
       <c r="Q6" s="4">
         <f>BNVFE!Q28*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>5.0688524375738135E-4</v>
+        <v>6.1695221183796919E-4</v>
       </c>
       <c r="R6" s="4">
         <f>BNVFE!R28*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>5.1408893015787694E-4</v>
+        <v>6.2584880879500203E-4</v>
       </c>
       <c r="S6" s="4">
         <f>BNVFE!S28*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>5.3298064486994104E-4</v>
+        <v>6.4884800781915975E-4</v>
       </c>
       <c r="T6" s="4">
         <f>BNVFE!T28*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>5.3904493880410056E-4</v>
+        <v>6.5610387706092899E-4</v>
       </c>
       <c r="U6" s="4">
         <f>BNVFE!U28*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>5.4440423055981968E-4</v>
+        <v>6.6186403829994044E-4</v>
       </c>
       <c r="V6" s="4">
         <f>BNVFE!V28*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>5.6091264450523141E-4</v>
+        <v>6.8201670982440869E-4</v>
       </c>
       <c r="W6" s="4">
         <f>BNVFE!W28*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>5.6228352121743142E-4</v>
+        <v>6.8398414084949516E-4</v>
       </c>
       <c r="X6" s="4">
         <f>BNVFE!X28*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>5.6300211186441568E-4</v>
+        <v>6.847459982390736E-4</v>
       </c>
       <c r="Y6" s="4">
         <f>BNVFE!Y28*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>5.6370242333199415E-4</v>
+        <v>6.8565057452186899E-4</v>
       </c>
       <c r="Z6" s="4">
         <f>BNVFE!Z28*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>5.6505007903216167E-4</v>
+        <v>6.8714196442322276E-4</v>
       </c>
       <c r="AA6" s="4">
         <f>BNVFE!AA28*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>5.6472680383080583E-4</v>
+        <v>6.892498228308697E-4</v>
       </c>
       <c r="AB6" s="4">
         <f>BNVFE!AB28*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>5.6695236229259763E-4</v>
+        <v>6.9159375787861133E-4</v>
       </c>
       <c r="AC6" s="4">
         <f>BNVFE!AC28*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>5.6913462321645978E-4</v>
+        <v>6.942944886231706E-4</v>
       </c>
       <c r="AD6" s="4">
         <f>BNVFE!AD28*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>5.7051355681803149E-4</v>
+        <v>6.9600264074737327E-4</v>
       </c>
       <c r="AE6" s="4">
         <f>BNVFE!AE28*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>5.7222367877689934E-4</v>
+        <v>6.98292220994049E-4</v>
       </c>
       <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
@@ -23484,123 +23484,123 @@
       </c>
       <c r="B7" s="4">
         <f>BNVFE!B29*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>3.1763216261773128E-4</v>
+        <v>2.9851931548825495E-4</v>
       </c>
       <c r="C7" s="4">
         <f>BNVFE!C29*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.0669186158966625E-4</v>
+        <v>2.9611637385514933E-4</v>
       </c>
       <c r="D7" s="4">
         <f>BNVFE!D29*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.1685245989931227E-4</v>
+        <v>3.0864864876083039E-4</v>
       </c>
       <c r="E7" s="4">
         <f>BNVFE!E29*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.1739782303062078E-4</v>
+        <v>3.1244244159283816E-4</v>
       </c>
       <c r="F7" s="4">
         <f>BNVFE!F29*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.1192088323962313E-4</v>
+        <v>3.1581777796216959E-4</v>
       </c>
       <c r="G7" s="4">
         <f>BNVFE!G29*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>2.9142107044187574E-4</v>
+        <v>3.2252933414421414E-4</v>
       </c>
       <c r="H7" s="4">
         <f>BNVFE!H29*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>2.9074753100539563E-4</v>
+        <v>3.2650305158812983E-4</v>
       </c>
       <c r="I7" s="4">
         <f>BNVFE!I29*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>2.8982606084405671E-4</v>
+        <v>3.298413438909791E-4</v>
       </c>
       <c r="J7" s="4">
         <f>BNVFE!J29*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>2.8983551626977824E-4</v>
+        <v>3.3467812200296891E-4</v>
       </c>
       <c r="K7" s="4">
         <f>BNVFE!K29*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>2.9017394439876564E-4</v>
+        <v>3.3946891525767797E-4</v>
       </c>
       <c r="L7" s="4">
         <f>BNVFE!L29*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>2.9163668386046073E-4</v>
+        <v>3.443429612582203E-4</v>
       </c>
       <c r="M7" s="4">
         <f>BNVFE!M29*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>2.925881148990673E-4</v>
+        <v>3.4903323609280015E-4</v>
       </c>
       <c r="N7" s="4">
         <f>BNVFE!N29*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>2.9426018427939119E-4</v>
+        <v>3.5398645802132289E-4</v>
       </c>
       <c r="O7" s="4">
         <f>BNVFE!O29*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>2.9593459855706646E-4</v>
+        <v>3.5879720000574574E-4</v>
       </c>
       <c r="P7" s="4">
         <f>BNVFE!P29*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.0150773383604229E-4</v>
+        <v>3.6640237644490118E-4</v>
       </c>
       <c r="Q7" s="4">
         <f>BNVFE!Q29*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>3.0595864748126056E-4</v>
+        <v>3.7239565881871939E-4</v>
       </c>
       <c r="R7" s="4">
         <f>BNVFE!R29*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>3.1002205402131999E-4</v>
+        <v>3.774190063766538E-4</v>
       </c>
       <c r="S7" s="4">
         <f>BNVFE!S29*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>3.2110959644743808E-4</v>
+        <v>3.9091723865015179E-4</v>
       </c>
       <c r="T7" s="4">
         <f>BNVFE!T29*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>3.2436399554231139E-4</v>
+        <v>3.9480284431652184E-4</v>
       </c>
       <c r="U7" s="4">
         <f>BNVFE!U29*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>3.2731318390816493E-4</v>
+        <v>3.9793376599498131E-4</v>
       </c>
       <c r="V7" s="4">
         <f>BNVFE!V29*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>3.3702991066531066E-4</v>
+        <v>4.0979648620174003E-4</v>
       </c>
       <c r="W7" s="4">
         <f>BNVFE!W29*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>3.3741002097795717E-4</v>
+        <v>4.1043903049645998E-4</v>
       </c>
       <c r="X7" s="4">
         <f>BNVFE!X29*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>3.3750948921623593E-4</v>
+        <v>4.1049272682690713E-4</v>
       </c>
       <c r="Y7" s="4">
         <f>BNVFE!Y29*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>3.3717526117842833E-4</v>
+        <v>4.1011782453415828E-4</v>
       </c>
       <c r="Z7" s="4">
         <f>BNVFE!Z29*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>3.375039228412405E-4</v>
+        <v>4.1042930024698523E-4</v>
       </c>
       <c r="AA7" s="4">
         <f>BNVFE!AA29*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>3.3608556774951192E-4</v>
+        <v>4.1019288699596694E-4</v>
       </c>
       <c r="AB7" s="4">
         <f>BNVFE!AB29*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>3.3718406040280117E-4</v>
+        <v>4.1131214355959064E-4</v>
       </c>
       <c r="AC7" s="4">
         <f>BNVFE!AC29*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>3.378358588691025E-4</v>
+        <v>4.1213021542511836E-4</v>
       </c>
       <c r="AD7" s="4">
         <f>BNVFE!AD29*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>3.3847440572982264E-4</v>
+        <v>4.1292459644126167E-4</v>
       </c>
       <c r="AE7" s="4">
         <f>BNVFE!AE29*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>3.3885840983958386E-4</v>
+        <v>4.135134570368764E-4</v>
       </c>
       <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
@@ -23782,12 +23782,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -24781,12 +24781,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\MN\trans\BHNVFEAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A61455B-3F35-4EB8-9D97-AD919D1B834E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F0C145-5EB0-4280-9DA6-AA87E9CED957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="730" windowWidth="9800" windowHeight="10070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="99">
   <si>
     <t>Sources:</t>
   </si>
@@ -379,9 +379,6 @@
   </si>
   <si>
     <t>energy consumption that more closely matches EIA's AEO trajectory: freight LDVs, passenger HDVs, freight HDVs, passenger ships, passenger motorbikes.</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1293,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1338,7 +1335,6 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="155" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="156">
     <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -7789,30 +7785,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.40625" customWidth="1"/>
-    <col min="2" max="2" width="107.40625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="107.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="31">
-        <v>45467</v>
-      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7820,58 +7810,58 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="B7" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="B8" s="5">
         <v>2008</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="B9" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="B10" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="B11" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="B14" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
@@ -8032,12 +8022,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -9031,12 +9021,12 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -9908,12 +9898,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -10785,14 +10775,14 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
-    <col min="2" max="2" width="10.40625" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -11691,12 +11681,12 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -12568,12 +12558,12 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -13559,12 +13549,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -14436,12 +14426,12 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -15435,12 +15425,12 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -16213,11 +16203,11 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.40625" customWidth="1"/>
-    <col min="2" max="2" width="16.40625" customWidth="1"/>
-    <col min="3" max="3" width="30.7265625" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -18519,7 +18509,7 @@
       <selection sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -18896,9 +18886,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.40625" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -19005,11 +18995,11 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.1328125" customWidth="1"/>
-    <col min="2" max="2" width="26.40625" customWidth="1"/>
-    <col min="3" max="3" width="42.86328125" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -19179,7 +19169,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="29.5">
+    <row r="20" spans="1:4" ht="30">
       <c r="A20" s="13" t="s">
         <v>68</v>
       </c>
@@ -19197,7 +19187,7 @@
         <v>6.7042622950819668</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="29.5">
+    <row r="22" spans="1:4" ht="30">
       <c r="A22" s="13" t="s">
         <v>70</v>
       </c>
@@ -19289,11 +19279,11 @@
       <selection pane="topRight" activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="15" max="15" width="11.40625" customWidth="1"/>
-    <col min="40" max="40" width="8.7265625" style="24"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="40" max="40" width="8.7109375" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -22743,12 +22733,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -23782,12 +23772,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -24781,12 +24771,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
